--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -40,16 +40,22 @@
   <si>
     <t>神化</t>
   </si>
+  <si>
+    <t>拘束</t>
+  </si>
+  <si>
+    <t>再行動</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,14 +66,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -75,9 +149,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,114 +194,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,187 +219,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,32 +413,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,17 +426,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -475,8 +449,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,15 +510,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -512,145 +518,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,13 +986,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1018,6 +1024,28 @@
         <v>11</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>102</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
@@ -1030,13 +1058,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1068,6 +1096,28 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -41,10 +41,19 @@
     <t>神化</t>
   </si>
   <si>
+    <t>鈍足</t>
+  </si>
+  <si>
     <t>拘束</t>
   </si>
   <si>
     <t>再行動</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>攻撃無効</t>
   </si>
 </sst>
 </file>
@@ -52,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,8 +75,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,8 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,7 +190,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,67 +198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,37 +218,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -219,37 +228,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,145 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,9 +424,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,7 +437,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,22 +485,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,17 +501,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,145 +527,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1029,24 +1038,57 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>102</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>102</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>103</v>
+      </c>
+      <c r="B7">
+        <v>103</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>104</v>
+      </c>
+      <c r="B8">
+        <v>104</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1058,13 +1100,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1101,23 +1143,56 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>攻撃無効</t>
+  </si>
+  <si>
+    <t>リジェネ</t>
   </si>
 </sst>
 </file>
@@ -61,10 +64,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -76,74 +79,54 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,48 +140,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +161,66 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -228,31 +231,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,151 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,11 +427,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,15 +454,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,6 +473,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -477,15 +495,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,17 +514,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,145 +530,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,13 +998,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1089,6 +1092,17 @@
       </c>
       <c r="C8">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>105</v>
+      </c>
+      <c r="B9">
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1100,13 +1114,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1193,6 +1207,17 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -44,10 +44,13 @@
     <t>鈍足</t>
   </si>
   <si>
+    <t>回避アップ</t>
+  </si>
+  <si>
     <t>拘束</t>
   </si>
   <si>
-    <t>再行動</t>
+    <t>拘束ダメージ</t>
   </si>
   <si>
     <t>CA</t>
@@ -57,6 +60,9 @@
   </si>
   <si>
     <t>リジェネ</t>
+  </si>
+  <si>
+    <t>行動後AP設定</t>
   </si>
 </sst>
 </file>
@@ -78,6 +84,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -88,15 +207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,59 +215,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,59 +223,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,13 +237,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,19 +309,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,55 +393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,85 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +436,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,35 +487,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,30 +528,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -530,7 +536,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,7 +545,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,127 +554,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,10 +1004,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1052,57 +1058,79 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
+        <v>104</v>
+      </c>
+      <c r="B9">
+        <v>104</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>105</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>105</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>106</v>
+      </c>
+      <c r="B11">
+        <v>106</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1114,10 +1142,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1168,18 +1196,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1190,7 +1218,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1201,7 +1229,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1212,12 +1240,34 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>鈍足</t>
+  </si>
+  <si>
+    <t>防御アップ</t>
   </si>
   <si>
     <t>回避アップ</t>
@@ -70,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,6 +87,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -92,7 +103,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,11 +117,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,7 +134,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +143,49 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,76 +207,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,73 +240,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,97 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,21 +444,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -466,21 +454,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,11 +478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +507,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,145 +539,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,10 +1007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1058,10 +1061,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1069,67 +1072,78 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
+        <v>105</v>
+      </c>
+      <c r="B11">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>106</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>106</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>0</v>
       </c>
     </row>
@@ -1142,10 +1156,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1196,7 +1210,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1207,18 +1221,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1229,7 +1243,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1240,7 +1254,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1251,7 +1265,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1262,12 +1276,23 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -44,12 +44,30 @@
     <t>鈍足</t>
   </si>
   <si>
+    <t>スタン</t>
+  </si>
+  <si>
+    <t>状態異常無効</t>
+  </si>
+  <si>
+    <t>攻撃アップ</t>
+  </si>
+  <si>
     <t>防御アップ</t>
   </si>
   <si>
+    <t>ダメージ威力アップ</t>
+  </si>
+  <si>
     <t>回避アップ</t>
   </si>
   <si>
+    <t>狙われ率アップ</t>
+  </si>
+  <si>
+    <t>狙われ率ダウン</t>
+  </si>
+  <si>
     <t>拘束</t>
   </si>
   <si>
@@ -66,6 +84,21 @@
   </si>
   <si>
     <t>行動後AP設定</t>
+  </si>
+  <si>
+    <t>挑発</t>
+  </si>
+  <si>
+    <t>バニッシュ</t>
+  </si>
+  <si>
+    <t>祝福</t>
+  </si>
+  <si>
+    <t>呪い</t>
+  </si>
+  <si>
+    <t>ドレイン</t>
   </si>
 </sst>
 </file>
@@ -73,10 +106,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,6 +120,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -95,17 +172,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,7 +226,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -126,7 +242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,98 +250,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,19 +285,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,61 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,79 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,11 +467,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,12 +497,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -478,17 +530,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,26 +554,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,145 +572,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,10 +1040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1061,10 +1094,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1072,10 +1105,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1083,54 +1116,54 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="B7">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="B8">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="B9">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B11">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1138,13 +1171,134 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>101</v>
+      </c>
+      <c r="B13">
+        <v>101</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>102</v>
+      </c>
+      <c r="B14">
+        <v>102</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>103</v>
+      </c>
+      <c r="B15">
+        <v>103</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>104</v>
+      </c>
+      <c r="B16">
+        <v>104</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <v>105</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
         <v>106</v>
       </c>
-      <c r="B12">
+      <c r="B18">
         <v>106</v>
       </c>
-      <c r="C12">
+      <c r="C18">
         <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>107</v>
+      </c>
+      <c r="B19">
+        <v>107</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>108</v>
+      </c>
+      <c r="B20">
+        <v>108</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>109</v>
+      </c>
+      <c r="B21">
+        <v>109</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>110</v>
+      </c>
+      <c r="B22">
+        <v>110</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>111</v>
+      </c>
+      <c r="B23">
+        <v>111</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1156,13 +1310,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="14.6363636363636" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1210,7 +1367,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1221,7 +1378,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1232,67 +1389,188 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -23,6 +23,9 @@
     <t>NameId</t>
   </si>
   <si>
+    <t>IconIndex</t>
+  </si>
+  <si>
     <t>RemovalTiming</t>
   </si>
   <si>
@@ -39,6 +42,9 @@
   </si>
   <si>
     <t>神化</t>
+  </si>
+  <si>
+    <t>ATK,DEF,SPDが\dアップ</t>
   </si>
   <si>
     <t>鈍足</t>
@@ -106,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,9 +127,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,8 +170,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,46 +232,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,25 +249,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,32 +263,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,187 +279,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,17 +473,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,48 +493,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +514,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -572,145 +578,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,26 +1046,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1067,10 +1076,13 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>11</v>
       </c>
@@ -1078,10 +1090,13 @@
         <v>11</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>21</v>
       </c>
@@ -1091,8 +1106,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>22</v>
       </c>
@@ -1102,8 +1120,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>31</v>
       </c>
@@ -1113,8 +1134,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>43</v>
       </c>
@@ -1124,8 +1148,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>44</v>
       </c>
@@ -1135,8 +1162,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>46</v>
       </c>
@@ -1146,8 +1176,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>52</v>
       </c>
@@ -1157,8 +1190,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>61</v>
       </c>
@@ -1168,8 +1204,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>62</v>
       </c>
@@ -1179,8 +1218,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>101</v>
       </c>
@@ -1188,10 +1230,13 @@
         <v>101</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>102</v>
       </c>
@@ -1199,10 +1244,13 @@
         <v>102</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>103</v>
       </c>
@@ -1210,10 +1258,13 @@
         <v>103</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>104</v>
       </c>
@@ -1221,10 +1272,13 @@
         <v>104</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>105</v>
       </c>
@@ -1234,8 +1288,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>106</v>
       </c>
@@ -1243,10 +1300,13 @@
         <v>106</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>107</v>
       </c>
@@ -1256,8 +1316,11 @@
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>108</v>
       </c>
@@ -1267,8 +1330,11 @@
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>109</v>
       </c>
@@ -1276,10 +1342,13 @@
         <v>109</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>110</v>
       </c>
@@ -1289,8 +1358,11 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>111</v>
       </c>
@@ -1298,6 +1370,9 @@
         <v>111</v>
       </c>
       <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
@@ -1312,8 +1387,8 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1326,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1337,10 +1412,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1348,10 +1423,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1359,10 +1434,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1370,10 +1445,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1381,10 +1456,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1392,10 +1467,10 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1403,10 +1478,10 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1414,10 +1489,10 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1425,10 +1500,10 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1436,10 +1511,10 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1447,10 +1522,10 @@
         <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1458,10 +1533,10 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1469,10 +1544,10 @@
         <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1480,10 +1555,10 @@
         <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1491,10 +1566,10 @@
         <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1502,10 +1577,10 @@
         <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1513,10 +1588,10 @@
         <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1524,10 +1599,10 @@
         <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1535,10 +1610,10 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1546,10 +1621,10 @@
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1557,10 +1632,10 @@
         <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1568,10 +1643,10 @@
         <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -53,7 +53,16 @@
     <t>スタン</t>
   </si>
   <si>
+    <t>火傷</t>
+  </si>
+  <si>
     <t>状態異常無効</t>
+  </si>
+  <si>
+    <t>最大Hpアップ</t>
+  </si>
+  <si>
+    <t>最大Mpアップ</t>
   </si>
   <si>
     <t>攻撃アップ</t>
@@ -112,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -127,9 +136,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,6 +196,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -155,32 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,76 +272,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -279,187 +288,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,8 +485,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,54 +526,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +555,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -578,16 +587,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,127 +605,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,10 +1055,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1126,10 +1135,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1140,10 +1149,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1154,10 +1163,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1168,10 +1177,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1182,10 +1191,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1196,10 +1205,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1210,10 +1219,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1224,108 +1233,108 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B14">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B16">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B20">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1336,24 +1345,24 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B21">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1364,15 +1373,57 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
+        <v>108</v>
+      </c>
+      <c r="B23">
+        <v>108</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>109</v>
+      </c>
+      <c r="B24">
+        <v>109</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>110</v>
+      </c>
+      <c r="B25">
+        <v>110</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
         <v>111</v>
       </c>
-      <c r="B23">
+      <c r="B26">
         <v>111</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
     </row>
@@ -1385,10 +1436,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1453,7 +1504,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1464,7 +1515,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1475,7 +1526,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1486,7 +1537,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1497,7 +1548,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1508,7 +1559,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1519,7 +1570,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1530,40 +1581,40 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1574,7 +1625,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1585,7 +1636,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1596,7 +1647,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1607,7 +1658,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1618,7 +1669,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1629,7 +1680,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1640,12 +1691,45 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>回避アップ</t>
+  </si>
+  <si>
+    <t>アクセル</t>
   </si>
   <si>
     <t>狙われ率アップ</t>
@@ -121,10 +124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -135,8 +138,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,6 +176,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -158,53 +236,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,66 +268,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -288,181 +291,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,24 +482,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,6 +496,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +524,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -541,17 +564,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,15 +582,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -587,145 +590,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,10 +1058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1247,24 +1250,24 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1275,108 +1278,108 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1387,43 +1390,57 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
+        <v>110</v>
+      </c>
+      <c r="B26">
+        <v>110</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
         <v>111</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>111</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
     </row>
@@ -1436,10 +1453,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1592,7 +1609,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1603,7 +1620,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1614,18 +1631,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1636,7 +1653,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1647,7 +1664,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1658,7 +1675,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1669,7 +1686,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1680,7 +1697,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1691,7 +1708,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1702,7 +1719,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1713,7 +1730,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1724,12 +1741,23 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>火傷</t>
+  </si>
+  <si>
+    <t>暗闇</t>
   </si>
   <si>
     <t>状態異常無効</t>
@@ -124,8 +127,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -138,6 +141,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -146,6 +195,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -154,80 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -236,17 +263,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,30 +284,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,187 +294,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,6 +491,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,15 +529,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,9 +550,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,26 +570,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,153 +599,156 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1152,10 +1164,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1166,10 +1178,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1180,10 +1192,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1194,10 +1206,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1208,10 +1220,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1222,10 +1234,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1236,10 +1248,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B13">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1250,38 +1262,38 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1292,108 +1304,108 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1404,43 +1416,57 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
+        <v>110</v>
+      </c>
+      <c r="B27">
+        <v>110</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
         <v>111</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>111</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
     </row>
@@ -1453,10 +1479,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1532,7 +1558,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1543,7 +1569,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1554,7 +1580,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1565,7 +1591,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1576,7 +1602,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1587,7 +1613,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1598,7 +1624,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1609,7 +1635,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1620,7 +1646,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1631,7 +1657,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1642,18 +1668,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1664,7 +1690,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1675,7 +1701,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1686,7 +1712,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1697,7 +1723,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1707,19 +1733,19 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
-        <v>107</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="2">
+        <v>106</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1730,7 +1756,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1741,7 +1767,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -1752,12 +1778,23 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
       <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>状態異常無効</t>
+  </si>
+  <si>
+    <t>攻撃範囲延長</t>
   </si>
   <si>
     <t>最大Hpアップ</t>
@@ -127,10 +130,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -142,7 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +159,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -165,125 +281,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -300,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,45 +494,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -548,22 +512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,6 +550,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -599,67 +602,67 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -668,76 +671,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,10 +1073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1192,10 +1195,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1206,10 +1209,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1220,10 +1223,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1234,10 +1237,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1248,10 +1251,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1262,10 +1265,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1276,38 +1279,38 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1318,108 +1321,108 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B18">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1430,43 +1433,57 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
+        <v>110</v>
+      </c>
+      <c r="B28">
+        <v>110</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
         <v>111</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>111</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>1</v>
       </c>
     </row>
@@ -1479,10 +1496,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1580,7 +1597,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1591,7 +1608,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1602,7 +1619,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1613,7 +1630,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1624,7 +1641,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1635,7 +1652,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1646,7 +1663,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1657,7 +1674,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1668,7 +1685,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1679,18 +1696,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1701,7 +1718,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1712,7 +1729,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1723,7 +1740,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1733,30 +1750,30 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2">
+      <c r="A23">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
         <v>106</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>107</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1767,7 +1784,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -1778,7 +1795,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -1789,12 +1806,23 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -131,8 +131,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -144,8 +144,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,6 +220,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -166,24 +243,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,55 +260,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,33 +274,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,37 +303,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,19 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,121 +465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,17 +497,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,30 +545,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -563,23 +554,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +570,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -602,7 +602,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,7 +611,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,127 +620,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1498,8 +1498,8 @@
   <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -59,6 +59,9 @@
     <t>暗闇</t>
   </si>
   <si>
+    <t>即死</t>
+  </si>
+  <si>
     <t>状態異常無効</t>
   </si>
   <si>
@@ -77,9 +80,15 @@
     <t>防御アップ</t>
   </si>
   <si>
+    <t>速度アップ</t>
+  </si>
+  <si>
     <t>ダメージ威力アップ</t>
   </si>
   <si>
+    <t>クリティカル発生率アップ</t>
+  </si>
+  <si>
     <t>回避アップ</t>
   </si>
   <si>
@@ -123,6 +132,30 @@
   </si>
   <si>
     <t>ドレイン</t>
+  </si>
+  <si>
+    <t>アフターヒール</t>
+  </si>
+  <si>
+    <t>CAダメージ</t>
+  </si>
+  <si>
+    <t>攻撃で即死</t>
+  </si>
+  <si>
+    <t>炎適正</t>
+  </si>
+  <si>
+    <t>雷適性</t>
+  </si>
+  <si>
+    <t>氷適性</t>
+  </si>
+  <si>
+    <t>光適性</t>
+  </si>
+  <si>
+    <t>闇適性</t>
   </si>
 </sst>
 </file>
@@ -131,45 +164,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -197,14 +199,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -214,9 +209,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,21 +220,6 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,7 +240,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +289,21 @@
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,25 +336,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,145 +486,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,60 +527,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,6 +551,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -586,6 +589,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -594,6 +612,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -602,145 +635,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1151,7 +1184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="12" customHeight="1" spans="1:4">
       <c r="A6">
         <v>23</v>
       </c>
@@ -1181,10 +1214,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1195,10 +1228,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1209,10 +1242,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1223,10 +1256,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1237,10 +1270,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1251,10 +1284,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1265,10 +1298,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1279,10 +1312,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1293,24 +1326,24 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B16">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1321,10 +1354,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B18">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1335,108 +1368,108 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B20">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B26">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1447,24 +1480,24 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B28">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1475,16 +1508,170 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
+        <v>108</v>
+      </c>
+      <c r="B29">
+        <v>108</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>109</v>
+      </c>
+      <c r="B30">
+        <v>109</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>110</v>
+      </c>
+      <c r="B31">
+        <v>110</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
         <v>111</v>
       </c>
-      <c r="B29">
+      <c r="B32">
         <v>111</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>112</v>
+      </c>
+      <c r="B33">
+        <v>112</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>113</v>
+      </c>
+      <c r="B34">
+        <v>113</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>114</v>
+      </c>
+      <c r="B35">
+        <v>114</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>201</v>
+      </c>
+      <c r="B36">
+        <v>201</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>202</v>
+      </c>
+      <c r="B37">
+        <v>202</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>203</v>
+      </c>
+      <c r="B38">
+        <v>203</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>204</v>
+      </c>
+      <c r="B39">
+        <v>204</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>205</v>
+      </c>
+      <c r="B40">
+        <v>205</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1496,10 +1683,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1586,7 +1773,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1597,7 +1784,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1608,7 +1795,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1619,7 +1806,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1630,7 +1817,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1641,7 +1828,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1652,7 +1839,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1663,7 +1850,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1674,7 +1861,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1685,7 +1872,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1696,7 +1883,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1707,40 +1894,40 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1751,7 +1938,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1761,19 +1948,19 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2">
-        <v>106</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1784,7 +1971,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -1794,19 +1981,19 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
-        <v>109</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="2">
+        <v>106</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -1817,12 +2004,133 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
       <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>即死</t>
+  </si>
+  <si>
+    <t>凍結</t>
   </si>
   <si>
     <t>状態異常無効</t>
@@ -163,10 +166,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -174,82 +177,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,17 +195,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,25 +309,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,13 +339,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,55 +483,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,109 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,22 +533,56 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,32 +611,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,21 +630,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,7 +638,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,7 +647,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,127 +656,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,10 +1109,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1228,10 +1231,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1242,10 +1245,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1256,10 +1259,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1270,10 +1273,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1284,10 +1287,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1298,10 +1301,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1312,10 +1315,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1326,10 +1329,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1340,10 +1343,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1354,10 +1357,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B18">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1368,38 +1371,38 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B20">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1410,108 +1413,108 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1522,38 +1525,38 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1564,10 +1567,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1578,10 +1581,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1592,24 +1595,24 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="B36">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1620,10 +1623,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1634,10 +1637,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1648,10 +1651,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1662,15 +1665,29 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
+        <v>204</v>
+      </c>
+      <c r="B40">
+        <v>204</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
         <v>205</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>205</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
         <v>0</v>
       </c>
     </row>
@@ -1683,10 +1700,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1784,7 +1801,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1795,7 +1812,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1806,7 +1823,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1817,7 +1834,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1828,7 +1845,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1839,7 +1856,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1850,7 +1867,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1861,7 +1878,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1872,7 +1889,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -1883,7 +1900,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1894,7 +1911,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1905,7 +1922,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1916,7 +1933,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -1927,18 +1944,18 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1949,7 +1966,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1960,7 +1977,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1971,7 +1988,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -1981,30 +1998,30 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2">
+      <c r="A27">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
         <v>106</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>107</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -2015,7 +2032,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -2026,7 +2043,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -2037,7 +2054,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
@@ -2048,7 +2065,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
@@ -2059,7 +2076,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
@@ -2070,7 +2087,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
@@ -2081,7 +2098,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -2092,7 +2109,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
@@ -2103,7 +2120,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
@@ -2114,7 +2131,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -2125,12 +2142,23 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
       </c>
       <c r="C40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>205</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>攻撃で即死</t>
+  </si>
+  <si>
+    <t>CA回復</t>
+  </si>
+  <si>
+    <t>同時回復</t>
   </si>
   <si>
     <t>炎適正</t>
@@ -166,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -187,9 +193,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,6 +210,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,15 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,10 +255,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,38 +300,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -293,32 +323,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,43 +345,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,139 +513,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,17 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,26 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,7 +603,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,15 +636,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,145 +644,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,7 +1117,7 @@
   <sheetPr/>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1700,10 +1706,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2109,7 +2115,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
@@ -2120,7 +2126,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
@@ -2131,7 +2137,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -2142,7 +2148,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
@@ -2153,12 +2159,34 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
       </c>
       <c r="C41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>204</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>205</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="162">
   <si>
     <t>Id</t>
   </si>
@@ -119,6 +119,12 @@
     <t>ShadowFollower</t>
   </si>
   <si>
+    <t>SwordBreak</t>
+  </si>
+  <si>
+    <t>CrackedShield</t>
+  </si>
+  <si>
     <t>Imprisoned</t>
   </si>
   <si>
@@ -159,6 +165,15 @@
   </si>
   <si>
     <t>Dew</t>
+  </si>
+  <si>
+    <t>QuickSlash</t>
+  </si>
+  <si>
+    <t>StrikingClamps</t>
+  </si>
+  <si>
+    <t>DeadlyStrike</t>
   </si>
   <si>
     <t>Text</t>
@@ -493,9 +508,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -514,6 +529,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -522,8 +567,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,67 +622,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,29 +637,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -644,7 +659,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -672,7 +687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,19 +705,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +735,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,25 +801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,19 +825,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,73 +855,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,6 +872,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -871,10 +910,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -896,16 +933,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,39 +972,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -965,7 +980,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,7 +989,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,127 +998,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1436,7 +1451,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2317,7 +2332,7 @@
         <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2353,7 +2368,7 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2389,7 +2404,7 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2425,7 +2440,7 @@
         <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -2434,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2461,7 +2476,7 @@
         <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2497,7 +2512,7 @@
         <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2506,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2533,7 +2548,7 @@
         <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -2542,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2569,7 +2584,7 @@
         <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2713,7 +2728,7 @@
         <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2749,7 +2764,7 @@
         <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -2785,7 +2800,7 @@
         <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2821,7 +2836,7 @@
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2857,7 +2872,7 @@
         <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2929,7 +2944,7 @@
         <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2965,7 +2980,7 @@
         <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3001,7 +3016,7 @@
         <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3073,7 +3088,7 @@
         <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3109,7 +3124,7 @@
         <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3145,7 +3160,7 @@
         <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -3181,7 +3196,7 @@
         <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3217,7 +3232,7 @@
         <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3253,7 +3268,7 @@
         <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3289,7 +3304,7 @@
         <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3523,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3534,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -3545,10 +3560,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3556,10 +3571,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3567,10 +3582,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3578,10 +3593,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3589,10 +3604,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3600,7 +3615,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -3611,10 +3626,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3622,10 +3637,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3633,10 +3648,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3644,10 +3659,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3655,10 +3670,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3666,10 +3681,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3677,10 +3692,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3688,10 +3703,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3699,10 +3714,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3710,10 +3725,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3721,10 +3736,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3732,10 +3747,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3743,10 +3758,10 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3754,10 +3769,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3765,10 +3780,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3776,10 +3791,10 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3787,10 +3802,10 @@
         <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3798,10 +3813,10 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3809,10 +3824,10 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3820,10 +3835,10 @@
         <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3831,10 +3846,10 @@
         <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3842,10 +3857,10 @@
         <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3853,10 +3868,10 @@
         <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3864,10 +3879,10 @@
         <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3875,7 +3890,7 @@
         <v>106</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
@@ -3886,10 +3901,10 @@
         <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3897,7 +3912,7 @@
         <v>108</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
@@ -3908,10 +3923,10 @@
         <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3919,10 +3934,10 @@
         <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3930,10 +3945,10 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3941,10 +3956,10 @@
         <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3952,10 +3967,10 @@
         <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3963,10 +3978,10 @@
         <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3974,10 +3989,10 @@
         <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3985,10 +4000,10 @@
         <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3996,10 +4011,10 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4007,10 +4022,10 @@
         <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4018,10 +4033,10 @@
         <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4029,10 +4044,10 @@
         <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4040,10 +4055,10 @@
         <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4051,10 +4066,10 @@
         <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4062,10 +4077,10 @@
         <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4073,10 +4088,10 @@
         <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4084,10 +4099,10 @@
         <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4095,10 +4110,10 @@
         <v>201</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4106,10 +4121,10 @@
         <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4117,10 +4132,10 @@
         <v>203</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4128,10 +4143,10 @@
         <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4139,10 +4154,10 @@
         <v>205</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>DrippingStar</t>
+  </si>
+  <si>
+    <t>EffekseerVol_3/NA_v3_3d_electrification_dark</t>
   </si>
   <si>
     <t>HalfHeart</t>
@@ -508,10 +511,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -522,30 +525,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,6 +580,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -591,22 +648,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,49 +662,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -681,7 +684,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +726,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,19 +834,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,139 +864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,39 +875,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -949,11 +919,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,6 +964,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -980,145 +983,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1450,8 +1453,8 @@
   <sheetPr/>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2773,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2800,7 +2803,7 @@
         <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3016,7 +3019,7 @@
         <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3088,7 +3091,7 @@
         <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3124,7 +3127,7 @@
         <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3160,7 +3163,7 @@
         <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -3196,7 +3199,7 @@
         <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3232,7 +3235,7 @@
         <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3268,7 +3271,7 @@
         <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3304,7 +3307,7 @@
         <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3538,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3549,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -3560,10 +3563,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3571,10 +3574,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3582,10 +3585,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3593,10 +3596,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3604,10 +3607,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3615,7 +3618,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -3626,10 +3629,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3637,10 +3640,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3648,10 +3651,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3659,10 +3662,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3670,10 +3673,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3681,10 +3684,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3692,10 +3695,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3703,10 +3706,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3714,10 +3717,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3725,10 +3728,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3736,10 +3739,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3747,10 +3750,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3758,10 +3761,10 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3769,10 +3772,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3780,10 +3783,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3791,10 +3794,10 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3802,10 +3805,10 @@
         <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3813,10 +3816,10 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3824,10 +3827,10 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3835,10 +3838,10 @@
         <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3846,10 +3849,10 @@
         <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3857,10 +3860,10 @@
         <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3868,10 +3871,10 @@
         <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3879,10 +3882,10 @@
         <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3890,7 +3893,7 @@
         <v>106</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
@@ -3901,10 +3904,10 @@
         <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3912,7 +3915,7 @@
         <v>108</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
@@ -3923,10 +3926,10 @@
         <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3934,10 +3937,10 @@
         <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3945,10 +3948,10 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3956,10 +3959,10 @@
         <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3967,10 +3970,10 @@
         <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3978,10 +3981,10 @@
         <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3989,10 +3992,10 @@
         <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4000,10 +4003,10 @@
         <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4011,10 +4014,10 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4022,10 +4025,10 @@
         <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4033,10 +4036,10 @@
         <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4044,10 +4047,10 @@
         <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4055,10 +4058,10 @@
         <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4066,10 +4069,10 @@
         <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4077,10 +4080,10 @@
         <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4088,10 +4091,10 @@
         <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4099,10 +4102,10 @@
         <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4110,10 +4113,10 @@
         <v>201</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4121,10 +4124,10 @@
         <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4132,10 +4135,10 @@
         <v>203</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4143,10 +4146,10 @@
         <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4154,10 +4157,10 @@
         <v>205</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="164">
   <si>
     <t>Id</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Abnormal</t>
+  </si>
+  <si>
+    <t>RemoveByAttack</t>
   </si>
   <si>
     <t>Death</t>
@@ -511,10 +514,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -526,7 +529,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -535,7 +538,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,27 +575,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -580,18 +589,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,31 +611,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,9 +650,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,6 +661,14 @@
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -690,7 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,31 +705,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,43 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +759,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,13 +783,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,31 +843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,13 +861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,6 +885,50 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -917,39 +964,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -964,17 +978,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -983,55 +986,64 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1040,88 +1052,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1451,23 +1454,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
     <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="14.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="31.1818181818182" customWidth="1"/>
     <col min="7" max="7" width="13.9090909090909" customWidth="1"/>
     <col min="8" max="8" width="5.72727272727273" customWidth="1"/>
     <col min="9" max="9" width="8.54545454545454" customWidth="1"/>
-    <col min="10" max="10" width="5.72727272727273" customWidth="1"/>
+    <col min="10" max="11" width="5.72727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1498,8 +1503,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1507,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1516,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1530,12 +1538,15 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
         <f>TextData!C2</f>
         <v>""</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>11</v>
       </c>
@@ -1543,7 +1554,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1552,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1566,12 +1577,15 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="str">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="str">
         <f>TextData!B3</f>
         <v>神化</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>21</v>
       </c>
@@ -1579,7 +1593,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1588,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1602,12 +1616,15 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="str">
         <f>TextData!B4</f>
         <v>鈍足</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>22</v>
       </c>
@@ -1615,7 +1632,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1624,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1638,12 +1655,15 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="str">
         <f>TextData!B5</f>
         <v>スタン</v>
       </c>
     </row>
-    <row r="6" ht="12" customHeight="1" spans="1:11">
+    <row r="6" ht="12" customHeight="1" spans="1:12">
       <c r="A6">
         <v>23</v>
       </c>
@@ -1651,7 +1671,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1660,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1674,12 +1694,15 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="str">
         <f>TextData!B6</f>
         <v>火傷</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>24</v>
       </c>
@@ -1687,7 +1710,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1696,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1710,12 +1733,15 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="str">
         <f>TextData!B7</f>
         <v>暗闇</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>25</v>
       </c>
@@ -1723,7 +1749,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1732,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1746,12 +1772,15 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="str">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="str">
         <f>TextData!B8</f>
         <v>即死</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>26</v>
       </c>
@@ -1759,7 +1788,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1768,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1782,12 +1811,15 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="str">
         <f>TextData!B9</f>
         <v>凍結</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>31</v>
       </c>
@@ -1795,7 +1827,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1804,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1818,12 +1850,15 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="str">
         <f>TextData!B10</f>
         <v>状態異常無効</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1831,7 +1866,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1840,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1854,12 +1889,15 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="str">
         <f>TextData!B11</f>
         <v>対象範囲延長</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>41</v>
       </c>
@@ -1867,7 +1905,7 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1876,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1890,12 +1928,15 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
         <f>TextData!B12</f>
         <v>最大Hpアップ</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>42</v>
       </c>
@@ -1903,7 +1944,7 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1912,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1926,12 +1967,15 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="str">
         <f>TextData!B13</f>
         <v>最大Mpアップ</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>43</v>
       </c>
@@ -1939,7 +1983,7 @@
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1948,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1962,12 +2006,15 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="str">
         <f>TextData!B14</f>
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>44</v>
       </c>
@@ -1975,7 +2022,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1984,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1998,12 +2045,15 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="str">
         <f>TextData!B15</f>
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>45</v>
       </c>
@@ -2011,7 +2061,7 @@
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2020,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2034,12 +2084,15 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="str">
         <f>TextData!B16</f>
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>46</v>
       </c>
@@ -2047,7 +2100,7 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2056,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2070,12 +2123,15 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="str">
         <f>TextData!B17</f>
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>47</v>
       </c>
@@ -2083,7 +2139,7 @@
         <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2092,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2106,12 +2162,15 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="str">
         <f>TextData!B18</f>
         <v>致命攻撃発生率アップ</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>51</v>
       </c>
@@ -2119,7 +2178,7 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2128,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2142,12 +2201,15 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" t="str">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="str">
         <f>TextData!B19</f>
         <v>命中アップ</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>52</v>
       </c>
@@ -2155,7 +2217,7 @@
         <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2164,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2178,12 +2240,15 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="str">
         <f>TextData!B20</f>
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>53</v>
       </c>
@@ -2191,7 +2256,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2200,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2214,12 +2279,15 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="str">
         <f>TextData!B21</f>
         <v>アクセル</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>61</v>
       </c>
@@ -2227,7 +2295,7 @@
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2236,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2250,12 +2318,15 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="str">
         <f>TextData!B22</f>
         <v>狙われ率アップ</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>62</v>
       </c>
@@ -2263,7 +2334,7 @@
         <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2272,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2286,12 +2357,15 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="str">
         <f>TextData!B23</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>71</v>
       </c>
@@ -2308,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2322,12 +2396,15 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24" t="str">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="str">
         <f>TextData!B23</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>82</v>
       </c>
@@ -2335,7 +2412,7 @@
         <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2344,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2358,12 +2435,15 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25" t="str">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="str">
         <f>TextData!B25</f>
         <v>攻撃ダウン</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>84</v>
       </c>
@@ -2371,7 +2451,7 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2380,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2394,12 +2474,15 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26" t="str">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="str">
         <f>TextData!B26</f>
         <v>防御ダウン</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>85</v>
       </c>
@@ -2407,7 +2490,7 @@
         <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2416,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2430,12 +2513,15 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27" t="str">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="str">
         <f>TextData!B27</f>
         <v>防御ブレイク</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>101</v>
       </c>
@@ -2443,7 +2529,7 @@
         <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -2452,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2466,12 +2552,15 @@
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28" t="str">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="str">
         <f>TextData!B28</f>
         <v>拘束</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>102</v>
       </c>
@@ -2479,7 +2568,7 @@
         <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2488,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2502,12 +2591,15 @@
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29" t="str">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="str">
         <f>TextData!B29</f>
         <v>拘束ダメージ</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>103</v>
       </c>
@@ -2515,7 +2607,7 @@
         <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2524,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2538,12 +2630,15 @@
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30" t="str">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="str">
         <f>TextData!B30</f>
         <v>CA</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>104</v>
       </c>
@@ -2551,7 +2646,7 @@
         <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -2560,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2574,12 +2669,15 @@
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31" t="str">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="str">
         <f>TextData!B31</f>
         <v>攻撃無効</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>105</v>
       </c>
@@ -2587,7 +2685,7 @@
         <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2596,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2610,12 +2708,15 @@
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32" t="str">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="str">
         <f>TextData!B32</f>
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>106</v>
       </c>
@@ -2632,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2646,12 +2747,15 @@
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="K33" t="str">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="str">
         <f>TextData!B33</f>
         <v>行動後AP設定</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>107</v>
       </c>
@@ -2659,7 +2763,7 @@
         <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2668,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2682,12 +2786,15 @@
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34" t="str">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="str">
         <f>TextData!B34</f>
         <v>挑発</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>108</v>
       </c>
@@ -2704,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2718,12 +2825,15 @@
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35" t="str">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="str">
         <f>TextData!B35</f>
         <v>バニッシュ</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>109</v>
       </c>
@@ -2731,7 +2841,7 @@
         <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2740,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2754,12 +2864,15 @@
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36" t="str">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="str">
         <f>TextData!B36</f>
         <v>祝福</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>110</v>
       </c>
@@ -2767,7 +2880,7 @@
         <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -2776,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2790,12 +2903,15 @@
       <c r="J37">
         <v>1</v>
       </c>
-      <c r="K37" t="str">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="str">
         <f>TextData!B37</f>
         <v>呪い</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>111</v>
       </c>
@@ -2803,7 +2919,7 @@
         <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2812,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2826,12 +2942,15 @@
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38" t="str">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="str">
         <f>TextData!B38</f>
         <v>ドレイン</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>112</v>
       </c>
@@ -2839,7 +2958,7 @@
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2848,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2862,12 +2981,15 @@
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="K39" t="str">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="str">
         <f>TextData!B39</f>
         <v>アフターヒール</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>113</v>
       </c>
@@ -2875,7 +2997,7 @@
         <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2884,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2898,12 +3020,15 @@
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40" t="str">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="str">
         <f>TextData!B40</f>
         <v>CAダメージ</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>114</v>
       </c>
@@ -2911,7 +3036,7 @@
         <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2920,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2934,12 +3059,15 @@
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="K41" t="str">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="str">
         <f>TextData!B41</f>
         <v>即死</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>115</v>
       </c>
@@ -2947,7 +3075,7 @@
         <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2956,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2970,12 +3098,15 @@
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42" t="str">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="str">
         <f>TextData!B42</f>
         <v>CA回復</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>116</v>
       </c>
@@ -2983,7 +3114,7 @@
         <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2992,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3006,12 +3137,15 @@
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="K43" t="str">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="str">
         <f>TextData!B43</f>
         <v>同時回復</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>117</v>
       </c>
@@ -3019,7 +3153,7 @@
         <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3028,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3042,12 +3176,15 @@
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="K44" t="str">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="str">
         <f>TextData!B44</f>
         <v>アンデッド</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>118</v>
       </c>
@@ -3055,7 +3192,7 @@
         <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3064,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3078,12 +3215,15 @@
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="K45" t="str">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="str">
         <f>TextData!B45</f>
         <v>必中</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>119</v>
       </c>
@@ -3091,7 +3231,7 @@
         <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3100,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3114,12 +3254,15 @@
       <c r="J46">
         <v>0</v>
       </c>
-      <c r="K46" t="str">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="str">
         <f>TextData!B46</f>
         <v>状態異常CA</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>120</v>
       </c>
@@ -3127,7 +3270,7 @@
         <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3136,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3150,12 +3293,15 @@
       <c r="J47">
         <v>0</v>
       </c>
-      <c r="K47" t="str">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="str">
         <f>TextData!B47</f>
         <v>プリズム</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>121</v>
       </c>
@@ -3163,7 +3309,7 @@
         <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -3172,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3186,12 +3332,15 @@
       <c r="J48">
         <v>0</v>
       </c>
-      <c r="K48" t="str">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="str">
         <f>TextData!B48</f>
         <v>パッシブ無効</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>122</v>
       </c>
@@ -3199,7 +3348,7 @@
         <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3208,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3222,12 +3371,15 @@
       <c r="J49">
         <v>0</v>
       </c>
-      <c r="K49" t="str">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="str">
         <f>TextData!B49</f>
         <v>アタックヒール</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>123</v>
       </c>
@@ -3235,7 +3387,7 @@
         <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3244,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3258,12 +3410,15 @@
       <c r="J50">
         <v>0</v>
       </c>
-      <c r="K50" t="str">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="str">
         <f>TextData!B50</f>
         <v>居合</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>124</v>
       </c>
@@ -3271,7 +3426,7 @@
         <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3280,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3294,12 +3449,15 @@
       <c r="J51">
         <v>0</v>
       </c>
-      <c r="K51" t="str">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="str">
         <f>TextData!B51</f>
         <v>高速</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>125</v>
       </c>
@@ -3307,7 +3465,7 @@
         <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3316,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3330,12 +3488,15 @@
       <c r="J52">
         <v>0</v>
       </c>
-      <c r="K52" t="str">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="str">
         <f>TextData!B52</f>
         <v>反骨精神</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>201</v>
       </c>
@@ -3352,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3366,12 +3527,15 @@
       <c r="J53">
         <v>0</v>
       </c>
-      <c r="K53" t="str">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="str">
         <f>TextData!B53</f>
         <v>炎適正</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>202</v>
       </c>
@@ -3388,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3402,12 +3566,15 @@
       <c r="J54">
         <v>0</v>
       </c>
-      <c r="K54" t="str">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="str">
         <f>TextData!B54</f>
         <v>雷適性</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>203</v>
       </c>
@@ -3424,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3438,12 +3605,15 @@
       <c r="J55">
         <v>0</v>
       </c>
-      <c r="K55" t="str">
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" t="str">
         <f>TextData!B55</f>
         <v>氷適性</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>204</v>
       </c>
@@ -3460,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3474,12 +3644,15 @@
       <c r="J56">
         <v>0</v>
       </c>
-      <c r="K56" t="str">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="str">
         <f>TextData!B56</f>
         <v>光適性</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>205</v>
       </c>
@@ -3496,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3510,7 +3683,10 @@
       <c r="J57">
         <v>0</v>
       </c>
-      <c r="K57" t="str">
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="str">
         <f>TextData!B57</f>
         <v>闇適性</v>
       </c>
@@ -3541,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3552,10 +3728,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3563,10 +3739,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3574,10 +3750,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3585,10 +3761,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3596,10 +3772,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3607,10 +3783,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3618,10 +3794,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3629,10 +3805,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3640,10 +3816,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3651,10 +3827,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3662,10 +3838,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3673,10 +3849,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3684,10 +3860,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3695,10 +3871,10 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3706,10 +3882,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3717,10 +3893,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3728,10 +3904,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3739,10 +3915,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3750,10 +3926,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3761,10 +3937,10 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3772,10 +3948,10 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3783,10 +3959,10 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3794,10 +3970,10 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3805,10 +3981,10 @@
         <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3816,10 +3992,10 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3827,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3838,10 +4014,10 @@
         <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3849,10 +4025,10 @@
         <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3860,10 +4036,10 @@
         <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3871,10 +4047,10 @@
         <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3882,10 +4058,10 @@
         <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3893,10 +4069,10 @@
         <v>106</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3904,10 +4080,10 @@
         <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3915,10 +4091,10 @@
         <v>108</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3926,10 +4102,10 @@
         <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3937,10 +4113,10 @@
         <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3948,10 +4124,10 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3959,10 +4135,10 @@
         <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3970,10 +4146,10 @@
         <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3981,10 +4157,10 @@
         <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3992,10 +4168,10 @@
         <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4003,10 +4179,10 @@
         <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4014,10 +4190,10 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4025,10 +4201,10 @@
         <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4036,10 +4212,10 @@
         <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4047,10 +4223,10 @@
         <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4058,10 +4234,10 @@
         <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4069,10 +4245,10 @@
         <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4080,10 +4256,10 @@
         <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4091,10 +4267,10 @@
         <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4102,10 +4278,10 @@
         <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4113,10 +4289,10 @@
         <v>201</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4124,10 +4300,10 @@
         <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4135,10 +4311,10 @@
         <v>203</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4146,10 +4322,10 @@
         <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4157,10 +4333,10 @@
         <v>205</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -515,8 +515,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -528,11 +528,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,7 +559,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,76 +573,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,18 +604,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -687,7 +687,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,13 +723,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,13 +741,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,25 +777,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,91 +795,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +825,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,15 +878,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -916,35 +907,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,6 +945,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -986,7 +986,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,7 +995,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1004,127 +1004,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1457,7 +1457,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -80,6 +80,12 @@
     <t>MAGICALxSPIRAL/Salamander7</t>
   </si>
   <si>
+    <t>Imprisoned</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/Thunder1</t>
+  </si>
+  <si>
     <t>Blind</t>
   </si>
   <si>
@@ -131,12 +137,6 @@
     <t>CrackedShield</t>
   </si>
   <si>
-    <t>Imprisoned</t>
-  </si>
-  <si>
-    <t>MAGICALxSPIRAL/Thunder1</t>
-  </si>
-  <si>
     <t>ShieldReflect</t>
   </si>
   <si>
@@ -200,6 +200,18 @@
     <t>ATK,DEF,SPDが\dアップ</t>
   </si>
   <si>
+    <t>火傷</t>
+  </si>
+  <si>
+    <t>行動後ダメージ</t>
+  </si>
+  <si>
+    <t>拘束</t>
+  </si>
+  <si>
+    <t>一定時間ダメージを受け続け行動できなくなる</t>
+  </si>
+  <si>
     <t>鈍足</t>
   </si>
   <si>
@@ -212,12 +224,6 @@
     <t>一定時間行動できなくなる</t>
   </si>
   <si>
-    <t>火傷</t>
-  </si>
-  <si>
-    <t>行動後ダメージ</t>
-  </si>
-  <si>
     <t>暗闇</t>
   </si>
   <si>
@@ -336,12 +342,6 @@
   </si>
   <si>
     <t>DEFを半減させる</t>
-  </si>
-  <si>
-    <t>拘束</t>
-  </si>
-  <si>
-    <t>一定時間ダメージを受け続け行動できなくなる</t>
   </si>
   <si>
     <t>拘束ダメージ</t>
@@ -517,9 +517,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -532,15 +532,77 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,6 +622,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -568,61 +638,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,25 +653,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,7 +662,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,7 +696,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,115 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,19 +834,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,18 +874,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -886,10 +886,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -910,6 +908,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -921,15 +952,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,33 +973,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,16 +989,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,127 +1007,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1459,8 +1459,8 @@
   <sheetPr/>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1635,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="str">
-        <f>TextData!B4</f>
+        <f>TextData!B6</f>
         <v>鈍足</v>
       </c>
     </row>
@@ -1677,16 +1677,16 @@
         <v>1</v>
       </c>
       <c r="M5" t="str">
-        <f>TextData!B5</f>
+        <f>TextData!B7</f>
         <v>スタン</v>
       </c>
     </row>
     <row r="6" ht="12" customHeight="1" spans="1:13">
       <c r="A6">
-        <v>23</v>
+        <v>2001</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>2001</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1719,22 +1719,22 @@
         <v>1</v>
       </c>
       <c r="M6" t="str">
-        <f>TextData!B6</f>
+        <f>TextData!B4</f>
         <v>火傷</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>24</v>
+        <v>2002</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>2002</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>22</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1761,25 +1761,25 @@
         <v>1</v>
       </c>
       <c r="M7" t="str">
-        <f>TextData!B7</f>
-        <v>暗闇</v>
+        <f>TextData!B5</f>
+        <v>拘束</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1804,15 +1804,15 @@
       </c>
       <c r="M8" t="str">
         <f>TextData!B8</f>
-        <v>凍結</v>
+        <v>暗闇</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -1821,10 +1821,10 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1833,34 +1833,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="str">
         <f>TextData!B9</f>
-        <v>状態異常無効</v>
+        <v>凍結</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1888,24 +1888,24 @@
       </c>
       <c r="M10" t="str">
         <f>TextData!B10</f>
-        <v>対象範囲延長</v>
+        <v>状態異常無効</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1930,18 +1930,18 @@
       </c>
       <c r="M11" t="str">
         <f>TextData!B11</f>
-        <v>最大Hpアップ</v>
+        <v>対象範囲延長</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1972,18 +1972,18 @@
       </c>
       <c r="M12" t="str">
         <f>TextData!B12</f>
-        <v>最大Mpアップ</v>
+        <v>最大Hpアップ</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2014,18 +2014,18 @@
       </c>
       <c r="M13" t="str">
         <f>TextData!B13</f>
-        <v>攻撃アップ</v>
+        <v>最大Mpアップ</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2056,18 +2056,18 @@
       </c>
       <c r="M14" t="str">
         <f>TextData!B14</f>
-        <v>防御アップ</v>
+        <v>攻撃アップ</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2098,18 +2098,18 @@
       </c>
       <c r="M15" t="str">
         <f>TextData!B15</f>
-        <v>速度アップ</v>
+        <v>防御アップ</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2140,18 +2140,18 @@
       </c>
       <c r="M16" t="str">
         <f>TextData!B16</f>
-        <v>ダメージ威力アップ</v>
+        <v>速度アップ</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2182,18 +2182,18 @@
       </c>
       <c r="M17" t="str">
         <f>TextData!B17</f>
-        <v>致命攻撃発生率アップ</v>
+        <v>ダメージ威力アップ</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2224,18 +2224,18 @@
       </c>
       <c r="M18" t="str">
         <f>TextData!B18</f>
-        <v>命中アップ</v>
+        <v>致命攻撃発生率アップ</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2266,24 +2266,24 @@
       </c>
       <c r="M19" t="str">
         <f>TextData!B19</f>
-        <v>回避アップ</v>
+        <v>命中アップ</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -2308,24 +2308,24 @@
       </c>
       <c r="M20" t="str">
         <f>TextData!B20</f>
-        <v>アクセル</v>
+        <v>回避アップ</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -2350,18 +2350,18 @@
       </c>
       <c r="M21" t="str">
         <f>TextData!B21</f>
-        <v>狙われ率アップ</v>
+        <v>アクセル</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2392,21 +2392,21 @@
       </c>
       <c r="M22" t="str">
         <f>TextData!B22</f>
-        <v>狙われ率ダウン</v>
+        <v>狙われ率アップ</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>71</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2433,22 +2433,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="str">
-        <f>TextData!B22</f>
+        <f>TextData!B23</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B24">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2472,22 +2472,22 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="str">
-        <f>TextData!B24</f>
-        <v>攻撃ダウン</v>
+        <f>TextData!B23</f>
+        <v>狙われ率ダウン</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2518,18 +2518,18 @@
       </c>
       <c r="M25" t="str">
         <f>TextData!B25</f>
-        <v>防御ダウン</v>
+        <v>攻撃ダウン</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2560,30 +2560,30 @@
       </c>
       <c r="M26" t="str">
         <f>TextData!B26</f>
-        <v>防御ブレイク</v>
+        <v>防御ダウン</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="M27" t="str">
         <f>TextData!B27</f>
-        <v>拘束</v>
+        <v>防御ブレイク</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2613,7 +2613,7 @@
         <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2823,7 +2823,7 @@
         <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3835,8 +3835,8 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>21</v>
+        <v>2001</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>22</v>
+        <v>2002</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>79</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>89</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>91</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>93</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>95</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>99</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>101</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>103</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
         <v>105</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
         <v>107</v>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -62,129 +62,129 @@
     <t>Butterfly</t>
   </si>
   <si>
+    <t>HeartPlus</t>
+  </si>
+  <si>
+    <t>MoebiusTrefoil</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>SwordBreak</t>
+  </si>
+  <si>
+    <t>ArmorUpgrade</t>
+  </si>
+  <si>
+    <t>CrackedShield</t>
+  </si>
+  <si>
+    <t>Wingfoot</t>
+  </si>
+  <si>
+    <t>ArrowScope</t>
+  </si>
+  <si>
+    <t>Dodging</t>
+  </si>
+  <si>
+    <t>Burning</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/Salamander7</t>
+  </si>
+  <si>
+    <t>Imprisoned</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/Thunder1</t>
+  </si>
+  <si>
+    <t>ShieldReflect</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/AquaPoint</t>
+  </si>
+  <si>
+    <t>Healing</t>
+  </si>
+  <si>
+    <t>MagicShield</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/WHead1</t>
+  </si>
+  <si>
+    <t>HalfHeart</t>
+  </si>
+  <si>
+    <t>HospitalCross</t>
+  </si>
+  <si>
+    <t>Prism</t>
+  </si>
+  <si>
+    <t>Shatter</t>
+  </si>
+  <si>
+    <t>QuickSlash</t>
+  </si>
+  <si>
+    <t>StrikingClamps</t>
+  </si>
+  <si>
+    <t>DrippingStar</t>
+  </si>
+  <si>
+    <t>EffekseerVol_3/NA_v3_3d_electrification_dark</t>
+  </si>
+  <si>
+    <t>VitruvianMan</t>
+  </si>
+  <si>
+    <t>Freeze</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/IcicleLocus</t>
+  </si>
+  <si>
+    <t>Stun</t>
+  </si>
+  <si>
+    <t>MAGICALxSPIRAL/Thunder3</t>
+  </si>
+  <si>
     <t>Turtle</t>
   </si>
   <si>
     <t>MAGICALxSPIRAL/Undine11</t>
   </si>
   <si>
-    <t>Stun</t>
-  </si>
-  <si>
-    <t>MAGICALxSPIRAL/Thunder3</t>
-  </si>
-  <si>
-    <t>Burning</t>
-  </si>
-  <si>
-    <t>MAGICALxSPIRAL/Salamander7</t>
-  </si>
-  <si>
-    <t>Imprisoned</t>
-  </si>
-  <si>
-    <t>MAGICALxSPIRAL/Thunder1</t>
-  </si>
-  <si>
     <t>Blind</t>
   </si>
   <si>
     <t>NA_Effekseer/NA_poison_001</t>
   </si>
   <si>
-    <t>Freeze</t>
-  </si>
-  <si>
-    <t>MAGICALxSPIRAL/IcicleLocus</t>
-  </si>
-  <si>
     <t>Heart</t>
   </si>
   <si>
     <t>Spyglass</t>
   </si>
   <si>
-    <t>HeartPlus</t>
-  </si>
-  <si>
-    <t>MoebiusTrefoil</t>
-  </si>
-  <si>
-    <t>Arrow</t>
-  </si>
-  <si>
-    <t>ArmorUpgrade</t>
-  </si>
-  <si>
-    <t>Wingfoot</t>
-  </si>
-  <si>
-    <t>ArrowScope</t>
-  </si>
-  <si>
-    <t>Dodging</t>
-  </si>
-  <si>
-    <t>VitruvianMan</t>
+    <t>Dew</t>
+  </si>
+  <si>
+    <t>DeadlyStrike</t>
+  </si>
+  <si>
+    <t>Slime</t>
   </si>
   <si>
     <t>ShadowFollower</t>
   </si>
   <si>
-    <t>SwordBreak</t>
-  </si>
-  <si>
-    <t>CrackedShield</t>
-  </si>
-  <si>
-    <t>ShieldReflect</t>
-  </si>
-  <si>
-    <t>MAGICALxSPIRAL/AquaPoint</t>
-  </si>
-  <si>
-    <t>MagicShield</t>
-  </si>
-  <si>
-    <t>MAGICALxSPIRAL/WHead1</t>
-  </si>
-  <si>
-    <t>Healing</t>
-  </si>
-  <si>
-    <t>DrippingStar</t>
-  </si>
-  <si>
-    <t>EffekseerVol_3/NA_v3_3d_electrification_dark</t>
-  </si>
-  <si>
-    <t>HalfHeart</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>HospitalCross</t>
-  </si>
-  <si>
-    <t>Prism</t>
-  </si>
-  <si>
-    <t>Shatter</t>
-  </si>
-  <si>
-    <t>Dew</t>
-  </si>
-  <si>
-    <t>QuickSlash</t>
-  </si>
-  <si>
-    <t>StrikingClamps</t>
-  </si>
-  <si>
-    <t>DeadlyStrike</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -194,12 +194,108 @@
     <t>戦闘不能</t>
   </si>
   <si>
+    <t>炎適正</t>
+  </si>
+  <si>
+    <t>炎魔法の習得に必要な(Nu)コストをダウン</t>
+  </si>
+  <si>
+    <t>雷適性</t>
+  </si>
+  <si>
+    <t>雷魔法の習得に必要な(Nu)コストをダウン</t>
+  </si>
+  <si>
+    <t>氷適性</t>
+  </si>
+  <si>
+    <t>氷魔法の習得に必要な(Nu)コストをダウン</t>
+  </si>
+  <si>
+    <t>光適性</t>
+  </si>
+  <si>
+    <t>光魔法の習得に必要な(Nu)コストをダウン</t>
+  </si>
+  <si>
+    <t>闇適性</t>
+  </si>
+  <si>
+    <t>闇魔法の習得に必要な(Nu)コストをダウン</t>
+  </si>
+  <si>
     <t>神化</t>
   </si>
   <si>
     <t>ATK,DEF,SPDが\dアップ</t>
   </si>
   <si>
+    <t>最大Hpアップ</t>
+  </si>
+  <si>
+    <t>MaxHp\dアップ</t>
+  </si>
+  <si>
+    <t>最大Mpアップ</t>
+  </si>
+  <si>
+    <t>MaxMp\dアップ</t>
+  </si>
+  <si>
+    <t>攻撃アップ</t>
+  </si>
+  <si>
+    <t>ATK\dアップ</t>
+  </si>
+  <si>
+    <t>攻撃ダウン</t>
+  </si>
+  <si>
+    <t>ATK\dダウン</t>
+  </si>
+  <si>
+    <t>防御アップ</t>
+  </si>
+  <si>
+    <t>DEF\dアップ</t>
+  </si>
+  <si>
+    <t>防御ダウン</t>
+  </si>
+  <si>
+    <t>DEF\dダウン</t>
+  </si>
+  <si>
+    <t>防御ブレイク</t>
+  </si>
+  <si>
+    <t>DEFを半減させる</t>
+  </si>
+  <si>
+    <t>速度アップ</t>
+  </si>
+  <si>
+    <t>SPD\dアップ</t>
+  </si>
+  <si>
+    <t>致命攻撃発生率アップ</t>
+  </si>
+  <si>
+    <t>致命攻撃発生率\d%アップ</t>
+  </si>
+  <si>
+    <t>命中アップ</t>
+  </si>
+  <si>
+    <t>命中率\d%アップ</t>
+  </si>
+  <si>
+    <t>回避アップ</t>
+  </si>
+  <si>
+    <t>回避率\d%アップ</t>
+  </si>
+  <si>
     <t>火傷</t>
   </si>
   <si>
@@ -212,30 +308,114 @@
     <t>一定時間ダメージを受け続け行動できなくなる</t>
   </si>
   <si>
+    <t>拘束ダメージ</t>
+  </si>
+  <si>
+    <t>拘束対象への付与ダメージアップ</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>静止状態になり攻撃を受けると反撃ダメージ</t>
+  </si>
+  <si>
+    <t>CAダメージ</t>
+  </si>
+  <si>
+    <t>CAの反撃ダメージ\dアップ</t>
+  </si>
+  <si>
+    <t>CA回復</t>
+  </si>
+  <si>
+    <t>CAダメージの一部を自身のHpに変換する</t>
+  </si>
+  <si>
+    <t>リジェネ</t>
+  </si>
+  <si>
+    <t>行動後Hp\d回復</t>
+  </si>
+  <si>
+    <t>攻撃無効</t>
+  </si>
+  <si>
+    <t>攻撃が効かなくなる</t>
+  </si>
+  <si>
+    <t>ドレイン</t>
+  </si>
+  <si>
+    <t>攻撃ダメージの\d%分Hp回復</t>
+  </si>
+  <si>
+    <t>状態異常CA</t>
+  </si>
+  <si>
+    <t>状態異常を反射しダメージを与える</t>
+  </si>
+  <si>
+    <t>プリズム</t>
+  </si>
+  <si>
+    <t>白魔法の攻撃回数を\d回増やす</t>
+  </si>
+  <si>
+    <t>パッシブ無効</t>
+  </si>
+  <si>
+    <t>パッシブ効果が発動しなくなる</t>
+  </si>
+  <si>
+    <t>居合</t>
+  </si>
+  <si>
+    <t>単体攻撃対象を回避し反撃する</t>
+  </si>
+  <si>
+    <t>高速</t>
+  </si>
+  <si>
+    <t>行動できるまでの時間が減る</t>
+  </si>
+  <si>
+    <t>呪い</t>
+  </si>
+  <si>
+    <t>受けたダメージを相手にも返す</t>
+  </si>
+  <si>
+    <t>挑発</t>
+  </si>
+  <si>
+    <t>攻撃の対象を自身に固定する</t>
+  </si>
+  <si>
+    <t>凍結</t>
+  </si>
+  <si>
+    <t>攻撃すると自身にダメージ</t>
+  </si>
+  <si>
+    <t>スタン</t>
+  </si>
+  <si>
+    <t>一定時間行動できなくなる</t>
+  </si>
+  <si>
     <t>鈍足</t>
   </si>
   <si>
     <t>行動できるまでの時間が増える</t>
   </si>
   <si>
-    <t>スタン</t>
-  </si>
-  <si>
-    <t>一定時間行動できなくなる</t>
-  </si>
-  <si>
     <t>暗闇</t>
   </si>
   <si>
     <t>攻撃魔法が当たりにくくなる</t>
   </si>
   <si>
-    <t>凍結</t>
-  </si>
-  <si>
-    <t>攻撃すると自身にダメージ</t>
-  </si>
-  <si>
     <t>状態異常無効</t>
   </si>
   <si>
@@ -248,34 +428,58 @@
     <t>範囲外の対象を選択できる</t>
   </si>
   <si>
-    <t>最大Hpアップ</t>
-  </si>
-  <si>
-    <t>MaxHp\dアップ</t>
-  </si>
-  <si>
-    <t>最大Mpアップ</t>
-  </si>
-  <si>
-    <t>MaxMp\dアップ</t>
-  </si>
-  <si>
-    <t>攻撃アップ</t>
-  </si>
-  <si>
-    <t>ATK\dアップ</t>
-  </si>
-  <si>
-    <t>防御アップ</t>
-  </si>
-  <si>
-    <t>DEF\dアップ</t>
-  </si>
-  <si>
-    <t>速度アップ</t>
-  </si>
-  <si>
-    <t>SPD\dアップ</t>
+    <t>祝福</t>
+  </si>
+  <si>
+    <t>静止状態になり自身以外のHpを回復しつづける</t>
+  </si>
+  <si>
+    <t>アフターヒール</t>
+  </si>
+  <si>
+    <t>行動後自身のHpを回復</t>
+  </si>
+  <si>
+    <t>即死</t>
+  </si>
+  <si>
+    <t>攻撃を当てると一定確率で戦闘不能を付与</t>
+  </si>
+  <si>
+    <t>同時回復</t>
+  </si>
+  <si>
+    <t>Hpを回復すると自身のHpも回復する</t>
+  </si>
+  <si>
+    <t>必中</t>
+  </si>
+  <si>
+    <t>攻撃が必ずあたるようになる</t>
+  </si>
+  <si>
+    <t>アタックヒール</t>
+  </si>
+  <si>
+    <t>攻撃成功時味方全員のHp\d回復</t>
+  </si>
+  <si>
+    <t>反骨精神</t>
+  </si>
+  <si>
+    <t>Hp残存率に応じてダメージ威力アップ</t>
+  </si>
+  <si>
+    <t>アンデッド</t>
+  </si>
+  <si>
+    <t>1度だけ戦闘不能から復活し行動後Hpを\d回復</t>
+  </si>
+  <si>
+    <t>アクセル</t>
+  </si>
+  <si>
+    <t>行動後速度がアップしつづける</t>
   </si>
   <si>
     <t>ダメージ威力アップ</t>
@@ -284,30 +488,6 @@
     <t>攻撃魔法の威力が\d%アップ</t>
   </si>
   <si>
-    <t>致命攻撃発生率アップ</t>
-  </si>
-  <si>
-    <t>致命攻撃発生率\d%アップ</t>
-  </si>
-  <si>
-    <t>命中アップ</t>
-  </si>
-  <si>
-    <t>命中率\d%アップ</t>
-  </si>
-  <si>
-    <t>回避アップ</t>
-  </si>
-  <si>
-    <t>回避率\d%アップ</t>
-  </si>
-  <si>
-    <t>アクセル</t>
-  </si>
-  <si>
-    <t>行動後速度がアップしつづける</t>
-  </si>
-  <si>
     <t>狙われ率アップ</t>
   </si>
   <si>
@@ -324,192 +504,6 @@
   </si>
   <si>
     <t>バフを解除する</t>
-  </si>
-  <si>
-    <t>攻撃ダウン</t>
-  </si>
-  <si>
-    <t>ATK\dダウン</t>
-  </si>
-  <si>
-    <t>防御ダウン</t>
-  </si>
-  <si>
-    <t>DEF\dダウン</t>
-  </si>
-  <si>
-    <t>防御ブレイク</t>
-  </si>
-  <si>
-    <t>DEFを半減させる</t>
-  </si>
-  <si>
-    <t>拘束ダメージ</t>
-  </si>
-  <si>
-    <t>拘束対象への付与ダメージアップ</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>静止状態になり攻撃を受けると反撃ダメージ</t>
-  </si>
-  <si>
-    <t>攻撃無効</t>
-  </si>
-  <si>
-    <t>攻撃が効かなくなる</t>
-  </si>
-  <si>
-    <t>リジェネ</t>
-  </si>
-  <si>
-    <t>行動後Hp\d回復</t>
-  </si>
-  <si>
-    <t>行動後AP設定</t>
-  </si>
-  <si>
-    <t>挑発</t>
-  </si>
-  <si>
-    <t>攻撃の対象を自身に固定する</t>
-  </si>
-  <si>
-    <t>バニッシュ</t>
-  </si>
-  <si>
-    <t>祝福</t>
-  </si>
-  <si>
-    <t>静止状態になり自身以外のHpを回復しつづける</t>
-  </si>
-  <si>
-    <t>呪い</t>
-  </si>
-  <si>
-    <t>受けたダメージを相手にも返す</t>
-  </si>
-  <si>
-    <t>ドレイン</t>
-  </si>
-  <si>
-    <t>攻撃ダメージの\d%分Hp回復</t>
-  </si>
-  <si>
-    <t>アフターヒール</t>
-  </si>
-  <si>
-    <t>行動後自身のHpを回復</t>
-  </si>
-  <si>
-    <t>CAダメージ</t>
-  </si>
-  <si>
-    <t>CAの反撃ダメージ\dアップ</t>
-  </si>
-  <si>
-    <t>即死</t>
-  </si>
-  <si>
-    <t>攻撃を当てると一定確率で即死を付与</t>
-  </si>
-  <si>
-    <t>CA回復</t>
-  </si>
-  <si>
-    <t>CAダメージの一部を自身のHpに変換する</t>
-  </si>
-  <si>
-    <t>同時回復</t>
-  </si>
-  <si>
-    <t>Hpを回復すると自身のHpも回復する</t>
-  </si>
-  <si>
-    <t>アンデッド</t>
-  </si>
-  <si>
-    <t>1度だけ戦闘不能から復活し行動後Hpを\d回復</t>
-  </si>
-  <si>
-    <t>必中</t>
-  </si>
-  <si>
-    <t>攻撃が必ずあたるようになる</t>
-  </si>
-  <si>
-    <t>状態異常CA</t>
-  </si>
-  <si>
-    <t>状態異常を反射しダメージを与える</t>
-  </si>
-  <si>
-    <t>プリズム</t>
-  </si>
-  <si>
-    <t>白魔法の攻撃回数を\d回増やす</t>
-  </si>
-  <si>
-    <t>パッシブ無効</t>
-  </si>
-  <si>
-    <t>パッシブ効果が発動しなくなる</t>
-  </si>
-  <si>
-    <t>アタックヒール</t>
-  </si>
-  <si>
-    <t>攻撃成功時味方全員のHp\d回復</t>
-  </si>
-  <si>
-    <t>居合</t>
-  </si>
-  <si>
-    <t>単体攻撃対象を回避し反撃する</t>
-  </si>
-  <si>
-    <t>高速</t>
-  </si>
-  <si>
-    <t>行動できるまでの時間が減る</t>
-  </si>
-  <si>
-    <t>反骨精神</t>
-  </si>
-  <si>
-    <t>Hp残存率に応じてダメージ威力アップ</t>
-  </si>
-  <si>
-    <t>炎適正</t>
-  </si>
-  <si>
-    <t>炎魔法の習得に必要な(Nu)コストをダウン</t>
-  </si>
-  <si>
-    <t>雷適性</t>
-  </si>
-  <si>
-    <t>雷魔法の習得に必要な(Nu)コストをダウン</t>
-  </si>
-  <si>
-    <t>氷適性</t>
-  </si>
-  <si>
-    <t>氷魔法の習得に必要な(Nu)コストをダウン</t>
-  </si>
-  <si>
-    <t>光適性</t>
-  </si>
-  <si>
-    <t>光魔法の習得に必要な(Nu)コストをダウン</t>
-  </si>
-  <si>
-    <t>闇適性</t>
-  </si>
-  <si>
-    <t>闇魔法の習得に必要な(Nu)コストをダウン</t>
   </si>
 </sst>
 </file>
@@ -517,10 +511,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -528,83 +522,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -630,6 +547,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -638,8 +578,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,29 +653,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,7 +678,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,13 +702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,25 +726,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,31 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,19 +792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,31 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,13 +822,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,13 +846,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,15 +869,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -904,6 +883,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,30 +946,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -973,10 +963,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -989,153 +977,150 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1457,10 +1442,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1472,7 +1457,9 @@
     <col min="7" max="7" width="13.9090909090909" customWidth="1"/>
     <col min="8" max="8" width="5.72727272727273" customWidth="1"/>
     <col min="9" max="9" width="8.54545454545454" customWidth="1"/>
-    <col min="10" max="12" width="5.72727272727273" customWidth="1"/>
+    <col min="10" max="10" width="5.72727272727273" customWidth="1"/>
+    <col min="11" max="11" width="16.7272727272727" customWidth="1"/>
+    <col min="12" max="12" width="5.72727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1557,19 +1544,19 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
+        <v>201</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -1594,27 +1581,27 @@
       </c>
       <c r="M3" t="str">
         <f>TextData!B3</f>
-        <v>神化</v>
+        <v>炎適正</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="B4">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
+        <v>202</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1626,37 +1613,37 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="str">
-        <f>TextData!B6</f>
-        <v>鈍足</v>
+        <f>TextData!B4</f>
+        <v>雷適性</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B5">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
+        <v>203</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1668,40 +1655,40 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="str">
-        <f>TextData!B7</f>
-        <v>スタン</v>
-      </c>
-    </row>
-    <row r="6" ht="12" customHeight="1" spans="1:13">
+        <f>TextData!B5</f>
+        <v>氷適性</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
-        <v>2001</v>
+        <v>204</v>
       </c>
       <c r="B6">
-        <v>2001</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
+        <v>204</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1710,40 +1697,40 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="str">
-        <f>TextData!B4</f>
-        <v>火傷</v>
+        <f>TextData!B6</f>
+        <v>光適性</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>2002</v>
+        <v>205</v>
       </c>
       <c r="B7">
-        <v>2002</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
+        <v>205</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1758,31 +1745,31 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="str">
-        <f>TextData!B5</f>
-        <v>拘束</v>
+        <f>TextData!B7</f>
+        <v>闇適性</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>24</v>
+        <v>1010</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>1010</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1794,37 +1781,37 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="str">
         <f>TextData!B8</f>
-        <v>暗闇</v>
+        <v>神化</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>26</v>
+        <v>1020</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>1020</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1833,37 +1820,37 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="str">
         <f>TextData!B9</f>
-        <v>凍結</v>
+        <v>最大Hpアップ</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>31</v>
+        <v>1030</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>1030</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1888,24 +1875,24 @@
       </c>
       <c r="M10" t="str">
         <f>TextData!B10</f>
-        <v>状態異常無効</v>
+        <v>最大Mpアップ</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>32</v>
+        <v>1040</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>1040</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1930,18 +1917,18 @@
       </c>
       <c r="M11" t="str">
         <f>TextData!B11</f>
-        <v>対象範囲延長</v>
+        <v>攻撃アップ</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>41</v>
+        <v>1041</v>
       </c>
       <c r="B12">
-        <v>41</v>
+        <v>1041</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1959,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1968,22 +1955,22 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="str">
         <f>TextData!B12</f>
-        <v>最大Hpアップ</v>
+        <v>攻撃ダウン</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>42</v>
+        <v>1050</v>
       </c>
       <c r="B13">
-        <v>42</v>
+        <v>1050</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2014,18 +2001,18 @@
       </c>
       <c r="M13" t="str">
         <f>TextData!B13</f>
-        <v>最大Mpアップ</v>
+        <v>防御アップ</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>43</v>
+        <v>1051</v>
       </c>
       <c r="B14">
-        <v>43</v>
+        <v>1051</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2043,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2052,22 +2039,22 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="str">
         <f>TextData!B14</f>
-        <v>攻撃アップ</v>
+        <v>防御ダウン</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>44</v>
+        <v>1052</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>1052</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2085,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2094,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="str">
         <f>TextData!B15</f>
-        <v>防御アップ</v>
+        <v>防御ブレイク</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>45</v>
+        <v>1060</v>
       </c>
       <c r="B16">
-        <v>45</v>
+        <v>1060</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2145,13 +2132,13 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>46</v>
+        <v>1070</v>
       </c>
       <c r="B17">
-        <v>46</v>
+        <v>1070</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2166,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2182,18 +2169,18 @@
       </c>
       <c r="M17" t="str">
         <f>TextData!B17</f>
-        <v>ダメージ威力アップ</v>
+        <v>致命攻撃発生率アップ</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>47</v>
+        <v>1080</v>
       </c>
       <c r="B18">
-        <v>47</v>
+        <v>1080</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2224,18 +2211,18 @@
       </c>
       <c r="M18" t="str">
         <f>TextData!B18</f>
-        <v>致命攻撃発生率アップ</v>
+        <v>命中アップ</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>51</v>
+        <v>1090</v>
       </c>
       <c r="B19">
-        <v>51</v>
+        <v>1090</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2266,18 +2253,18 @@
       </c>
       <c r="M19" t="str">
         <f>TextData!B19</f>
-        <v>命中アップ</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>回避アップ</v>
+      </c>
+    </row>
+    <row r="20" ht="12" customHeight="1" spans="1:13">
       <c r="A20">
-        <v>52</v>
+        <v>2010</v>
       </c>
       <c r="B20">
-        <v>52</v>
+        <v>2010</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2286,58 +2273,58 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="str">
         <f>TextData!B20</f>
-        <v>回避アップ</v>
+        <v>火傷</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>53</v>
+        <v>2020</v>
       </c>
       <c r="B21">
-        <v>53</v>
+        <v>2020</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2346,25 +2333,25 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="str">
         <f>TextData!B21</f>
-        <v>アクセル</v>
+        <v>拘束</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>61</v>
+        <v>2021</v>
       </c>
       <c r="B22">
-        <v>61</v>
+        <v>2021</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2392,27 +2379,27 @@
       </c>
       <c r="M22" t="str">
         <f>TextData!B22</f>
-        <v>狙われ率アップ</v>
+        <v>拘束ダメージ</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>62</v>
+        <v>2030</v>
       </c>
       <c r="B23">
-        <v>62</v>
+        <v>2030</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2421,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2434,21 +2421,21 @@
       </c>
       <c r="M23" t="str">
         <f>TextData!B23</f>
-        <v>狙われ率ダウン</v>
+        <v>CA</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>71</v>
+        <v>2031</v>
       </c>
       <c r="B24">
-        <v>71</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+        <v>2031</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2475,22 +2462,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="str">
-        <f>TextData!B23</f>
-        <v>狙われ率ダウン</v>
+        <f>TextData!B24</f>
+        <v>CAダメージ</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>82</v>
+        <v>2032</v>
       </c>
       <c r="B25">
-        <v>82</v>
+        <v>2032</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2505,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2514,22 +2501,22 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="str">
         <f>TextData!B25</f>
-        <v>攻撃ダウン</v>
+        <v>CA回復</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>84</v>
+        <v>2040</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>2040</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2547,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2556,31 +2543,31 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="str">
         <f>TextData!B26</f>
-        <v>防御ダウン</v>
+        <v>リジェネ</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>85</v>
+        <v>2050</v>
       </c>
       <c r="B27">
-        <v>85</v>
+        <v>2050</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2589,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2598,25 +2585,25 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="str">
         <f>TextData!B27</f>
-        <v>防御ブレイク</v>
+        <v>攻撃無効</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>102</v>
+        <v>2060</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>2060</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2644,27 +2631,27 @@
       </c>
       <c r="M28" t="str">
         <f>TextData!B28</f>
-        <v>拘束ダメージ</v>
+        <v>ドレイン</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>103</v>
+        <v>2070</v>
       </c>
       <c r="B29">
-        <v>103</v>
+        <v>2070</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2673,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2686,33 +2673,33 @@
       </c>
       <c r="M29" t="str">
         <f>TextData!B29</f>
-        <v>CA</v>
+        <v>状態異常CA</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>104</v>
+        <v>2080</v>
       </c>
       <c r="B30">
-        <v>104</v>
+        <v>2080</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2728,24 +2715,24 @@
       </c>
       <c r="M30" t="str">
         <f>TextData!B30</f>
-        <v>攻撃無効</v>
+        <v>プリズム</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>105</v>
+        <v>2090</v>
       </c>
       <c r="B31">
-        <v>105</v>
+        <v>2090</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -2757,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2766,25 +2753,25 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="str">
         <f>TextData!B31</f>
-        <v>リジェネ</v>
+        <v>パッシブ無効</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>106</v>
+        <v>2100</v>
       </c>
       <c r="B32">
-        <v>106</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+        <v>2100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2812,18 +2799,18 @@
       </c>
       <c r="M32" t="str">
         <f>TextData!B32</f>
-        <v>行動後AP設定</v>
+        <v>居合</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33">
-        <v>107</v>
+        <v>2110</v>
       </c>
       <c r="B33">
-        <v>107</v>
+        <v>2110</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2841,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2850,31 +2837,31 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="str">
         <f>TextData!B33</f>
-        <v>挑発</v>
+        <v>高速</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
-        <v>108</v>
+        <v>2120</v>
       </c>
       <c r="B34">
-        <v>108</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
+        <v>2120</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2883,37 +2870,37 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="str">
         <f>TextData!B34</f>
-        <v>バニッシュ</v>
+        <v>呪い</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35">
-        <v>109</v>
+        <v>2130</v>
       </c>
       <c r="B35">
-        <v>109</v>
+        <v>2130</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -2925,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2934,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="str">
         <f>TextData!B35</f>
-        <v>祝福</v>
+        <v>挑発</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36">
-        <v>110</v>
+        <v>2140</v>
       </c>
       <c r="B36">
-        <v>110</v>
+        <v>2140</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -2958,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2980,27 +2967,27 @@
       </c>
       <c r="M36" t="str">
         <f>TextData!B36</f>
-        <v>呪い</v>
+        <v>凍結</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37">
-        <v>111</v>
+        <v>2150</v>
       </c>
       <c r="B37">
-        <v>111</v>
+        <v>2150</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3009,40 +2996,40 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="str">
         <f>TextData!B37</f>
-        <v>ドレイン</v>
+        <v>スタン</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38">
-        <v>112</v>
+        <v>2160</v>
       </c>
       <c r="B38">
-        <v>112</v>
+        <v>2160</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3051,40 +3038,40 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="str">
         <f>TextData!B38</f>
-        <v>アフターヒール</v>
+        <v>鈍足</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39">
-        <v>113</v>
+        <v>2170</v>
       </c>
       <c r="B39">
-        <v>113</v>
+        <v>2170</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3093,34 +3080,34 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="str">
         <f>TextData!B39</f>
-        <v>CAダメージ</v>
+        <v>暗闇</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40">
-        <v>114</v>
+        <v>2180</v>
       </c>
       <c r="B40">
-        <v>114</v>
+        <v>2180</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3148,24 +3135,24 @@
       </c>
       <c r="M40" t="str">
         <f>TextData!B40</f>
-        <v>即死</v>
+        <v>状態異常無効</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
-        <v>115</v>
+        <v>2190</v>
       </c>
       <c r="B41">
-        <v>115</v>
+        <v>2190</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -3190,21 +3177,21 @@
       </c>
       <c r="M41" t="str">
         <f>TextData!B41</f>
-        <v>CA回復</v>
+        <v>対象範囲延長</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42">
-        <v>116</v>
+        <v>2200</v>
       </c>
       <c r="B42">
-        <v>116</v>
+        <v>2200</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3232,24 +3219,24 @@
       </c>
       <c r="M42" t="str">
         <f>TextData!B42</f>
-        <v>同時回復</v>
+        <v>祝福</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43">
-        <v>117</v>
+        <v>2210</v>
       </c>
       <c r="B43">
-        <v>117</v>
+        <v>2210</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -3261,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3274,21 +3261,21 @@
       </c>
       <c r="M43" t="str">
         <f>TextData!B43</f>
-        <v>アンデッド</v>
+        <v>アフターヒール</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44">
-        <v>118</v>
+        <v>2220</v>
       </c>
       <c r="B44">
-        <v>118</v>
+        <v>2220</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3316,24 +3303,24 @@
       </c>
       <c r="M44" t="str">
         <f>TextData!B44</f>
-        <v>必中</v>
+        <v>即死</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45">
-        <v>119</v>
+        <v>2230</v>
       </c>
       <c r="B45">
-        <v>119</v>
+        <v>2230</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -3358,24 +3345,24 @@
       </c>
       <c r="M45" t="str">
         <f>TextData!B45</f>
-        <v>状態異常CA</v>
+        <v>同時回復</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46">
-        <v>120</v>
+        <v>2240</v>
       </c>
       <c r="B46">
-        <v>120</v>
+        <v>2240</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -3384,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -3400,21 +3387,21 @@
       </c>
       <c r="M46" t="str">
         <f>TextData!B46</f>
-        <v>プリズム</v>
+        <v>必中</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47">
-        <v>121</v>
+        <v>2250</v>
       </c>
       <c r="B47">
-        <v>121</v>
+        <v>2250</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3429,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3438,25 +3425,25 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="str">
         <f>TextData!B47</f>
-        <v>パッシブ無効</v>
+        <v>アタックヒール</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48">
-        <v>122</v>
+        <v>2260</v>
       </c>
       <c r="B48">
-        <v>122</v>
+        <v>2260</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3484,21 +3471,21 @@
       </c>
       <c r="M48" t="str">
         <f>TextData!B48</f>
-        <v>アタックヒール</v>
+        <v>反骨精神</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49">
-        <v>123</v>
+        <v>2270</v>
       </c>
       <c r="B49">
-        <v>123</v>
+        <v>2270</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3513,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3526,21 +3513,21 @@
       </c>
       <c r="M49" t="str">
         <f>TextData!B49</f>
-        <v>居合</v>
+        <v>アンデッド</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50">
-        <v>124</v>
+        <v>2280</v>
       </c>
       <c r="B50">
-        <v>124</v>
+        <v>2280</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3568,24 +3555,24 @@
       </c>
       <c r="M50" t="str">
         <f>TextData!B50</f>
-        <v>高速</v>
+        <v>アクセル</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51">
-        <v>125</v>
+        <v>2290</v>
       </c>
       <c r="B51">
-        <v>125</v>
+        <v>2290</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -3594,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -3610,21 +3597,21 @@
       </c>
       <c r="M51" t="str">
         <f>TextData!B51</f>
-        <v>反骨精神</v>
+        <v>ダメージ威力アップ</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52">
-        <v>201</v>
+        <v>2300</v>
       </c>
       <c r="B52">
-        <v>201</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+        <v>2300</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3639,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3652,21 +3639,21 @@
       </c>
       <c r="M52" t="str">
         <f>TextData!B52</f>
-        <v>炎適正</v>
+        <v>狙われ率アップ</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53">
-        <v>202</v>
+        <v>2310</v>
       </c>
       <c r="B53">
-        <v>202</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
+        <v>2310</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3681,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3694,15 +3681,15 @@
       </c>
       <c r="M53" t="str">
         <f>TextData!B53</f>
-        <v>雷適性</v>
+        <v>狙われ率ダウン</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54">
-        <v>203</v>
+        <v>2320</v>
       </c>
       <c r="B54">
-        <v>203</v>
+        <v>2320</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3723,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3735,92 +3722,8 @@
         <v>0</v>
       </c>
       <c r="M54" t="str">
-        <f>TextData!B54</f>
-        <v>氷適性</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55">
-        <v>204</v>
-      </c>
-      <c r="B55">
-        <v>204</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55" t="str">
-        <f>TextData!B55</f>
-        <v>光適性</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56">
-        <v>205</v>
-      </c>
-      <c r="B56">
-        <v>205</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56" t="str">
-        <f>TextData!B56</f>
-        <v>闇適性</v>
+        <f>TextData!B53</f>
+        <v>狙われ率ダウン</v>
       </c>
     </row>
   </sheetData>
@@ -3833,10 +3736,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -3868,7 +3771,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -3879,7 +3782,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2001</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -3890,7 +3793,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2002</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -3901,7 +3804,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -3912,7 +3815,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -3923,7 +3826,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>24</v>
+        <v>1010</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -3934,7 +3837,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>26</v>
+        <v>1020</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -3945,7 +3848,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>31</v>
+        <v>1030</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -3956,7 +3859,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>32</v>
+        <v>1040</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -3967,7 +3870,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>41</v>
+        <v>1041</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -3978,7 +3881,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>42</v>
+        <v>1050</v>
       </c>
       <c r="B13" t="s">
         <v>79</v>
@@ -3989,7 +3892,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>43</v>
+        <v>1051</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
@@ -4000,7 +3903,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>44</v>
+        <v>1052</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -4011,7 +3914,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>45</v>
+        <v>1060</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -4022,7 +3925,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>46</v>
+        <v>1070</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -4033,7 +3936,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>47</v>
+        <v>1080</v>
       </c>
       <c r="B18" t="s">
         <v>89</v>
@@ -4044,7 +3947,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>51</v>
+        <v>1090</v>
       </c>
       <c r="B19" t="s">
         <v>91</v>
@@ -4055,7 +3958,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>52</v>
+        <v>2010</v>
       </c>
       <c r="B20" t="s">
         <v>93</v>
@@ -4066,7 +3969,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>53</v>
+        <v>2020</v>
       </c>
       <c r="B21" t="s">
         <v>95</v>
@@ -4077,7 +3980,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>61</v>
+        <v>2021</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
@@ -4088,7 +3991,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>62</v>
+        <v>2030</v>
       </c>
       <c r="B23" t="s">
         <v>99</v>
@@ -4099,7 +4002,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>71</v>
+        <v>2031</v>
       </c>
       <c r="B24" t="s">
         <v>101</v>
@@ -4110,7 +4013,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>82</v>
+        <v>2032</v>
       </c>
       <c r="B25" t="s">
         <v>103</v>
@@ -4121,7 +4024,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>84</v>
+        <v>2040</v>
       </c>
       <c r="B26" t="s">
         <v>105</v>
@@ -4132,7 +4035,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>85</v>
+        <v>2050</v>
       </c>
       <c r="B27" t="s">
         <v>107</v>
@@ -4143,7 +4046,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>102</v>
+        <v>2060</v>
       </c>
       <c r="B28" t="s">
         <v>109</v>
@@ -4154,7 +4057,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>103</v>
+        <v>2070</v>
       </c>
       <c r="B29" t="s">
         <v>111</v>
@@ -4165,7 +4068,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>104</v>
+        <v>2080</v>
       </c>
       <c r="B30" t="s">
         <v>113</v>
@@ -4176,7 +4079,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>105</v>
+        <v>2090</v>
       </c>
       <c r="B31" t="s">
         <v>115</v>
@@ -4186,278 +4089,256 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>106</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="A32">
+        <v>2100</v>
+      </c>
+      <c r="B32" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
+      <c r="C32" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>107</v>
+        <v>2110</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>108</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
+      <c r="A34">
+        <v>2120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>109</v>
+        <v>2130</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>110</v>
+        <v>2140</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>111</v>
+        <v>2150</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>112</v>
+        <v>2160</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>113</v>
+        <v>2170</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>114</v>
+        <v>2180</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>115</v>
+        <v>2190</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>116</v>
+        <v>2200</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>117</v>
+        <v>2210</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>118</v>
+        <v>2220</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>119</v>
+        <v>2230</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>120</v>
+        <v>2240</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>121</v>
+        <v>2250</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>122</v>
+        <v>2260</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>123</v>
+        <v>2270</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>124</v>
+        <v>2280</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>125</v>
+        <v>2290</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>201</v>
+        <v>2300</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>202</v>
+        <v>2310</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>203</v>
+        <v>2320</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
-        <v>204</v>
-      </c>
-      <c r="B55" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
-        <v>205</v>
-      </c>
-      <c r="B56" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -511,10 +511,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -522,59 +522,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,6 +542,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -609,7 +585,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,13 +614,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -654,7 +623,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -668,6 +637,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -678,7 +678,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,37 +750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,25 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,37 +780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,43 +804,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,6 +829,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,6 +872,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -887,26 +902,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -918,21 +913,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,6 +945,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -977,16 +977,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,127 +995,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1445,7 +1445,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="166">
   <si>
     <t>Id</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>EffectPosition</t>
+  </si>
+  <si>
+    <t>EffectScale</t>
   </si>
   <si>
     <t>OverLap</t>
@@ -517,10 +520,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -547,9 +550,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,18 +587,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,7 +602,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -607,35 +624,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -645,10 +633,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,8 +648,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,6 +670,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -681,6 +684,102 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -696,25 +795,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,7 +825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,79 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,13 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,24 +871,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -878,11 +881,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,17 +950,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,145 +986,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1448,10 +1451,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1460,15 +1463,15 @@
     <col min="4" max="4" width="14.5454545454545" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="31.1818181818182" customWidth="1"/>
-    <col min="7" max="7" width="13.9090909090909" customWidth="1"/>
-    <col min="8" max="8" width="5.72727272727273" customWidth="1"/>
-    <col min="9" max="9" width="8.54545454545454" customWidth="1"/>
-    <col min="10" max="11" width="11.2727272727273" customWidth="1"/>
-    <col min="12" max="12" width="16.7272727272727" customWidth="1"/>
-    <col min="13" max="13" width="5.72727272727273" customWidth="1"/>
+    <col min="7" max="8" width="13.9090909090909" customWidth="1"/>
+    <col min="9" max="9" width="5.72727272727273" customWidth="1"/>
+    <col min="10" max="10" width="8.54545454545454" customWidth="1"/>
+    <col min="11" max="12" width="11.2727272727273" customWidth="1"/>
+    <col min="13" max="13" width="16.7272727272727" customWidth="1"/>
+    <col min="14" max="14" width="5.72727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1508,8 +1511,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1526,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1549,12 +1555,15 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="str">
         <f>TextData!C2</f>
         <v>""</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1562,22 +1571,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1594,12 +1603,15 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" t="str">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="str">
         <f>TextData!B3</f>
         <v>待機</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>201</v>
       </c>
@@ -1616,13 +1628,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1639,12 +1651,15 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" t="str">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="str">
         <f>TextData!B4</f>
         <v>炎適正</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>202</v>
       </c>
@@ -1661,13 +1676,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1684,12 +1699,15 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" t="str">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="str">
         <f>TextData!B5</f>
         <v>雷適性</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>203</v>
       </c>
@@ -1706,13 +1724,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1729,12 +1747,15 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" t="str">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="str">
         <f>TextData!B6</f>
         <v>氷適性</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>204</v>
       </c>
@@ -1751,13 +1772,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1774,12 +1795,15 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" t="str">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="str">
         <f>TextData!B7</f>
         <v>光適性</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>205</v>
       </c>
@@ -1796,13 +1820,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1819,12 +1843,15 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" t="str">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="str">
         <f>TextData!B8</f>
         <v>闇適性</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>1010</v>
       </c>
@@ -1832,7 +1859,7 @@
         <v>1010</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1841,13 +1868,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1864,12 +1891,15 @@
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9" t="str">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="str">
         <f>TextData!B9</f>
         <v>神化</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>1020</v>
       </c>
@@ -1877,7 +1907,7 @@
         <v>1020</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1886,19 +1916,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1909,12 +1939,15 @@
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10" t="str">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="str">
         <f>TextData!B10</f>
         <v>最大Hpアップ</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>1030</v>
       </c>
@@ -1922,7 +1955,7 @@
         <v>1030</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1931,19 +1964,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1954,12 +1987,15 @@
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11" t="str">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="str">
         <f>TextData!B11</f>
         <v>最大Mpアップ</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>1040</v>
       </c>
@@ -1967,7 +2003,7 @@
         <v>1040</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1976,19 +2012,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1999,12 +2035,15 @@
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12" t="str">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="str">
         <f>TextData!B12</f>
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>1041</v>
       </c>
@@ -2012,7 +2051,7 @@
         <v>1041</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2021,13 +2060,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2042,14 +2081,17 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="str">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="str">
         <f>TextData!B13</f>
         <v>攻撃ダウン</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>1050</v>
       </c>
@@ -2057,7 +2099,7 @@
         <v>1050</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2066,19 +2108,19 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2089,12 +2131,15 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14" t="str">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="str">
         <f>TextData!B14</f>
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>1051</v>
       </c>
@@ -2102,7 +2147,7 @@
         <v>1051</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2111,13 +2156,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2132,14 +2177,17 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15" t="str">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="str">
         <f>TextData!B15</f>
         <v>防御ダウン</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>1052</v>
       </c>
@@ -2147,7 +2195,7 @@
         <v>1052</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2156,13 +2204,13 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2177,14 +2225,17 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16" t="str">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="str">
         <f>TextData!B16</f>
         <v>防御ブレイク</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>1060</v>
       </c>
@@ -2192,28 +2243,28 @@
         <v>1060</v>
       </c>
       <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2224,12 +2275,15 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17" t="str">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="str">
         <f>TextData!B17</f>
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>1070</v>
       </c>
@@ -2237,7 +2291,7 @@
         <v>1070</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2246,19 +2300,19 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2269,12 +2323,15 @@
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="N18" t="str">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="str">
         <f>TextData!B18</f>
         <v>致命攻撃発生率アップ</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>1080</v>
       </c>
@@ -2282,7 +2339,7 @@
         <v>1080</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2291,19 +2348,19 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2314,12 +2371,15 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19" t="str">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="str">
         <f>TextData!B19</f>
         <v>命中アップ</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>1090</v>
       </c>
@@ -2327,7 +2387,7 @@
         <v>1090</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2336,19 +2396,19 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2359,12 +2419,15 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20" t="str">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="str">
         <f>TextData!B20</f>
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="21" ht="12" customHeight="1" spans="1:14">
+    <row r="21" ht="12" customHeight="1" spans="1:15">
       <c r="A21">
         <v>2010</v>
       </c>
@@ -2372,7 +2435,7 @@
         <v>2010</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2381,35 +2444,38 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" t="str">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="str">
         <f>TextData!B21</f>
         <v>火傷</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -2417,7 +2483,7 @@
         <v>2020</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -2426,13 +2492,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2441,20 +2507,23 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22" t="str">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="str">
         <f>TextData!B22</f>
         <v>拘束</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -2462,7 +2531,7 @@
         <v>2021</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2471,19 +2540,19 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2494,12 +2563,15 @@
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="N23" t="str">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="str">
         <f>TextData!B23</f>
         <v>拘束ダメージ</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>2030</v>
       </c>
@@ -2507,7 +2579,7 @@
         <v>2030</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2516,13 +2588,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2539,12 +2611,15 @@
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24" t="str">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="str">
         <f>TextData!B24</f>
         <v>CA</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -2552,7 +2627,7 @@
         <v>2031</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2561,19 +2636,19 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2584,12 +2659,15 @@
       <c r="M25">
         <v>0</v>
       </c>
-      <c r="N25" t="str">
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="str">
         <f>TextData!B25</f>
         <v>CAダメージ</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>2032</v>
       </c>
@@ -2597,7 +2675,7 @@
         <v>2032</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2606,19 +2684,19 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2629,12 +2707,15 @@
       <c r="M26">
         <v>0</v>
       </c>
-      <c r="N26" t="str">
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="str">
         <f>TextData!B26</f>
         <v>CA回復</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>2040</v>
       </c>
@@ -2642,7 +2723,7 @@
         <v>2040</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2651,19 +2732,19 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2674,12 +2755,15 @@
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="N27" t="str">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="str">
         <f>TextData!B27</f>
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -2687,7 +2771,7 @@
         <v>2050</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -2696,19 +2780,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2719,12 +2803,15 @@
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="N28" t="str">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="str">
         <f>TextData!B28</f>
         <v>攻撃無効</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>2060</v>
       </c>
@@ -2732,7 +2819,7 @@
         <v>2060</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2741,19 +2828,19 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2764,12 +2851,15 @@
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29" t="str">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="str">
         <f>TextData!B29</f>
         <v>ドレイン</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>2070</v>
       </c>
@@ -2777,7 +2867,7 @@
         <v>2070</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2786,19 +2876,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2809,12 +2899,15 @@
       <c r="M30">
         <v>0</v>
       </c>
-      <c r="N30" t="str">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="str">
         <f>TextData!B30</f>
         <v>状態異常CA</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>2080</v>
       </c>
@@ -2822,7 +2915,7 @@
         <v>2080</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2831,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2843,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2854,12 +2947,15 @@
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="N31" t="str">
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="str">
         <f>TextData!B31</f>
         <v>プリズム</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>2090</v>
       </c>
@@ -2867,7 +2963,7 @@
         <v>2090</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -2876,13 +2972,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2891,20 +2987,23 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32" t="str">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="str">
         <f>TextData!B32</f>
         <v>パッシブ無効</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>2100</v>
       </c>
@@ -2912,7 +3011,7 @@
         <v>2100</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2921,19 +3020,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2944,12 +3043,15 @@
       <c r="M33">
         <v>0</v>
       </c>
-      <c r="N33" t="str">
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="str">
         <f>TextData!B33</f>
         <v>居合</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>2110</v>
       </c>
@@ -2957,7 +3059,7 @@
         <v>2110</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2966,19 +3068,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2989,12 +3091,15 @@
       <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34" t="str">
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="str">
         <f>TextData!B34</f>
         <v>高速</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>2120</v>
       </c>
@@ -3002,7 +3107,7 @@
         <v>2120</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -3011,35 +3116,38 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35" t="str">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="str">
         <f>TextData!B35</f>
         <v>呪い</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>2130</v>
       </c>
@@ -3047,7 +3155,7 @@
         <v>2130</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3056,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3071,20 +3179,23 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36" t="str">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="str">
         <f>TextData!B36</f>
         <v>挑発</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>2140</v>
       </c>
@@ -3092,7 +3203,7 @@
         <v>2140</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -3101,35 +3212,38 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37" t="str">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="str">
         <f>TextData!B37</f>
         <v>凍結</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>2150</v>
       </c>
@@ -3137,7 +3251,7 @@
         <v>2150</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3146,35 +3260,38 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38" t="str">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="str">
         <f>TextData!B38</f>
         <v>スタン</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>2160</v>
       </c>
@@ -3182,7 +3299,7 @@
         <v>2160</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3191,35 +3308,38 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39" t="str">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="str">
         <f>TextData!B39</f>
         <v>鈍足</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>2170</v>
       </c>
@@ -3227,7 +3347,7 @@
         <v>2170</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3236,35 +3356,38 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40" t="str">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="str">
         <f>TextData!B40</f>
         <v>暗闇</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>2180</v>
       </c>
@@ -3272,7 +3395,7 @@
         <v>2180</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -3281,19 +3404,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3304,12 +3427,15 @@
       <c r="M41">
         <v>0</v>
       </c>
-      <c r="N41" t="str">
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="str">
         <f>TextData!B41</f>
         <v>状態異常回避</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>2190</v>
       </c>
@@ -3317,7 +3443,7 @@
         <v>2190</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3326,19 +3452,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -3349,12 +3475,15 @@
       <c r="M42">
         <v>0</v>
       </c>
-      <c r="N42" t="str">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="str">
         <f>TextData!B42</f>
         <v>対象範囲延長</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>2200</v>
       </c>
@@ -3362,7 +3491,7 @@
         <v>2200</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3371,19 +3500,19 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3394,12 +3523,15 @@
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43" t="str">
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="str">
         <f>TextData!B43</f>
         <v>祝福</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>2210</v>
       </c>
@@ -3407,7 +3539,7 @@
         <v>2210</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3416,19 +3548,19 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3439,12 +3571,15 @@
       <c r="M44">
         <v>0</v>
       </c>
-      <c r="N44" t="str">
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="str">
         <f>TextData!B44</f>
         <v>アフターヒール</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>2220</v>
       </c>
@@ -3452,7 +3587,7 @@
         <v>2220</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3461,35 +3596,38 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45" t="str">
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="str">
         <f>TextData!B45</f>
         <v>即死</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>2230</v>
       </c>
@@ -3497,7 +3635,7 @@
         <v>2230</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3506,19 +3644,19 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3529,12 +3667,15 @@
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="N46" t="str">
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="str">
         <f>TextData!B46</f>
         <v>同時回復</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>2240</v>
       </c>
@@ -3542,7 +3683,7 @@
         <v>2240</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3551,19 +3692,19 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3574,12 +3715,15 @@
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47" t="str">
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="str">
         <f>TextData!B47</f>
         <v>必中</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>2250</v>
       </c>
@@ -3587,7 +3731,7 @@
         <v>2250</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3596,19 +3740,19 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3619,12 +3763,15 @@
       <c r="M48">
         <v>0</v>
       </c>
-      <c r="N48" t="str">
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="str">
         <f>TextData!B48</f>
         <v>アタックヒール</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>2260</v>
       </c>
@@ -3632,7 +3779,7 @@
         <v>2260</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3641,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3664,12 +3811,15 @@
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="N49" t="str">
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="str">
         <f>TextData!B49</f>
         <v>反骨精神</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>2270</v>
       </c>
@@ -3677,7 +3827,7 @@
         <v>2270</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3686,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3709,12 +3859,15 @@
       <c r="M50">
         <v>0</v>
       </c>
-      <c r="N50" t="str">
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="str">
         <f>TextData!B50</f>
         <v>アンデッド</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>2280</v>
       </c>
@@ -3722,28 +3875,28 @@
         <v>2280</v>
       </c>
       <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
         <v>15</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3754,12 +3907,15 @@
       <c r="M51">
         <v>0</v>
       </c>
-      <c r="N51" t="str">
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="str">
         <f>TextData!B51</f>
         <v>アクセル</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>2290</v>
       </c>
@@ -3767,7 +3923,7 @@
         <v>2290</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3776,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3788,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3799,12 +3955,15 @@
       <c r="M52">
         <v>0</v>
       </c>
-      <c r="N52" t="str">
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="str">
         <f>TextData!B52</f>
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>2300</v>
       </c>
@@ -3812,7 +3971,7 @@
         <v>2300</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3821,19 +3980,19 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3844,12 +4003,15 @@
       <c r="M53">
         <v>0</v>
       </c>
-      <c r="N53" t="str">
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="str">
         <f>TextData!B53</f>
         <v>狙われ率アップ</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>2310</v>
       </c>
@@ -3857,7 +4019,7 @@
         <v>2310</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3866,19 +4028,19 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3889,12 +4051,15 @@
       <c r="M54">
         <v>0</v>
       </c>
-      <c r="N54" t="str">
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="str">
         <f>TextData!B54</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>2320</v>
       </c>
@@ -3911,19 +4076,19 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3934,7 +4099,10 @@
       <c r="M55">
         <v>0</v>
       </c>
-      <c r="N55" t="str">
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="str">
         <f>TextData!B54</f>
         <v>狙われ率ダウン</v>
       </c>
@@ -3951,7 +4119,7 @@
   <sheetPr/>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -3965,10 +4133,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3976,10 +4144,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3987,10 +4155,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3998,10 +4166,10 @@
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4009,10 +4177,10 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4020,10 +4188,10 @@
         <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4031,10 +4199,10 @@
         <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4042,10 +4210,10 @@
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4053,10 +4221,10 @@
         <v>1010</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4064,10 +4232,10 @@
         <v>1020</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4075,10 +4243,10 @@
         <v>1030</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4086,10 +4254,10 @@
         <v>1040</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4097,10 +4265,10 @@
         <v>1041</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4108,10 +4276,10 @@
         <v>1050</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4119,10 +4287,10 @@
         <v>1051</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4130,10 +4298,10 @@
         <v>1052</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4141,10 +4309,10 @@
         <v>1060</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4152,10 +4320,10 @@
         <v>1070</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4163,10 +4331,10 @@
         <v>1080</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4174,10 +4342,10 @@
         <v>1090</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4185,10 +4353,10 @@
         <v>2010</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4196,10 +4364,10 @@
         <v>2020</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4207,10 +4375,10 @@
         <v>2021</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4218,10 +4386,10 @@
         <v>2030</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4229,10 +4397,10 @@
         <v>2031</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4240,10 +4408,10 @@
         <v>2032</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4251,10 +4419,10 @@
         <v>2040</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4262,10 +4430,10 @@
         <v>2050</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4273,10 +4441,10 @@
         <v>2060</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4284,10 +4452,10 @@
         <v>2070</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4295,10 +4463,10 @@
         <v>2080</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4306,10 +4474,10 @@
         <v>2090</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4317,10 +4485,10 @@
         <v>2100</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4328,10 +4496,10 @@
         <v>2110</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4339,10 +4507,10 @@
         <v>2120</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4350,10 +4518,10 @@
         <v>2130</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4361,10 +4529,10 @@
         <v>2140</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4372,10 +4540,10 @@
         <v>2150</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4383,10 +4551,10 @@
         <v>2160</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4394,10 +4562,10 @@
         <v>2170</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4405,10 +4573,10 @@
         <v>2180</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4416,10 +4584,10 @@
         <v>2190</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4427,10 +4595,10 @@
         <v>2200</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4438,10 +4606,10 @@
         <v>2210</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4449,10 +4617,10 @@
         <v>2220</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4460,10 +4628,10 @@
         <v>2230</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4471,10 +4639,10 @@
         <v>2240</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4482,10 +4650,10 @@
         <v>2250</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4493,10 +4661,10 @@
         <v>2260</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4504,10 +4672,10 @@
         <v>2270</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4515,10 +4683,10 @@
         <v>2280</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4526,10 +4694,10 @@
         <v>2290</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4537,10 +4705,10 @@
         <v>2300</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4548,10 +4716,10 @@
         <v>2310</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4559,10 +4727,10 @@
         <v>2320</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="168">
   <si>
     <t>Id</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>ATK,DEF,SPDが\dアップ</t>
+  </si>
+  <si>
+    <t>全ステータスアップ</t>
+  </si>
+  <si>
+    <t>全てのステータスが\dアップ</t>
   </si>
   <si>
     <t>最大Hpアップ</t>
@@ -521,9 +527,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -535,12 +541,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -557,7 +571,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -565,15 +579,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,11 +616,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,13 +661,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -624,48 +669,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,13 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,7 +705,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,13 +747,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,24 +777,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -771,19 +789,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,79 +849,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,6 +884,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -896,6 +913,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -907,6 +942,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,52 +979,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,7 +992,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,136 +1001,136 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1451,10 +1457,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1901,19 +1907,19 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="B10">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -1928,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1944,18 +1950,18 @@
       </c>
       <c r="O10" t="str">
         <f>TextData!B10</f>
-        <v>最大Hpアップ</v>
+        <v>全ステータスアップ</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="B11">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1992,18 +1998,18 @@
       </c>
       <c r="O11" t="str">
         <f>TextData!B11</f>
-        <v>最大Mpアップ</v>
+        <v>最大Hpアップ</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="B12">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2040,18 +2046,18 @@
       </c>
       <c r="O12" t="str">
         <f>TextData!B12</f>
-        <v>攻撃アップ</v>
+        <v>最大Mpアップ</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B13">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2072,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2084,22 +2090,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="str">
         <f>TextData!B13</f>
-        <v>攻撃ダウン</v>
+        <v>攻撃アップ</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="B14">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2120,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2132,22 +2138,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="str">
         <f>TextData!B14</f>
-        <v>防御アップ</v>
+        <v>攻撃ダウン</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B15">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2168,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2180,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="str">
         <f>TextData!B15</f>
-        <v>防御ダウン</v>
+        <v>防御アップ</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B16">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -2232,18 +2238,18 @@
       </c>
       <c r="O16" t="str">
         <f>TextData!B16</f>
-        <v>防御ブレイク</v>
+        <v>防御ダウン</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="B17">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2264,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2276,22 +2282,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="str">
         <f>TextData!B17</f>
-        <v>速度アップ</v>
+        <v>防御ブレイク</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="B18">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2328,15 +2334,15 @@
       </c>
       <c r="O18" t="str">
         <f>TextData!B18</f>
-        <v>致命攻撃発生率アップ</v>
+        <v>速度アップ</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="B19">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -2376,18 +2382,18 @@
       </c>
       <c r="O19" t="str">
         <f>TextData!B19</f>
-        <v>命中アップ</v>
+        <v>致命攻撃発生率アップ</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="B20">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2424,18 +2430,18 @@
       </c>
       <c r="O20" t="str">
         <f>TextData!B20</f>
-        <v>回避アップ</v>
-      </c>
-    </row>
-    <row r="21" ht="12" customHeight="1" spans="1:15">
+        <v>命中アップ</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>2010</v>
+        <v>1090</v>
       </c>
       <c r="B21">
-        <v>2010</v>
+        <v>1090</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2444,10 +2450,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2456,43 +2462,43 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="str">
         <f>TextData!B21</f>
-        <v>火傷</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>回避アップ</v>
+      </c>
+    </row>
+    <row r="22" ht="12" customHeight="1" spans="1:15">
       <c r="A22">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="B22">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2507,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -2520,30 +2526,30 @@
       </c>
       <c r="O22" t="str">
         <f>TextData!B22</f>
-        <v>拘束</v>
+        <v>火傷</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B23">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2552,43 +2558,43 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="str">
         <f>TextData!B23</f>
-        <v>拘束ダメージ</v>
+        <v>拘束</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="B24">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2600,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2616,27 +2622,27 @@
       </c>
       <c r="O24" t="str">
         <f>TextData!B24</f>
-        <v>CA</v>
+        <v>拘束ダメージ</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B25">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2648,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2664,21 +2670,21 @@
       </c>
       <c r="O25" t="str">
         <f>TextData!B25</f>
-        <v>CAダメージ</v>
+        <v>CA</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B26">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2712,21 +2718,21 @@
       </c>
       <c r="O26" t="str">
         <f>TextData!B26</f>
-        <v>CA回復</v>
+        <v>CAダメージ</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27">
-        <v>2040</v>
+        <v>2032</v>
       </c>
       <c r="B27">
-        <v>2040</v>
+        <v>2032</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2760,27 +2766,27 @@
       </c>
       <c r="O27" t="str">
         <f>TextData!B27</f>
-        <v>リジェネ</v>
+        <v>CA回復</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="B28">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2808,27 +2814,27 @@
       </c>
       <c r="O28" t="str">
         <f>TextData!B28</f>
-        <v>攻撃無効</v>
+        <v>リジェネ</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="B29">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2856,24 +2862,24 @@
       </c>
       <c r="O29" t="str">
         <f>TextData!B29</f>
-        <v>ドレイン</v>
+        <v>攻撃無効</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="B30">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
@@ -2904,24 +2910,24 @@
       </c>
       <c r="O30" t="str">
         <f>TextData!B30</f>
-        <v>状態異常CA</v>
+        <v>ドレイン</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31">
-        <v>2080</v>
+        <v>2070</v>
       </c>
       <c r="B31">
-        <v>2080</v>
+        <v>2070</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
@@ -2933,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2952,24 +2958,24 @@
       </c>
       <c r="O31" t="str">
         <f>TextData!B31</f>
-        <v>プリズム</v>
+        <v>状態異常CA</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32">
-        <v>2090</v>
+        <v>2080</v>
       </c>
       <c r="B32">
-        <v>2090</v>
+        <v>2080</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
@@ -2981,40 +2987,40 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="str">
         <f>TextData!B32</f>
-        <v>パッシブ無効</v>
+        <v>プリズム</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
-        <v>2100</v>
+        <v>2090</v>
       </c>
       <c r="B33">
-        <v>2100</v>
+        <v>2090</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3032,37 +3038,37 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="str">
         <f>TextData!B33</f>
-        <v>居合</v>
+        <v>パッシブ無効</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34">
-        <v>2110</v>
+        <v>2100</v>
       </c>
       <c r="B34">
-        <v>2110</v>
+        <v>2100</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3096,27 +3102,27 @@
       </c>
       <c r="O34" t="str">
         <f>TextData!B34</f>
-        <v>高速</v>
+        <v>居合</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="B35">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3128,43 +3134,43 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="str">
         <f>TextData!B35</f>
-        <v>呪い</v>
+        <v>高速</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="B36">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3179,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -3192,27 +3198,27 @@
       </c>
       <c r="O36" t="str">
         <f>TextData!B36</f>
-        <v>挑発</v>
+        <v>呪い</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="B37">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3227,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -3240,27 +3246,27 @@
       </c>
       <c r="O37" t="str">
         <f>TextData!B37</f>
-        <v>凍結</v>
+        <v>挑発</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="B38">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3288,18 +3294,18 @@
       </c>
       <c r="O38" t="str">
         <f>TextData!B38</f>
-        <v>スタン</v>
+        <v>凍結</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39">
-        <v>2160</v>
+        <v>2150</v>
       </c>
       <c r="B39">
-        <v>2160</v>
+        <v>2150</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3308,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3336,33 +3342,33 @@
       </c>
       <c r="O39" t="str">
         <f>TextData!B39</f>
-        <v>鈍足</v>
+        <v>スタン</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40">
-        <v>2170</v>
+        <v>2160</v>
       </c>
       <c r="B40">
-        <v>2170</v>
+        <v>2160</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3384,69 +3390,69 @@
       </c>
       <c r="O40" t="str">
         <f>TextData!B40</f>
-        <v>暗闇</v>
+        <v>鈍足</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41">
-        <v>2180</v>
+        <v>2170</v>
       </c>
       <c r="B41">
-        <v>2180</v>
+        <v>2170</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="str">
         <f>TextData!B41</f>
-        <v>状態異常回避</v>
+        <v>暗闇</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="B42">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3480,24 +3486,24 @@
       </c>
       <c r="O42" t="str">
         <f>TextData!B42</f>
-        <v>対象範囲延長</v>
+        <v>状態異常回避</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43">
-        <v>2200</v>
+        <v>2190</v>
       </c>
       <c r="B43">
-        <v>2200</v>
+        <v>2190</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
@@ -3528,21 +3534,21 @@
       </c>
       <c r="O43" t="str">
         <f>TextData!B43</f>
-        <v>祝福</v>
+        <v>対象範囲延長</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44">
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="B44">
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="C44" t="s">
         <v>32</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3576,24 +3582,24 @@
       </c>
       <c r="O44" t="str">
         <f>TextData!B44</f>
-        <v>アフターヒール</v>
+        <v>祝福</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="B45">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -3614,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3624,24 +3630,24 @@
       </c>
       <c r="O45" t="str">
         <f>TextData!B45</f>
-        <v>即死</v>
+        <v>アフターヒール</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="B46">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
@@ -3662,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3672,24 +3678,24 @@
       </c>
       <c r="O46" t="str">
         <f>TextData!B46</f>
-        <v>同時回復</v>
+        <v>即死</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47">
-        <v>2240</v>
+        <v>2230</v>
       </c>
       <c r="B47">
-        <v>2240</v>
+        <v>2230</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
@@ -3720,21 +3726,21 @@
       </c>
       <c r="O47" t="str">
         <f>TextData!B47</f>
-        <v>必中</v>
+        <v>同時回復</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48">
-        <v>2250</v>
+        <v>2240</v>
       </c>
       <c r="B48">
-        <v>2250</v>
+        <v>2240</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3768,21 +3774,21 @@
       </c>
       <c r="O48" t="str">
         <f>TextData!B48</f>
-        <v>アタックヒール</v>
+        <v>必中</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49">
-        <v>2260</v>
+        <v>2250</v>
       </c>
       <c r="B49">
-        <v>2260</v>
+        <v>2250</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3816,21 +3822,21 @@
       </c>
       <c r="O49" t="str">
         <f>TextData!B49</f>
-        <v>反骨精神</v>
+        <v>アタックヒール</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50">
-        <v>2270</v>
+        <v>2260</v>
       </c>
       <c r="B50">
-        <v>2270</v>
+        <v>2260</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3848,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3864,18 +3870,18 @@
       </c>
       <c r="O50" t="str">
         <f>TextData!B50</f>
-        <v>アンデッド</v>
+        <v>反骨精神</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51">
-        <v>2280</v>
+        <v>2270</v>
       </c>
       <c r="B51">
-        <v>2280</v>
+        <v>2270</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3896,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3912,24 +3918,24 @@
       </c>
       <c r="O51" t="str">
         <f>TextData!B51</f>
-        <v>アクセル</v>
+        <v>アンデッド</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="B52">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
         <v>15</v>
@@ -3941,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -3960,18 +3966,18 @@
       </c>
       <c r="O52" t="str">
         <f>TextData!B52</f>
-        <v>ダメージ威力アップ</v>
+        <v>アクセル</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53">
-        <v>2300</v>
+        <v>2290</v>
       </c>
       <c r="B53">
-        <v>2300</v>
+        <v>2290</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3989,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -4008,18 +4014,18 @@
       </c>
       <c r="O53" t="str">
         <f>TextData!B53</f>
-        <v>狙われ率アップ</v>
+        <v>ダメージ威力アップ</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="B54">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -4056,21 +4062,21 @@
       </c>
       <c r="O54" t="str">
         <f>TextData!B54</f>
-        <v>狙われ率ダウン</v>
+        <v>狙われ率アップ</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="B55">
-        <v>2320</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
+        <v>2310</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4103,7 +4109,55 @@
         <v>0</v>
       </c>
       <c r="O55" t="str">
-        <f>TextData!B54</f>
+        <f>TextData!B55</f>
+        <v>狙われ率ダウン</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56">
+        <v>2320</v>
+      </c>
+      <c r="B56">
+        <v>2320</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="str">
+        <f>TextData!B55</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
@@ -4117,10 +4171,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -4229,7 +4283,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -4240,7 +4294,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -4251,7 +4305,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -4262,7 +4316,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B13" t="s">
         <v>80</v>
@@ -4273,7 +4327,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -4284,7 +4338,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -4295,7 +4349,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -4306,7 +4360,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
@@ -4317,7 +4371,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="B18" t="s">
         <v>90</v>
@@ -4328,7 +4382,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="B19" t="s">
         <v>92</v>
@@ -4339,7 +4393,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="B20" t="s">
         <v>94</v>
@@ -4350,7 +4404,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2010</v>
+        <v>1090</v>
       </c>
       <c r="B21" t="s">
         <v>96</v>
@@ -4361,7 +4415,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="B22" t="s">
         <v>98</v>
@@ -4372,7 +4426,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
@@ -4383,7 +4437,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="B24" t="s">
         <v>102</v>
@@ -4394,7 +4448,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B25" t="s">
         <v>104</v>
@@ -4405,7 +4459,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
@@ -4416,7 +4470,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2040</v>
+        <v>2032</v>
       </c>
       <c r="B27" t="s">
         <v>108</v>
@@ -4427,7 +4481,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="B28" t="s">
         <v>110</v>
@@ -4438,7 +4492,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="B29" t="s">
         <v>112</v>
@@ -4449,7 +4503,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="B30" t="s">
         <v>114</v>
@@ -4460,7 +4514,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2080</v>
+        <v>2070</v>
       </c>
       <c r="B31" t="s">
         <v>116</v>
@@ -4471,7 +4525,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2090</v>
+        <v>2080</v>
       </c>
       <c r="B32" t="s">
         <v>118</v>
@@ -4482,7 +4536,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2100</v>
+        <v>2090</v>
       </c>
       <c r="B33" t="s">
         <v>120</v>
@@ -4493,7 +4547,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2110</v>
+        <v>2100</v>
       </c>
       <c r="B34" t="s">
         <v>122</v>
@@ -4504,7 +4558,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="B35" t="s">
         <v>124</v>
@@ -4515,7 +4569,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="B36" t="s">
         <v>126</v>
@@ -4526,7 +4580,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="B37" t="s">
         <v>128</v>
@@ -4537,7 +4591,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="B38" t="s">
         <v>130</v>
@@ -4548,7 +4602,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2160</v>
+        <v>2150</v>
       </c>
       <c r="B39" t="s">
         <v>132</v>
@@ -4559,7 +4613,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2170</v>
+        <v>2160</v>
       </c>
       <c r="B40" t="s">
         <v>134</v>
@@ -4570,7 +4624,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2180</v>
+        <v>2170</v>
       </c>
       <c r="B41" t="s">
         <v>136</v>
@@ -4581,7 +4635,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="B42" t="s">
         <v>138</v>
@@ -4592,7 +4646,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2200</v>
+        <v>2190</v>
       </c>
       <c r="B43" t="s">
         <v>140</v>
@@ -4603,7 +4657,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="B44" t="s">
         <v>142</v>
@@ -4614,7 +4668,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="B45" t="s">
         <v>144</v>
@@ -4625,7 +4679,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="B46" t="s">
         <v>146</v>
@@ -4636,7 +4690,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>2240</v>
+        <v>2230</v>
       </c>
       <c r="B47" t="s">
         <v>148</v>
@@ -4647,7 +4701,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2250</v>
+        <v>2240</v>
       </c>
       <c r="B48" t="s">
         <v>150</v>
@@ -4658,7 +4712,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2260</v>
+        <v>2250</v>
       </c>
       <c r="B49" t="s">
         <v>152</v>
@@ -4669,7 +4723,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2270</v>
+        <v>2260</v>
       </c>
       <c r="B50" t="s">
         <v>154</v>
@@ -4680,7 +4734,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2280</v>
+        <v>2270</v>
       </c>
       <c r="B51" t="s">
         <v>156</v>
@@ -4691,7 +4745,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="B52" t="s">
         <v>158</v>
@@ -4702,7 +4756,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2300</v>
+        <v>2290</v>
       </c>
       <c r="B53" t="s">
         <v>160</v>
@@ -4713,7 +4767,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="B54" t="s">
         <v>162</v>
@@ -4724,13 +4778,24 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="B55" t="s">
         <v>164</v>
       </c>
       <c r="C55" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>2320</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -341,10 +341,10 @@
     <t>CAの反撃ダメージ\dアップ</t>
   </si>
   <si>
-    <t>CA回復</t>
-  </si>
-  <si>
-    <t>CAダメージの一部を自身のHpに変換する</t>
+    <t>CAシェル</t>
+  </si>
+  <si>
+    <t>CA成功時のダメージをダウン</t>
   </si>
   <si>
     <t>リジェネ</t>
@@ -455,10 +455,10 @@
     <t>行動後自身のHpを回復</t>
   </si>
   <si>
-    <t>即死</t>
-  </si>
-  <si>
-    <t>攻撃を当てると一定確率で戦闘不能を付与</t>
+    <t>即死付与</t>
+  </si>
+  <si>
+    <t>一定確率でダメージが対象のHpになる</t>
   </si>
   <si>
     <t>同時回復</t>
@@ -526,10 +526,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -548,15 +548,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,32 +576,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,6 +585,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,9 +607,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -632,7 +630,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -640,17 +638,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -669,16 +668,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,7 +693,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,7 +735,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,7 +753,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,19 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,79 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,24 +877,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -889,11 +889,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,24 +911,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -942,6 +922,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,6 +973,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -992,145 +992,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1459,8 +1459,8 @@
   <sheetPr/>
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="O27" t="str">
         <f>TextData!B27</f>
-        <v>CA回復</v>
+        <v>CAシェル</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>14</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="O46" t="str">
         <f>TextData!B46</f>
-        <v>即死</v>
+        <v>即死付与</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -4173,8 +4173,8 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -526,9 +526,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -541,13 +541,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -555,14 +548,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,14 +563,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,9 +609,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,14 +631,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -637,24 +639,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,9 +662,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,13 +693,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +747,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,13 +777,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,49 +837,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,13 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,61 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,15 +884,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -930,7 +921,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,6 +937,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,15 +976,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -992,145 +992,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1459,8 +1459,8 @@
   <sheetPr/>
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>1</v>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -526,10 +526,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -541,45 +541,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,37 +549,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,16 +571,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,16 +631,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -693,7 +693,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,7 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,25 +741,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,79 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,19 +837,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,19 +867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,17 +887,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,11 +920,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,32 +968,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,145 +992,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1459,8 +1459,8 @@
   <sheetPr/>
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="str">
         <f>TextData!B3</f>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="str">
         <f>TextData!B9</f>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="str">
         <f>TextData!B10</f>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="str">
         <f>TextData!B11</f>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="str">
         <f>TextData!B12</f>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="str">
         <f>TextData!B13</f>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="str">
         <f>TextData!B15</f>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="str">
         <f>TextData!B18</f>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="str">
         <f>TextData!B19</f>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="str">
         <f>TextData!B20</f>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="str">
         <f>TextData!B21</f>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="str">
         <f>TextData!B24</f>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="str">
         <f>TextData!B25</f>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="str">
         <f>TextData!B26</f>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="str">
         <f>TextData!B27</f>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="str">
         <f>TextData!B28</f>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="str">
         <f>TextData!B29</f>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="str">
         <f>TextData!B30</f>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="str">
         <f>TextData!B31</f>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="str">
         <f>TextData!B32</f>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="str">
         <f>TextData!B34</f>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="str">
         <f>TextData!B35</f>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="str">
         <f>TextData!B42</f>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="str">
         <f>TextData!B44</f>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="str">
         <f>TextData!B45</f>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="str">
         <f>TextData!B46</f>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="str">
         <f>TextData!B47</f>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="str">
         <f>TextData!B48</f>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="str">
         <f>TextData!B49</f>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="str">
         <f>TextData!B50</f>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="str">
         <f>TextData!B51</f>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="str">
         <f>TextData!B52</f>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="str">
         <f>TextData!B53</f>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="str">
         <f>TextData!B54</f>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="str">
         <f>TextData!B55</f>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="str">
         <f>TextData!B55</f>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
     <sheet name="TextData" sheetId="2" r:id="rId2"/>
+    <sheet name="Define" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="173">
   <si>
     <t>Id</t>
   </si>
@@ -519,6 +520,21 @@
   </si>
   <si>
     <t>バフを解除する</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>ターン数</t>
+  </si>
+  <si>
+    <t>APカウント</t>
+  </si>
+  <si>
+    <t>Chain用</t>
+  </si>
+  <si>
+    <t>効果発揮回数</t>
   </si>
 </sst>
 </file>
@@ -526,10 +542,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -541,7 +557,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,30 +594,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,22 +625,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,7 +633,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,31 +663,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,7 +677,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -678,7 +694,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,7 +709,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,7 +781,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,25 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,13 +823,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,13 +853,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,97 +883,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,20 +903,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,21 +948,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -976,6 +974,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -984,6 +991,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -992,145 +1008,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1459,8 +1475,8 @@
   <sheetPr/>
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3740,7 +3756,7 @@
         <v>24</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -4173,7 +4189,7 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -4802,4 +4818,66 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -542,10 +542,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -564,24 +564,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,9 +586,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,23 +601,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,31 +624,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,11 +661,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -697,6 +673,30 @@
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -709,19 +709,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,19 +733,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,7 +763,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,7 +805,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +823,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,85 +889,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,17 +903,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,21 +934,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,28 +965,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,145 +1008,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1475,8 +1475,8 @@
   <sheetPr/>
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -4189,8 +4189,8 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -4825,7 +4825,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="174">
   <si>
     <t>Id</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>効果発揮回数</t>
+  </si>
+  <si>
+    <t>次に行動するまでの間</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -556,15 +559,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,21 +577,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -602,8 +584,51 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,6 +642,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -624,15 +650,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,22 +689,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -676,27 +696,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -709,7 +712,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,13 +742,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,49 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,49 +862,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,49 +886,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,74 +903,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1000,6 +935,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1008,145 +1011,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1473,10 +1476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2451,16 +2454,16 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="B21">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2497,15 +2500,15 @@
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="22" ht="12" customHeight="1" spans="1:15">
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>2010</v>
+        <v>1090</v>
       </c>
       <c r="B22">
-        <v>2010</v>
+        <v>1090</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2514,10 +2517,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2526,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2541,1638 +2544,1734 @@
         <v>1</v>
       </c>
       <c r="O22" t="str">
+        <f>TextData!B21</f>
+        <v>回避アップ</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>1091</v>
+      </c>
+      <c r="B23">
+        <v>1090</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="str">
         <f>TextData!B22</f>
         <v>火傷</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23">
+    <row r="24" ht="12" customHeight="1" spans="1:15">
+      <c r="A24">
+        <v>2010</v>
+      </c>
+      <c r="B24">
+        <v>2010</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="str">
+        <f>TextData!B22</f>
+        <v>火傷</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25">
         <v>2020</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>2020</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
         <v>29</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23" t="str">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="str">
         <f>TextData!B23</f>
         <v>拘束</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24">
+    <row r="26" spans="1:15">
+      <c r="A26">
         <v>2021</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>2021</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
         <v>15</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24" t="str">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="str">
         <f>TextData!B24</f>
         <v>拘束ダメージ</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25">
+    <row r="27" spans="1:15">
+      <c r="A27">
         <v>2030</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>2030</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <v>2</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
         <v>31</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25" t="str">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="str">
         <f>TextData!B25</f>
         <v>CA</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26">
+    <row r="28" spans="1:15">
+      <c r="A28">
         <v>2031</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>2031</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
         <v>15</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26" t="str">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="str">
         <f>TextData!B26</f>
         <v>CAダメージ</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27">
+    <row r="29" spans="1:15">
+      <c r="A29">
         <v>2032</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>2032</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
         <v>15</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27" t="str">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="str">
         <f>TextData!B27</f>
         <v>CAシェル</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28">
+    <row r="30" spans="1:15">
+      <c r="A30">
         <v>2040</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>2040</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>32</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
         <v>15</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28" t="str">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="str">
         <f>TextData!B28</f>
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29">
+    <row r="31" spans="1:15">
+      <c r="A31">
         <v>2050</v>
       </c>
-      <c r="B29">
+      <c r="B31">
         <v>2050</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>4</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
         <v>34</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29" t="str">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="str">
         <f>TextData!B29</f>
         <v>攻撃無効</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30">
+    <row r="32" spans="1:15">
+      <c r="A32">
         <v>2060</v>
       </c>
-      <c r="B30">
+      <c r="B32">
         <v>2060</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>35</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
         <v>15</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30" t="str">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="str">
         <f>TextData!B30</f>
         <v>ドレイン</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31">
+    <row r="33" spans="1:15">
+      <c r="A33">
         <v>2070</v>
       </c>
-      <c r="B31">
+      <c r="B33">
         <v>2070</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>36</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
         <v>15</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31" t="str">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="str">
         <f>TextData!B31</f>
         <v>状態異常CA</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32">
+    <row r="34" spans="1:15">
+      <c r="A34">
         <v>2080</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>2080</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>37</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
         <v>15</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32" t="str">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="str">
         <f>TextData!B32</f>
         <v>プリズム</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33">
+    <row r="35" spans="1:15">
+      <c r="A35">
         <v>2090</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>2090</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>38</v>
       </c>
-      <c r="D33">
+      <c r="D35">
         <v>4</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
         <v>15</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33" t="str">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="str">
         <f>TextData!B33</f>
         <v>パッシブ無効</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34">
+    <row r="36" spans="1:15">
+      <c r="A36">
         <v>2100</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>2100</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <v>2</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
         <v>15</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34" t="str">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="str">
         <f>TextData!B34</f>
         <v>居合</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35">
+    <row r="37" spans="1:15">
+      <c r="A37">
         <v>2110</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>2110</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>40</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
         <v>15</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35" t="str">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="str">
         <f>TextData!B35</f>
         <v>高速</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36">
+    <row r="38" spans="1:15">
+      <c r="A38">
         <v>2120</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>2120</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="D36">
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
         <v>42</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>0.2</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36" t="str">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="str">
         <f>TextData!B36</f>
         <v>呪い</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37">
+    <row r="39" spans="1:15">
+      <c r="A39">
         <v>2130</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>2130</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>43</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
         <v>15</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37" t="str">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="str">
         <f>TextData!B37</f>
         <v>挑発</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38">
+    <row r="40" spans="1:15">
+      <c r="A40">
         <v>2140</v>
       </c>
-      <c r="B38">
+      <c r="B40">
         <v>2140</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>44</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <v>4</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
         <v>45</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38" t="str">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="str">
         <f>TextData!B38</f>
         <v>凍結</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39">
+    <row r="41" spans="1:15">
+      <c r="A41">
         <v>2150</v>
       </c>
-      <c r="B39">
+      <c r="B41">
         <v>2150</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>46</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <v>2</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
         <v>47</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39" t="str">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="str">
         <f>TextData!B39</f>
         <v>スタン</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40">
+    <row r="42" spans="1:15">
+      <c r="A42">
         <v>2160</v>
       </c>
-      <c r="B40">
+      <c r="B42">
         <v>2160</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>48</v>
       </c>
-      <c r="D40">
+      <c r="D42">
         <v>2</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
         <v>49</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40" t="str">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="str">
         <f>TextData!B40</f>
         <v>鈍足</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41">
+    <row r="43" spans="1:15">
+      <c r="A43">
         <v>2170</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>2170</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
         <v>51</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>0.5</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41" t="str">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="str">
         <f>TextData!B41</f>
         <v>暗闇</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42">
+    <row r="44" spans="1:15">
+      <c r="A44">
         <v>2180</v>
       </c>
-      <c r="B42">
+      <c r="B44">
         <v>2180</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>52</v>
       </c>
-      <c r="D42">
+      <c r="D44">
         <v>4</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
         <v>15</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42" t="str">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="str">
         <f>TextData!B42</f>
         <v>状態異常回避</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43">
+    <row r="45" spans="1:15">
+      <c r="A45">
         <v>2190</v>
       </c>
-      <c r="B43">
+      <c r="B45">
         <v>2190</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>53</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
         <v>15</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43" t="str">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="str">
         <f>TextData!B43</f>
         <v>対象範囲延長</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44">
+    <row r="46" spans="1:15">
+      <c r="A46">
         <v>2200</v>
       </c>
-      <c r="B44">
+      <c r="B46">
         <v>2200</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>32</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <v>2</v>
       </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
         <v>15</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44" t="str">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="str">
         <f>TextData!B44</f>
         <v>祝福</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45">
+    <row r="47" spans="1:15">
+      <c r="A47">
         <v>2210</v>
       </c>
-      <c r="B45">
+      <c r="B47">
         <v>2210</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>32</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
         <v>15</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45" t="str">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="str">
         <f>TextData!B45</f>
         <v>アフターヒール</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46">
+    <row r="48" spans="1:15">
+      <c r="A48">
         <v>2220</v>
       </c>
-      <c r="B46">
+      <c r="B48">
         <v>2220</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>14</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
         <v>15</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46" t="str">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="str">
         <f>TextData!B46</f>
         <v>即死付与</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47">
+    <row r="49" spans="1:15">
+      <c r="A49">
         <v>2230</v>
       </c>
-      <c r="B47">
+      <c r="B49">
         <v>2230</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>32</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
         <v>15</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47" t="str">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="str">
         <f>TextData!B47</f>
         <v>同時回復</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48">
+    <row r="50" spans="1:15">
+      <c r="A50">
         <v>2240</v>
       </c>
-      <c r="B48">
+      <c r="B50">
         <v>2240</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>24</v>
       </c>
-      <c r="D48">
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
         <v>15</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48" t="str">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="str">
         <f>TextData!B48</f>
         <v>必中</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49">
+    <row r="51" spans="1:15">
+      <c r="A51">
         <v>2250</v>
       </c>
-      <c r="B49">
+      <c r="B51">
         <v>2250</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>54</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
         <v>15</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49" t="str">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="str">
         <f>TextData!B49</f>
         <v>アタックヒール</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50">
+    <row r="52" spans="1:15">
+      <c r="A52">
         <v>2260</v>
       </c>
-      <c r="B50">
+      <c r="B52">
         <v>2260</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>55</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
         <v>15</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50" t="str">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="str">
         <f>TextData!B50</f>
         <v>反骨精神</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51">
+    <row r="53" spans="1:15">
+      <c r="A53">
         <v>2270</v>
       </c>
-      <c r="B51">
+      <c r="B53">
         <v>2270</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>56</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
         <v>15</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51" t="str">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="str">
         <f>TextData!B51</f>
         <v>アンデッド</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52">
+    <row r="54" spans="1:15">
+      <c r="A54">
         <v>2280</v>
       </c>
-      <c r="B52">
+      <c r="B54">
         <v>2280</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>16</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
         <v>15</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52" t="str">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="str">
         <f>TextData!B52</f>
         <v>アクセル</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53">
+    <row r="55" spans="1:15">
+      <c r="A55">
         <v>2290</v>
       </c>
-      <c r="B53">
+      <c r="B55">
         <v>2290</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>20</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
         <v>15</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53" t="str">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="str">
         <f>TextData!B53</f>
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54">
+    <row r="56" spans="1:15">
+      <c r="A56">
         <v>2300</v>
       </c>
-      <c r="B54">
+      <c r="B56">
         <v>2300</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C56" t="s">
         <v>43</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
         <v>15</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54" t="str">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="str">
         <f>TextData!B54</f>
         <v>狙われ率アップ</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
-      <c r="A55">
+    <row r="57" spans="1:15">
+      <c r="A57">
         <v>2310</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>2310</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C57" t="s">
         <v>57</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
         <v>15</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55" t="str">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="str">
         <f>TextData!B55</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56">
+    <row r="58" spans="1:15">
+      <c r="A58">
         <v>2320</v>
       </c>
-      <c r="B56">
+      <c r="B58">
         <v>2320</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
         <v>15</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56" t="str">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="str">
         <f>TextData!B55</f>
         <v>狙われ率ダウン</v>
       </c>
@@ -4189,7 +4288,7 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -4823,13 +4922,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -4874,6 +4973,14 @@
       </c>
       <c r="B6" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="176">
   <si>
     <t>Id</t>
   </si>
@@ -520,6 +520,12 @@
   </si>
   <si>
     <t>バフを解除する</t>
+  </si>
+  <si>
+    <t>貫通</t>
+  </si>
+  <si>
+    <t>攻撃時相手のDEFを無視する</t>
   </si>
   <si>
     <t>なし</t>
@@ -545,15 +551,136 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -568,129 +695,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,7 +718,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,43 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,13 +832,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,55 +874,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,43 +886,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,6 +913,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -917,6 +938,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,30 +994,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -979,30 +1009,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1011,16 +1017,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,127 +1035,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1476,10 +1482,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4272,8 +4278,56 @@
         <v>1</v>
       </c>
       <c r="O58" t="str">
-        <f>TextData!B55</f>
-        <v>狙われ率ダウン</v>
+        <f>TextData!B56</f>
+        <v>バフ解除</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59">
+        <v>2330</v>
+      </c>
+      <c r="B59">
+        <v>2330</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="str">
+        <f>TextData!B57</f>
+        <v>貫通</v>
       </c>
     </row>
   </sheetData>
@@ -4286,10 +4340,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -4911,6 +4965,17 @@
       </c>
       <c r="C56" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>2330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4940,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4948,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4956,7 +5021,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4964,7 +5029,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4972,7 +5037,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4980,7 +5045,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="178">
   <si>
     <t>Id</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>回避率\d%アップ</t>
+  </si>
+  <si>
+    <t>回避ダウン</t>
+  </si>
+  <si>
+    <t>回避率\d%ダウン</t>
   </si>
   <si>
     <t>火傷</t>
@@ -551,9 +557,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -566,7 +572,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,28 +603,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,6 +623,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -626,9 +648,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,17 +668,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,14 +678,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -703,7 +709,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,13 +724,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,19 +760,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,25 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,7 +808,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,25 +856,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +886,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,49 +904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,6 +915,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -945,23 +966,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,15 +1007,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1017,145 +1023,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1484,8 +1490,8 @@
   <sheetPr/>
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2469,7 +2475,7 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2565,7 +2571,7 @@
         <v>25</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2598,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="str">
-        <f>TextData!B22</f>
+        <f>TextData!B23</f>
         <v>火傷</v>
       </c>
     </row>
@@ -2646,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="O24" t="str">
-        <f>TextData!B22</f>
+        <f>TextData!B23</f>
         <v>火傷</v>
       </c>
     </row>
@@ -2694,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="str">
-        <f>TextData!B23</f>
+        <f>TextData!B24</f>
         <v>拘束</v>
       </c>
     </row>
@@ -2742,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="str">
-        <f>TextData!B24</f>
+        <f>TextData!B25</f>
         <v>拘束ダメージ</v>
       </c>
     </row>
@@ -2790,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="O27" t="str">
-        <f>TextData!B25</f>
+        <f>TextData!B26</f>
         <v>CA</v>
       </c>
     </row>
@@ -2838,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="str">
-        <f>TextData!B26</f>
+        <f>TextData!B27</f>
         <v>CAダメージ</v>
       </c>
     </row>
@@ -2886,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="O29" t="str">
-        <f>TextData!B27</f>
+        <f>TextData!B28</f>
         <v>CAシェル</v>
       </c>
     </row>
@@ -2934,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="str">
-        <f>TextData!B28</f>
+        <f>TextData!B29</f>
         <v>リジェネ</v>
       </c>
     </row>
@@ -2982,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="O31" t="str">
-        <f>TextData!B29</f>
+        <f>TextData!B30</f>
         <v>攻撃無効</v>
       </c>
     </row>
@@ -3030,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="O32" t="str">
-        <f>TextData!B30</f>
+        <f>TextData!B31</f>
         <v>ドレイン</v>
       </c>
     </row>
@@ -3078,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="str">
-        <f>TextData!B31</f>
+        <f>TextData!B32</f>
         <v>状態異常CA</v>
       </c>
     </row>
@@ -3126,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="O34" t="str">
-        <f>TextData!B32</f>
+        <f>TextData!B33</f>
         <v>プリズム</v>
       </c>
     </row>
@@ -3174,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="str">
-        <f>TextData!B33</f>
+        <f>TextData!B34</f>
         <v>パッシブ無効</v>
       </c>
     </row>
@@ -3222,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="O36" t="str">
-        <f>TextData!B34</f>
+        <f>TextData!B35</f>
         <v>居合</v>
       </c>
     </row>
@@ -3270,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="O37" t="str">
-        <f>TextData!B35</f>
+        <f>TextData!B36</f>
         <v>高速</v>
       </c>
     </row>
@@ -3318,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="O38" t="str">
-        <f>TextData!B36</f>
+        <f>TextData!B37</f>
         <v>呪い</v>
       </c>
     </row>
@@ -3366,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="O39" t="str">
-        <f>TextData!B37</f>
+        <f>TextData!B38</f>
         <v>挑発</v>
       </c>
     </row>
@@ -3414,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="str">
-        <f>TextData!B38</f>
+        <f>TextData!B39</f>
         <v>凍結</v>
       </c>
     </row>
@@ -3462,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="O41" t="str">
-        <f>TextData!B39</f>
+        <f>TextData!B40</f>
         <v>スタン</v>
       </c>
     </row>
@@ -3510,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="O42" t="str">
-        <f>TextData!B40</f>
+        <f>TextData!B41</f>
         <v>鈍足</v>
       </c>
     </row>
@@ -3558,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="O43" t="str">
-        <f>TextData!B41</f>
+        <f>TextData!B42</f>
         <v>暗闇</v>
       </c>
     </row>
@@ -3606,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="O44" t="str">
-        <f>TextData!B42</f>
+        <f>TextData!B43</f>
         <v>状態異常回避</v>
       </c>
     </row>
@@ -3654,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="str">
-        <f>TextData!B43</f>
+        <f>TextData!B44</f>
         <v>対象範囲延長</v>
       </c>
     </row>
@@ -3702,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="O46" t="str">
-        <f>TextData!B44</f>
+        <f>TextData!B45</f>
         <v>祝福</v>
       </c>
     </row>
@@ -3750,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="O47" t="str">
-        <f>TextData!B45</f>
+        <f>TextData!B46</f>
         <v>アフターヒール</v>
       </c>
     </row>
@@ -3798,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="O48" t="str">
-        <f>TextData!B46</f>
+        <f>TextData!B47</f>
         <v>即死付与</v>
       </c>
     </row>
@@ -3846,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="O49" t="str">
-        <f>TextData!B47</f>
+        <f>TextData!B48</f>
         <v>同時回復</v>
       </c>
     </row>
@@ -3894,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="str">
-        <f>TextData!B48</f>
+        <f>TextData!B49</f>
         <v>必中</v>
       </c>
     </row>
@@ -3942,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="O51" t="str">
-        <f>TextData!B49</f>
+        <f>TextData!B50</f>
         <v>アタックヒール</v>
       </c>
     </row>
@@ -3990,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="str">
-        <f>TextData!B50</f>
+        <f>TextData!B51</f>
         <v>反骨精神</v>
       </c>
     </row>
@@ -4038,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="O53" t="str">
-        <f>TextData!B51</f>
+        <f>TextData!B52</f>
         <v>アンデッド</v>
       </c>
     </row>
@@ -4086,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="O54" t="str">
-        <f>TextData!B52</f>
+        <f>TextData!B53</f>
         <v>アクセル</v>
       </c>
     </row>
@@ -4134,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="O55" t="str">
-        <f>TextData!B53</f>
+        <f>TextData!B54</f>
         <v>ダメージ威力アップ</v>
       </c>
     </row>
@@ -4182,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="O56" t="str">
-        <f>TextData!B54</f>
+        <f>TextData!B55</f>
         <v>狙われ率アップ</v>
       </c>
     </row>
@@ -4230,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="O57" t="str">
-        <f>TextData!B55</f>
+        <f>TextData!B56</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
@@ -4278,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="O58" t="str">
-        <f>TextData!B56</f>
+        <f>TextData!B57</f>
         <v>バフ解除</v>
       </c>
     </row>
@@ -4326,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="O59" t="str">
-        <f>TextData!B57</f>
+        <f>TextData!B58</f>
         <v>貫通</v>
       </c>
     </row>
@@ -4340,10 +4346,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -4584,7 +4590,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2010</v>
+        <v>1091</v>
       </c>
       <c r="B22" t="s">
         <v>98</v>
@@ -4595,7 +4601,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
@@ -4606,7 +4612,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B24" t="s">
         <v>102</v>
@@ -4617,7 +4623,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="B25" t="s">
         <v>104</v>
@@ -4628,7 +4634,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
@@ -4639,7 +4645,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B27" t="s">
         <v>108</v>
@@ -4650,7 +4656,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2040</v>
+        <v>2032</v>
       </c>
       <c r="B28" t="s">
         <v>110</v>
@@ -4661,7 +4667,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="B29" t="s">
         <v>112</v>
@@ -4672,7 +4678,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="B30" t="s">
         <v>114</v>
@@ -4683,7 +4689,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="B31" t="s">
         <v>116</v>
@@ -4694,7 +4700,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2080</v>
+        <v>2070</v>
       </c>
       <c r="B32" t="s">
         <v>118</v>
@@ -4705,7 +4711,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2090</v>
+        <v>2080</v>
       </c>
       <c r="B33" t="s">
         <v>120</v>
@@ -4716,7 +4722,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2100</v>
+        <v>2090</v>
       </c>
       <c r="B34" t="s">
         <v>122</v>
@@ -4727,7 +4733,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2110</v>
+        <v>2100</v>
       </c>
       <c r="B35" t="s">
         <v>124</v>
@@ -4738,7 +4744,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="B36" t="s">
         <v>126</v>
@@ -4749,7 +4755,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="B37" t="s">
         <v>128</v>
@@ -4760,7 +4766,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="B38" t="s">
         <v>130</v>
@@ -4771,7 +4777,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="B39" t="s">
         <v>132</v>
@@ -4782,7 +4788,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2160</v>
+        <v>2150</v>
       </c>
       <c r="B40" t="s">
         <v>134</v>
@@ -4793,7 +4799,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2170</v>
+        <v>2160</v>
       </c>
       <c r="B41" t="s">
         <v>136</v>
@@ -4804,7 +4810,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2180</v>
+        <v>2170</v>
       </c>
       <c r="B42" t="s">
         <v>138</v>
@@ -4815,7 +4821,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="B43" t="s">
         <v>140</v>
@@ -4826,7 +4832,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2200</v>
+        <v>2190</v>
       </c>
       <c r="B44" t="s">
         <v>142</v>
@@ -4837,7 +4843,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="B45" t="s">
         <v>144</v>
@@ -4848,7 +4854,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="B46" t="s">
         <v>146</v>
@@ -4859,7 +4865,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="B47" t="s">
         <v>148</v>
@@ -4870,7 +4876,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2240</v>
+        <v>2230</v>
       </c>
       <c r="B48" t="s">
         <v>150</v>
@@ -4881,7 +4887,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2250</v>
+        <v>2240</v>
       </c>
       <c r="B49" t="s">
         <v>152</v>
@@ -4892,7 +4898,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2260</v>
+        <v>2250</v>
       </c>
       <c r="B50" t="s">
         <v>154</v>
@@ -4903,7 +4909,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2270</v>
+        <v>2260</v>
       </c>
       <c r="B51" t="s">
         <v>156</v>
@@ -4914,7 +4920,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>2280</v>
+        <v>2270</v>
       </c>
       <c r="B52" t="s">
         <v>158</v>
@@ -4925,7 +4931,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="B53" t="s">
         <v>160</v>
@@ -4936,7 +4942,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2300</v>
+        <v>2290</v>
       </c>
       <c r="B54" t="s">
         <v>162</v>
@@ -4947,7 +4953,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="B55" t="s">
         <v>164</v>
@@ -4958,7 +4964,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="B56" t="s">
         <v>166</v>
@@ -4969,13 +4975,24 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>2330</v>
+        <v>2320</v>
       </c>
       <c r="B57" t="s">
         <v>168</v>
       </c>
       <c r="C57" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>2330</v>
+      </c>
+      <c r="B58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5005,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5013,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5021,7 +5038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5029,7 +5046,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5037,7 +5054,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5045,7 +5062,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="182">
   <si>
     <t>Id</t>
   </si>
@@ -532,6 +532,18 @@
   </si>
   <si>
     <t>攻撃時相手のDEFを無視する</t>
+  </si>
+  <si>
+    <t>対象列化</t>
+  </si>
+  <si>
+    <t>単体の効果対象が列になる</t>
+  </si>
+  <si>
+    <t>対象全体化</t>
+  </si>
+  <si>
+    <t>効果対象が全体になる</t>
   </si>
   <si>
     <t>なし</t>
@@ -557,10 +569,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -568,20 +580,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -594,15 +592,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,9 +605,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,7 +630,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,8 +674,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,10 +705,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,24 +720,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,31 +736,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,73 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,13 +808,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +862,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,19 +904,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,6 +945,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -944,30 +971,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,17 +993,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,145 +1035,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1488,10 +1500,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4336,6 +4348,102 @@
         <v>貫通</v>
       </c>
     </row>
+    <row r="60" spans="1:15">
+      <c r="A60">
+        <v>2340</v>
+      </c>
+      <c r="B60">
+        <v>2340</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="str">
+        <f>TextData!B59</f>
+        <v>対象列化</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61">
+        <v>2341</v>
+      </c>
+      <c r="B61">
+        <v>2341</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="str">
+        <f>TextData!B60</f>
+        <v>対象全体化</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4346,10 +4454,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -4993,6 +5101,28 @@
       </c>
       <c r="C58" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>2340</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>2341</v>
+      </c>
+      <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5022,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5030,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5038,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5046,7 +5176,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5054,7 +5184,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5062,7 +5192,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="186">
   <si>
     <t>Id</t>
   </si>
@@ -318,6 +318,12 @@
     <t>回避率\d%ダウン</t>
   </si>
   <si>
+    <t>ダメージカット</t>
+  </si>
+  <si>
+    <t>被ダメージを\d%カットする</t>
+  </si>
+  <si>
     <t>火傷</t>
   </si>
   <si>
@@ -544,6 +550,12 @@
   </si>
   <si>
     <t>効果対象が全体になる</t>
+  </si>
+  <si>
+    <t>聖棺</t>
+  </si>
+  <si>
+    <t>被ダメージアップ</t>
   </si>
   <si>
     <t>なし</t>
@@ -569,10 +581,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -583,23 +595,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,9 +610,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,51 +629,6 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -689,8 +647,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,7 +665,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,10 +694,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -736,19 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +760,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,19 +820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,19 +850,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,43 +880,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,19 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,13 +916,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,21 +939,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -956,6 +953,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,8 +990,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,35 +1022,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,145 +1047,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1500,10 +1512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2616,19 +2628,19 @@
         <v>1</v>
       </c>
       <c r="O23" t="str">
-        <f>TextData!B23</f>
-        <v>火傷</v>
-      </c>
-    </row>
-    <row r="24" ht="12" customHeight="1" spans="1:15">
+        <f>TextData!B22</f>
+        <v>回避ダウン</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>2010</v>
+        <v>1100</v>
       </c>
       <c r="B24">
-        <v>2010</v>
+        <v>1100</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2637,10 +2649,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2649,13 +2661,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2665,27 +2677,27 @@
       </c>
       <c r="O24" t="str">
         <f>TextData!B23</f>
-        <v>火傷</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>ダメージカット</v>
+      </c>
+    </row>
+    <row r="25" ht="12" customHeight="1" spans="1:15">
       <c r="A25">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="B25">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2713,30 +2725,30 @@
       </c>
       <c r="O25" t="str">
         <f>TextData!B24</f>
-        <v>拘束</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>火傷</v>
+      </c>
+    </row>
+    <row r="26" ht="12" customHeight="1" spans="1:15">
       <c r="A26">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="B26">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2748,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2761,30 +2773,30 @@
       </c>
       <c r="O26" t="str">
         <f>TextData!B25</f>
-        <v>拘束ダメージ</v>
+        <v>拘束</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="B27">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2796,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2808,22 +2820,22 @@
         <v>1</v>
       </c>
       <c r="O27" t="str">
-        <f>TextData!B26</f>
-        <v>CA</v>
+        <f>TextData!B25</f>
+        <v>拘束</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28">
-        <v>2031</v>
+        <v>2021</v>
       </c>
       <c r="B28">
-        <v>2031</v>
+        <v>2021</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2856,28 +2868,28 @@
         <v>1</v>
       </c>
       <c r="O28" t="str">
-        <f>TextData!B27</f>
-        <v>CAダメージ</v>
+        <f>TextData!B26</f>
+        <v>拘束ダメージ</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="B29">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2904,19 +2916,19 @@
         <v>1</v>
       </c>
       <c r="O29" t="str">
-        <f>TextData!B28</f>
-        <v>CAシェル</v>
+        <f>TextData!B27</f>
+        <v>CA</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30">
-        <v>2040</v>
+        <v>2031</v>
       </c>
       <c r="B30">
-        <v>2040</v>
+        <v>2031</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2952,28 +2964,28 @@
         <v>1</v>
       </c>
       <c r="O30" t="str">
-        <f>TextData!B29</f>
-        <v>リジェネ</v>
+        <f>TextData!B28</f>
+        <v>CAダメージ</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31">
-        <v>2050</v>
+        <v>2032</v>
       </c>
       <c r="B31">
-        <v>2050</v>
+        <v>2032</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3000,19 +3012,19 @@
         <v>1</v>
       </c>
       <c r="O31" t="str">
-        <f>TextData!B30</f>
-        <v>攻撃無効</v>
+        <f>TextData!B29</f>
+        <v>CAシェル</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32">
-        <v>2060</v>
+        <v>2040</v>
       </c>
       <c r="B32">
-        <v>2060</v>
+        <v>2040</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3048,28 +3060,28 @@
         <v>1</v>
       </c>
       <c r="O32" t="str">
-        <f>TextData!B31</f>
-        <v>ドレイン</v>
+        <f>TextData!B30</f>
+        <v>リジェネ</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="B33">
-        <v>2070</v>
+        <v>2050</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3096,19 +3108,19 @@
         <v>1</v>
       </c>
       <c r="O33" t="str">
-        <f>TextData!B32</f>
-        <v>状態異常CA</v>
+        <f>TextData!B31</f>
+        <v>攻撃無効</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34">
-        <v>2080</v>
+        <v>2060</v>
       </c>
       <c r="B34">
-        <v>2080</v>
+        <v>2060</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3126,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3144,22 +3156,22 @@
         <v>1</v>
       </c>
       <c r="O34" t="str">
-        <f>TextData!B33</f>
-        <v>プリズム</v>
+        <f>TextData!B32</f>
+        <v>ドレイン</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35">
-        <v>2090</v>
+        <v>2070</v>
       </c>
       <c r="B35">
-        <v>2090</v>
+        <v>2070</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3183,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -3192,25 +3204,25 @@
         <v>1</v>
       </c>
       <c r="O35" t="str">
-        <f>TextData!B34</f>
-        <v>パッシブ無効</v>
+        <f>TextData!B33</f>
+        <v>状態異常CA</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36">
-        <v>2100</v>
+        <v>2080</v>
       </c>
       <c r="B36">
-        <v>2100</v>
+        <v>2080</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
@@ -3222,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3240,22 +3252,22 @@
         <v>1</v>
       </c>
       <c r="O36" t="str">
-        <f>TextData!B35</f>
-        <v>居合</v>
+        <f>TextData!B34</f>
+        <v>プリズム</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37">
-        <v>2110</v>
+        <v>2090</v>
       </c>
       <c r="B37">
-        <v>2110</v>
+        <v>2090</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3279,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3288,34 +3300,34 @@
         <v>1</v>
       </c>
       <c r="O37" t="str">
-        <f>TextData!B36</f>
-        <v>高速</v>
+        <f>TextData!B35</f>
+        <v>パッシブ無効</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38">
-        <v>2120</v>
+        <v>2100</v>
       </c>
       <c r="B38">
-        <v>2120</v>
+        <v>2100</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3324,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -3336,19 +3348,19 @@
         <v>1</v>
       </c>
       <c r="O38" t="str">
-        <f>TextData!B37</f>
-        <v>呪い</v>
+        <f>TextData!B36</f>
+        <v>居合</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39">
-        <v>2130</v>
+        <v>2110</v>
       </c>
       <c r="B39">
-        <v>2130</v>
+        <v>2110</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3375,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3384,19 +3396,19 @@
         <v>1</v>
       </c>
       <c r="O39" t="str">
-        <f>TextData!B38</f>
-        <v>挑発</v>
+        <f>TextData!B37</f>
+        <v>高速</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40">
-        <v>2140</v>
+        <v>2120</v>
       </c>
       <c r="B40">
-        <v>2140</v>
+        <v>2120</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -3405,13 +3417,13 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3432,28 +3444,28 @@
         <v>1</v>
       </c>
       <c r="O40" t="str">
-        <f>TextData!B39</f>
-        <v>凍結</v>
+        <f>TextData!B38</f>
+        <v>呪い</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41">
-        <v>2150</v>
+        <v>2130</v>
       </c>
       <c r="B41">
-        <v>2150</v>
+        <v>2130</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3468,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -3480,28 +3492,28 @@
         <v>1</v>
       </c>
       <c r="O41" t="str">
-        <f>TextData!B40</f>
-        <v>スタン</v>
+        <f>TextData!B39</f>
+        <v>挑発</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42">
-        <v>2160</v>
+        <v>2140</v>
       </c>
       <c r="B42">
-        <v>2160</v>
+        <v>2140</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3528,34 +3540,34 @@
         <v>1</v>
       </c>
       <c r="O42" t="str">
-        <f>TextData!B41</f>
-        <v>鈍足</v>
+        <f>TextData!B40</f>
+        <v>凍結</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43">
-        <v>2170</v>
+        <v>2150</v>
       </c>
       <c r="B43">
-        <v>2170</v>
+        <v>2150</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3576,28 +3588,28 @@
         <v>1</v>
       </c>
       <c r="O43" t="str">
-        <f>TextData!B42</f>
-        <v>暗闇</v>
+        <f>TextData!B41</f>
+        <v>スタン</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44">
-        <v>2180</v>
+        <v>2160</v>
       </c>
       <c r="B44">
-        <v>2180</v>
+        <v>2160</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3612,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3624,19 +3636,19 @@
         <v>1</v>
       </c>
       <c r="O44" t="str">
-        <f>TextData!B43</f>
-        <v>状態異常回避</v>
+        <f>TextData!B42</f>
+        <v>鈍足</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45">
-        <v>2190</v>
+        <v>2170</v>
       </c>
       <c r="B45">
-        <v>2190</v>
+        <v>2170</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3645,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3660,37 +3672,37 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="str">
-        <f>TextData!B44</f>
-        <v>対象範囲延長</v>
+        <f>TextData!B43</f>
+        <v>暗闇</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46">
-        <v>2200</v>
+        <v>2180</v>
       </c>
       <c r="B46">
-        <v>2200</v>
+        <v>2180</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
@@ -3720,25 +3732,25 @@
         <v>1</v>
       </c>
       <c r="O46" t="str">
-        <f>TextData!B45</f>
-        <v>祝福</v>
+        <f>TextData!B44</f>
+        <v>状態異常回避</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47">
-        <v>2210</v>
+        <v>2190</v>
       </c>
       <c r="B47">
-        <v>2210</v>
+        <v>2190</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
@@ -3765,28 +3777,28 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="str">
-        <f>TextData!B46</f>
-        <v>アフターヒール</v>
+        <f>TextData!B45</f>
+        <v>対象範囲延長</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48">
-        <v>2220</v>
+        <v>2200</v>
       </c>
       <c r="B48">
-        <v>2220</v>
+        <v>2200</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
@@ -3804,10 +3816,10 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3816,22 +3828,22 @@
         <v>1</v>
       </c>
       <c r="O48" t="str">
-        <f>TextData!B47</f>
-        <v>即死付与</v>
+        <f>TextData!B46</f>
+        <v>祝福</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49">
-        <v>2230</v>
+        <v>2210</v>
       </c>
       <c r="B49">
-        <v>2230</v>
+        <v>2210</v>
       </c>
       <c r="C49" t="s">
         <v>32</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3864,22 +3876,22 @@
         <v>1</v>
       </c>
       <c r="O49" t="str">
-        <f>TextData!B48</f>
-        <v>同時回復</v>
+        <f>TextData!B47</f>
+        <v>アフターヒール</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50">
-        <v>2240</v>
+        <v>2220</v>
       </c>
       <c r="B50">
-        <v>2240</v>
+        <v>2220</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3900,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3912,25 +3924,25 @@
         <v>1</v>
       </c>
       <c r="O50" t="str">
-        <f>TextData!B49</f>
-        <v>必中</v>
+        <f>TextData!B48</f>
+        <v>即死付与</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51">
-        <v>2250</v>
+        <v>2230</v>
       </c>
       <c r="B51">
-        <v>2250</v>
+        <v>2230</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>15</v>
@@ -3960,22 +3972,22 @@
         <v>1</v>
       </c>
       <c r="O51" t="str">
-        <f>TextData!B50</f>
-        <v>アタックヒール</v>
+        <f>TextData!B49</f>
+        <v>同時回復</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52">
-        <v>2260</v>
+        <v>2240</v>
       </c>
       <c r="B52">
-        <v>2260</v>
+        <v>2240</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4008,19 +4020,19 @@
         <v>1</v>
       </c>
       <c r="O52" t="str">
-        <f>TextData!B51</f>
-        <v>反骨精神</v>
+        <f>TextData!B50</f>
+        <v>必中</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53">
-        <v>2270</v>
+        <v>2250</v>
       </c>
       <c r="B53">
-        <v>2270</v>
+        <v>2250</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -4056,22 +4068,22 @@
         <v>1</v>
       </c>
       <c r="O53" t="str">
-        <f>TextData!B52</f>
-        <v>アンデッド</v>
+        <f>TextData!B51</f>
+        <v>アタックヒール</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54">
-        <v>2280</v>
+        <v>2260</v>
       </c>
       <c r="B54">
-        <v>2280</v>
+        <v>2260</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4104,25 +4116,25 @@
         <v>1</v>
       </c>
       <c r="O54" t="str">
-        <f>TextData!B53</f>
-        <v>アクセル</v>
+        <f>TextData!B52</f>
+        <v>反骨精神</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55">
-        <v>2290</v>
+        <v>2270</v>
       </c>
       <c r="B55">
-        <v>2290</v>
+        <v>2270</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
         <v>15</v>
@@ -4134,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4152,25 +4164,25 @@
         <v>1</v>
       </c>
       <c r="O55" t="str">
-        <f>TextData!B54</f>
-        <v>ダメージ威力アップ</v>
+        <f>TextData!B53</f>
+        <v>アンデッド</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56">
-        <v>2300</v>
+        <v>2280</v>
       </c>
       <c r="B56">
-        <v>2300</v>
+        <v>2280</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
         <v>15</v>
@@ -4200,19 +4212,19 @@
         <v>1</v>
       </c>
       <c r="O56" t="str">
-        <f>TextData!B55</f>
-        <v>狙われ率アップ</v>
+        <f>TextData!B54</f>
+        <v>アクセル</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57">
-        <v>2310</v>
+        <v>2290</v>
       </c>
       <c r="B57">
-        <v>2310</v>
+        <v>2290</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -4230,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -4248,22 +4260,22 @@
         <v>1</v>
       </c>
       <c r="O57" t="str">
-        <f>TextData!B56</f>
-        <v>狙われ率ダウン</v>
+        <f>TextData!B55</f>
+        <v>ダメージ威力アップ</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58">
-        <v>2320</v>
+        <v>2300</v>
       </c>
       <c r="B58">
-        <v>2320</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
+        <v>2300</v>
+      </c>
+      <c r="C58" t="s">
+        <v>43</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4296,19 +4308,19 @@
         <v>1</v>
       </c>
       <c r="O58" t="str">
-        <f>TextData!B57</f>
-        <v>バフ解除</v>
+        <f>TextData!B56</f>
+        <v>狙われ率アップ</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59">
-        <v>2330</v>
+        <v>2310</v>
       </c>
       <c r="B59">
-        <v>2330</v>
+        <v>2310</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -4329,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -4344,22 +4356,22 @@
         <v>1</v>
       </c>
       <c r="O59" t="str">
-        <f>TextData!B58</f>
-        <v>貫通</v>
+        <f>TextData!B57</f>
+        <v>狙われ率ダウン</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60">
-        <v>2340</v>
+        <v>2320</v>
       </c>
       <c r="B60">
-        <v>2340</v>
-      </c>
-      <c r="C60" t="s">
-        <v>20</v>
+        <v>2320</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4377,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -4392,16 +4404,16 @@
         <v>1</v>
       </c>
       <c r="O60" t="str">
-        <f>TextData!B59</f>
-        <v>対象列化</v>
+        <f>TextData!B58</f>
+        <v>バフ解除</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61">
-        <v>2341</v>
+        <v>2330</v>
       </c>
       <c r="B61">
-        <v>2341</v>
+        <v>2330</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -4440,8 +4452,152 @@
         <v>1</v>
       </c>
       <c r="O61" t="str">
+        <f>TextData!B59</f>
+        <v>貫通</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62">
+        <v>2340</v>
+      </c>
+      <c r="B62">
+        <v>2340</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="str">
         <f>TextData!B60</f>
+        <v>対象列化</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63">
+        <v>2341</v>
+      </c>
+      <c r="B63">
+        <v>2341</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="str">
+        <f>TextData!B61</f>
         <v>対象全体化</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64">
+        <v>2350</v>
+      </c>
+      <c r="B64">
+        <v>2350</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="str">
+        <f>TextData!B62</f>
+        <v>聖棺</v>
       </c>
     </row>
   </sheetData>
@@ -4454,10 +4610,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -4709,7 +4865,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2010</v>
+        <v>1100</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
@@ -4720,7 +4876,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="B24" t="s">
         <v>102</v>
@@ -4731,7 +4887,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B25" t="s">
         <v>104</v>
@@ -4742,7 +4898,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
@@ -4753,7 +4909,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B27" t="s">
         <v>108</v>
@@ -4764,7 +4920,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B28" t="s">
         <v>110</v>
@@ -4775,7 +4931,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2040</v>
+        <v>2032</v>
       </c>
       <c r="B29" t="s">
         <v>112</v>
@@ -4786,7 +4942,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="B30" t="s">
         <v>114</v>
@@ -4797,7 +4953,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="B31" t="s">
         <v>116</v>
@@ -4808,7 +4964,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="B32" t="s">
         <v>118</v>
@@ -4819,7 +4975,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2080</v>
+        <v>2070</v>
       </c>
       <c r="B33" t="s">
         <v>120</v>
@@ -4830,7 +4986,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2090</v>
+        <v>2080</v>
       </c>
       <c r="B34" t="s">
         <v>122</v>
@@ -4841,7 +4997,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2100</v>
+        <v>2090</v>
       </c>
       <c r="B35" t="s">
         <v>124</v>
@@ -4852,7 +5008,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2110</v>
+        <v>2100</v>
       </c>
       <c r="B36" t="s">
         <v>126</v>
@@ -4863,7 +5019,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="B37" t="s">
         <v>128</v>
@@ -4874,7 +5030,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="B38" t="s">
         <v>130</v>
@@ -4885,7 +5041,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="B39" t="s">
         <v>132</v>
@@ -4896,7 +5052,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="B40" t="s">
         <v>134</v>
@@ -4907,7 +5063,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2160</v>
+        <v>2150</v>
       </c>
       <c r="B41" t="s">
         <v>136</v>
@@ -4918,7 +5074,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2170</v>
+        <v>2160</v>
       </c>
       <c r="B42" t="s">
         <v>138</v>
@@ -4929,7 +5085,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2180</v>
+        <v>2170</v>
       </c>
       <c r="B43" t="s">
         <v>140</v>
@@ -4940,7 +5096,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="B44" t="s">
         <v>142</v>
@@ -4951,7 +5107,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>2200</v>
+        <v>2190</v>
       </c>
       <c r="B45" t="s">
         <v>144</v>
@@ -4962,7 +5118,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="B46" t="s">
         <v>146</v>
@@ -4973,7 +5129,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="B47" t="s">
         <v>148</v>
@@ -4984,7 +5140,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="B48" t="s">
         <v>150</v>
@@ -4995,7 +5151,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2240</v>
+        <v>2230</v>
       </c>
       <c r="B49" t="s">
         <v>152</v>
@@ -5006,7 +5162,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2250</v>
+        <v>2240</v>
       </c>
       <c r="B50" t="s">
         <v>154</v>
@@ -5017,7 +5173,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2260</v>
+        <v>2250</v>
       </c>
       <c r="B51" t="s">
         <v>156</v>
@@ -5028,7 +5184,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>2270</v>
+        <v>2260</v>
       </c>
       <c r="B52" t="s">
         <v>158</v>
@@ -5039,7 +5195,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2280</v>
+        <v>2270</v>
       </c>
       <c r="B53" t="s">
         <v>160</v>
@@ -5050,7 +5206,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="B54" t="s">
         <v>162</v>
@@ -5061,7 +5217,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>2300</v>
+        <v>2290</v>
       </c>
       <c r="B55" t="s">
         <v>164</v>
@@ -5072,7 +5228,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="B56" t="s">
         <v>166</v>
@@ -5083,7 +5239,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="B57" t="s">
         <v>168</v>
@@ -5094,7 +5250,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>2330</v>
+        <v>2320</v>
       </c>
       <c r="B58" t="s">
         <v>170</v>
@@ -5105,7 +5261,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="B59" t="s">
         <v>172</v>
@@ -5116,13 +5272,35 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B60" t="s">
         <v>174</v>
       </c>
       <c r="C60" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>2341</v>
+      </c>
+      <c r="B61" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>2350</v>
+      </c>
+      <c r="B62" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5152,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5160,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5168,7 +5346,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5176,7 +5354,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5184,7 +5362,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5192,7 +5370,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="States" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="190">
   <si>
     <t>Id</t>
   </si>
@@ -556,6 +556,18 @@
   </si>
   <si>
     <t>被ダメージアップ</t>
+  </si>
+  <si>
+    <t>追加ダメージ</t>
+  </si>
+  <si>
+    <t>消費Mpが0のMagicに追加ダメージ</t>
+  </si>
+  <si>
+    <t>追加効果</t>
+  </si>
+  <si>
+    <t>消費Mpが0のMagicに追加効果</t>
   </si>
   <si>
     <t>なし</t>
@@ -581,10 +593,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -596,7 +608,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,30 +668,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,22 +690,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -672,22 +697,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -702,30 +712,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,6 +726,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -748,7 +760,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +802,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,19 +856,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,19 +904,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,109 +940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,6 +951,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -957,17 +984,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,16 +1018,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,15 +1051,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1047,19 +1059,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1068,124 +1080,124 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1512,10 +1524,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4581,10 +4593,10 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -4598,6 +4610,102 @@
       <c r="O64" t="str">
         <f>TextData!B62</f>
         <v>聖棺</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65">
+        <v>2360</v>
+      </c>
+      <c r="B65">
+        <v>2360</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="str">
+        <f>TextData!B63</f>
+        <v>追加ダメージ</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66">
+        <v>2370</v>
+      </c>
+      <c r="B66">
+        <v>2370</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="str">
+        <f>TextData!B64</f>
+        <v>追加効果</v>
       </c>
     </row>
   </sheetData>
@@ -4610,10 +4718,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -5301,6 +5409,28 @@
       </c>
       <c r="C62" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>2360</v>
+      </c>
+      <c r="B63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>2370</v>
+      </c>
+      <c r="B64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5330,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5338,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5346,7 +5476,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5354,7 +5484,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5362,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5370,7 +5500,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="194">
   <si>
     <t>Id</t>
   </si>
@@ -568,6 +568,18 @@
   </si>
   <si>
     <t>消費Mpが0のMagicに追加効果</t>
+  </si>
+  <si>
+    <t>透明</t>
+  </si>
+  <si>
+    <t>狙われなくなる</t>
+  </si>
+  <si>
+    <t>沈黙</t>
+  </si>
+  <si>
+    <t>消費Mp0以外のMagic使用不可</t>
   </si>
   <si>
     <t>なし</t>
@@ -593,10 +605,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -608,21 +620,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,22 +635,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,23 +649,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,6 +665,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -704,40 +732,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,7 +749,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,13 +772,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,133 +844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,13 +868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,7 +886,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,16 +967,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,24 +998,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,6 +1012,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,22 +1049,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,145 +1071,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1524,10 +1536,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68:L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4708,6 +4720,102 @@
         <v>追加効果</v>
       </c>
     </row>
+    <row r="67" spans="1:15">
+      <c r="A67">
+        <v>2380</v>
+      </c>
+      <c r="B67">
+        <v>2380</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="str">
+        <f>TextData!B65</f>
+        <v>透明</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68">
+        <v>2390</v>
+      </c>
+      <c r="B68">
+        <v>2390</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="str">
+        <f>TextData!B66</f>
+        <v>沈黙</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4718,10 +4826,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -5431,6 +5539,28 @@
       </c>
       <c r="C64" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>2380</v>
+      </c>
+      <c r="B65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>2390</v>
+      </c>
+      <c r="B66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -5460,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5468,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5476,7 +5606,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5484,7 +5614,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5492,7 +5622,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5500,7 +5630,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -605,10 +605,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -619,8 +619,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,6 +653,57 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,52 +726,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,16 +739,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -725,23 +748,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,15 +757,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,7 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,7 +784,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,13 +826,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,61 +886,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,19 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,19 +922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,19 +934,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,6 +963,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -996,44 +1029,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1049,17 +1044,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,145 +1071,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1536,97 +1536,98 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68:L68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
-    <col min="3" max="3" width="15.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="14.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="31.1818181818182" customWidth="1"/>
-    <col min="7" max="8" width="13.9090909090909" customWidth="1"/>
-    <col min="9" max="9" width="5.72727272727273" customWidth="1"/>
-    <col min="10" max="10" width="8.54545454545454" customWidth="1"/>
-    <col min="11" max="12" width="11.2727272727273" customWidth="1"/>
-    <col min="13" max="13" width="16.7272727272727" customWidth="1"/>
-    <col min="14" max="14" width="5.72727272727273" customWidth="1"/>
+    <col min="4" max="4" width="15.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="14.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="31.1818181818182" customWidth="1"/>
+    <col min="8" max="9" width="13.9090909090909" customWidth="1"/>
+    <col min="10" max="10" width="5.72727272727273" customWidth="1"/>
+    <col min="11" max="11" width="8.54545454545454" customWidth="1"/>
+    <col min="12" max="13" width="11.2727272727273" customWidth="1"/>
+    <col min="14" max="14" width="16.7272727272727" customWidth="1"/>
+    <col min="15" max="15" width="5.72727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B2,TextData!A:A))</f>
+        <v>戦闘不能</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1643,38 +1644,42 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
         <f>TextData!C2</f>
         <v>""</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B3,TextData!A:A))</f>
+        <v>待機</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1689,40 +1694,44 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="str">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="str">
         <f>TextData!B3</f>
         <v>待機</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>201</v>
       </c>
       <c r="B4">
         <v>201</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B4,TextData!A:A))</f>
+        <v>炎適正</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1739,38 +1748,42 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" t="str">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="str">
         <f>TextData!B4</f>
         <v>炎適正</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>202</v>
       </c>
       <c r="B5">
         <v>202</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B5,TextData!A:A))</f>
+        <v>雷適性</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1787,38 +1800,42 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5" t="str">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="str">
         <f>TextData!B5</f>
         <v>雷適性</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>203</v>
       </c>
       <c r="B6">
         <v>203</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B6,TextData!A:A))</f>
+        <v>氷適性</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1835,38 +1852,42 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" t="str">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="str">
         <f>TextData!B6</f>
         <v>氷適性</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>204</v>
       </c>
       <c r="B7">
         <v>204</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B7,TextData!A:A))</f>
+        <v>光適性</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1883,38 +1904,42 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7" t="str">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="str">
         <f>TextData!B7</f>
         <v>光適性</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>205</v>
       </c>
       <c r="B8">
         <v>205</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B8,TextData!A:A))</f>
+        <v>闇適性</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1931,38 +1956,42 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8" t="str">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="str">
         <f>TextData!B8</f>
         <v>闇適性</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>1010</v>
       </c>
       <c r="B9">
         <v>1010</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B9,TextData!A:A))</f>
+        <v>神化</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1977,40 +2006,44 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="str">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="str">
         <f>TextData!B9</f>
         <v>神化</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>1011</v>
       </c>
       <c r="B10">
         <v>1011</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B10,TextData!A:A))</f>
+        <v>全ステータスアップ</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2025,46 +2058,50 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="str">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="str">
         <f>TextData!B10</f>
         <v>全ステータスアップ</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>1020</v>
       </c>
       <c r="B11">
         <v>1020</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B11,TextData!A:A))</f>
+        <v>最大Hpアップ</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2073,46 +2110,50 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" t="str">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="str">
         <f>TextData!B11</f>
         <v>最大Hpアップ</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>1030</v>
       </c>
       <c r="B12">
         <v>1030</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B12,TextData!A:A))</f>
+        <v>最大Mpアップ</v>
+      </c>
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2121,46 +2162,50 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12" t="str">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="str">
         <f>TextData!B12</f>
         <v>最大Mpアップ</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>1040</v>
       </c>
       <c r="B13">
         <v>1040</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B13,TextData!A:A))</f>
+        <v>攻撃アップ</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2169,40 +2214,44 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13" t="str">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="str">
         <f>TextData!B13</f>
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>1041</v>
       </c>
       <c r="B14">
         <v>1041</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B14,TextData!A:A))</f>
+        <v>攻撃ダウン</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>15</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2217,46 +2266,50 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" t="str">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="str">
         <f>TextData!B14</f>
         <v>攻撃ダウン</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>1050</v>
       </c>
       <c r="B15">
         <v>1050</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B15,TextData!A:A))</f>
+        <v>防御アップ</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>15</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2265,40 +2318,44 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15" t="str">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="str">
         <f>TextData!B15</f>
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>1051</v>
       </c>
       <c r="B16">
         <v>1051</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B16,TextData!A:A))</f>
+        <v>防御ダウン</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2313,40 +2370,44 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16" t="str">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="str">
         <f>TextData!B16</f>
         <v>防御ダウン</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>1052</v>
       </c>
       <c r="B17">
         <v>1052</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B17,TextData!A:A))</f>
+        <v>防御ブレイク</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2361,46 +2422,50 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17" t="str">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="str">
         <f>TextData!B17</f>
         <v>防御ブレイク</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>1060</v>
       </c>
       <c r="B18">
         <v>1060</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B18,TextData!A:A))</f>
+        <v>速度アップ</v>
+      </c>
+      <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
         <v>15</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2409,46 +2474,50 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18" t="str">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="str">
         <f>TextData!B18</f>
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>1070</v>
       </c>
       <c r="B19">
         <v>1070</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B19,TextData!A:A))</f>
+        <v>致命攻撃発生率アップ</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2457,46 +2526,50 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19" t="str">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="str">
         <f>TextData!B19</f>
         <v>致命攻撃発生率アップ</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>1080</v>
       </c>
       <c r="B20">
         <v>1080</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B20,TextData!A:A))</f>
+        <v>命中アップ</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>15</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2505,46 +2578,50 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20" t="str">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="str">
         <f>TextData!B20</f>
         <v>命中アップ</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>1081</v>
       </c>
       <c r="B21">
         <v>1080</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B21,TextData!A:A))</f>
+        <v>命中アップ</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2553,46 +2630,50 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21" t="str">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="str">
         <f>TextData!B21</f>
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>1090</v>
       </c>
       <c r="B22">
         <v>1090</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B22,TextData!A:A))</f>
+        <v>回避アップ</v>
+      </c>
+      <c r="D22" t="s">
         <v>25</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2601,46 +2682,50 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22" t="str">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="str">
         <f>TextData!B21</f>
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>1091</v>
       </c>
       <c r="B23">
         <v>1090</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B23,TextData!A:A))</f>
+        <v>回避アップ</v>
+      </c>
+      <c r="D23" t="s">
         <v>25</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>15</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2649,46 +2734,50 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23" t="str">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="str">
         <f>TextData!B22</f>
         <v>回避ダウン</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>1100</v>
       </c>
       <c r="B24">
         <v>1100</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B24,TextData!A:A))</f>
+        <v>ダメージカット</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2697,184 +2786,200 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24" t="str">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="str">
         <f>TextData!B23</f>
         <v>ダメージカット</v>
       </c>
     </row>
-    <row r="25" ht="12" customHeight="1" spans="1:15">
+    <row r="25" ht="12" customHeight="1" spans="1:16">
       <c r="A25">
         <v>2010</v>
       </c>
       <c r="B25">
         <v>2010</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B25,TextData!A:A))</f>
+        <v>火傷</v>
+      </c>
+      <c r="D25" t="s">
         <v>26</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>27</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25" t="str">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="str">
         <f>TextData!B24</f>
         <v>火傷</v>
       </c>
     </row>
-    <row r="26" ht="12" customHeight="1" spans="1:15">
+    <row r="26" ht="12" customHeight="1" spans="1:16">
       <c r="A26">
         <v>2011</v>
       </c>
       <c r="B26">
         <v>2010</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B26,TextData!A:A))</f>
+        <v>火傷</v>
+      </c>
+      <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>27</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26" t="str">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="str">
         <f>TextData!B25</f>
         <v>拘束</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>2020</v>
       </c>
       <c r="B27">
         <v>2020</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B27,TextData!A:A))</f>
+        <v>拘束</v>
+      </c>
+      <c r="D27" t="s">
         <v>28</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>3</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
         <v>29</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27" t="str">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="str">
         <f>TextData!B25</f>
         <v>拘束</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>2021</v>
       </c>
       <c r="B28">
         <v>2021</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B28,TextData!A:A))</f>
+        <v>拘束ダメージ</v>
+      </c>
+      <c r="D28" t="s">
         <v>28</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
       <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
         <v>15</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2889,40 +2994,44 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28" t="str">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="str">
         <f>TextData!B26</f>
         <v>拘束ダメージ</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>2030</v>
       </c>
       <c r="B29">
         <v>2030</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B29,TextData!A:A))</f>
+        <v>CA</v>
+      </c>
+      <c r="D29" t="s">
         <v>30</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
         <v>31</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2937,40 +3046,44 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29" t="str">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="str">
         <f>TextData!B27</f>
         <v>CA</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>2031</v>
       </c>
       <c r="B30">
         <v>2031</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B30,TextData!A:A))</f>
+        <v>CAダメージ</v>
+      </c>
+      <c r="D30" t="s">
         <v>30</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
         <v>15</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2985,40 +3098,44 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30" t="str">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="str">
         <f>TextData!B28</f>
         <v>CAダメージ</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>2032</v>
       </c>
       <c r="B31">
         <v>2032</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B31,TextData!A:A))</f>
+        <v>CAシェル</v>
+      </c>
+      <c r="D31" t="s">
         <v>32</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
       <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3033,40 +3150,44 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31" t="str">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="str">
         <f>TextData!B29</f>
         <v>CAシェル</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>2040</v>
       </c>
       <c r="B32">
         <v>2040</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B32,TextData!A:A))</f>
+        <v>リジェネ</v>
+      </c>
+      <c r="D32" t="s">
         <v>32</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3081,40 +3202,44 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32" t="str">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="str">
         <f>TextData!B30</f>
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>2050</v>
       </c>
       <c r="B33">
         <v>2050</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B33,TextData!A:A))</f>
+        <v>攻撃無効</v>
+      </c>
+      <c r="D33" t="s">
         <v>33</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
         <v>34</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3129,40 +3254,44 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33" t="str">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="str">
         <f>TextData!B31</f>
         <v>攻撃無効</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>2060</v>
       </c>
       <c r="B34">
         <v>2060</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B34,TextData!A:A))</f>
+        <v>ドレイン</v>
+      </c>
+      <c r="D34" t="s">
         <v>35</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3177,40 +3306,44 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34" t="str">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="str">
         <f>TextData!B32</f>
         <v>ドレイン</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>2070</v>
       </c>
       <c r="B35">
         <v>2070</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B35,TextData!A:A))</f>
+        <v>状態異常CA</v>
+      </c>
+      <c r="D35" t="s">
         <v>36</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3225,43 +3358,47 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35" t="str">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="str">
         <f>TextData!B33</f>
         <v>状態異常CA</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>2080</v>
       </c>
       <c r="B36">
         <v>2080</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B36,TextData!A:A))</f>
+        <v>プリズム</v>
+      </c>
+      <c r="D36" t="s">
         <v>37</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
         <v>15</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3273,40 +3410,44 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36" t="str">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="str">
         <f>TextData!B34</f>
         <v>プリズム</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>2090</v>
       </c>
       <c r="B37">
         <v>2090</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B37,TextData!A:A))</f>
+        <v>パッシブ無効</v>
+      </c>
+      <c r="D37" t="s">
         <v>38</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>4</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3315,46 +3456,50 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37" t="str">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="str">
         <f>TextData!B35</f>
         <v>パッシブ無効</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>2100</v>
       </c>
       <c r="B38">
         <v>2100</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B38,TextData!A:A))</f>
+        <v>居合</v>
+      </c>
+      <c r="D38" t="s">
         <v>39</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3369,40 +3514,44 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38" t="str">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="str">
         <f>TextData!B36</f>
         <v>居合</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>2110</v>
       </c>
       <c r="B39">
         <v>2110</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B39,TextData!A:A))</f>
+        <v>高速</v>
+      </c>
+      <c r="D39" t="s">
         <v>40</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
       <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3417,88 +3566,96 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39" t="str">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="str">
         <f>TextData!B37</f>
         <v>高速</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>2120</v>
       </c>
       <c r="B40">
         <v>2120</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B40,TextData!A:A))</f>
+        <v>呪い</v>
+      </c>
+      <c r="D40" t="s">
         <v>41</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>4</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
         <v>42</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
       <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>0.2</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40" t="str">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="str">
         <f>TextData!B38</f>
         <v>呪い</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>2130</v>
       </c>
       <c r="B41">
         <v>2130</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B41,TextData!A:A))</f>
+        <v>挑発</v>
+      </c>
+      <c r="D41" t="s">
         <v>43</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
         <v>15</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3507,238 +3664,258 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41" t="str">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="str">
         <f>TextData!B39</f>
         <v>挑発</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>2140</v>
       </c>
       <c r="B42">
         <v>2140</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B42,TextData!A:A))</f>
+        <v>凍結</v>
+      </c>
+      <c r="D42" t="s">
         <v>44</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>4</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>45</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42" t="str">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="str">
         <f>TextData!B40</f>
         <v>凍結</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>2150</v>
       </c>
       <c r="B43">
         <v>2150</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B43,TextData!A:A))</f>
+        <v>スタン</v>
+      </c>
+      <c r="D43" t="s">
         <v>46</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>2</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
         <v>47</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43" t="str">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="str">
         <f>TextData!B41</f>
         <v>スタン</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>2160</v>
       </c>
       <c r="B44">
         <v>2160</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B44,TextData!A:A))</f>
+        <v>鈍足</v>
+      </c>
+      <c r="D44" t="s">
         <v>48</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>2</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
         <v>49</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44" t="str">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" t="str">
         <f>TextData!B42</f>
         <v>鈍足</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>2170</v>
       </c>
       <c r="B45">
         <v>2170</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B45,TextData!A:A))</f>
+        <v>暗闇</v>
+      </c>
+      <c r="D45" t="s">
         <v>50</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
       <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
         <v>51</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>0.5</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45" t="str">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="str">
         <f>TextData!B43</f>
         <v>暗闇</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>2180</v>
       </c>
       <c r="B46">
         <v>2180</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B46,TextData!A:A))</f>
+        <v>状態異常回避</v>
+      </c>
+      <c r="D46" t="s">
         <v>52</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>4</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
         <v>15</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3753,40 +3930,44 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46" t="str">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="str">
         <f>TextData!B44</f>
         <v>状態異常回避</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>2190</v>
       </c>
       <c r="B47">
         <v>2190</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B47,TextData!A:A))</f>
+        <v>対象範囲延長</v>
+      </c>
+      <c r="D47" t="s">
         <v>53</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
       <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
         <v>15</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3803,38 +3984,42 @@
       <c r="N47">
         <v>0</v>
       </c>
-      <c r="O47" t="str">
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="str">
         <f>TextData!B45</f>
         <v>対象範囲延長</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>2200</v>
       </c>
       <c r="B48">
         <v>2200</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B48,TextData!A:A))</f>
+        <v>祝福</v>
+      </c>
+      <c r="D48" t="s">
         <v>32</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>2</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
         <v>15</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3849,40 +4034,44 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48" t="str">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48" t="str">
         <f>TextData!B46</f>
         <v>祝福</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>2210</v>
       </c>
       <c r="B49">
         <v>2210</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B49,TextData!A:A))</f>
+        <v>アフターヒール</v>
+      </c>
+      <c r="D49" t="s">
         <v>32</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
         <v>15</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3897,88 +4086,96 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49" t="str">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49" t="str">
         <f>TextData!B47</f>
         <v>アフターヒール</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>2220</v>
       </c>
       <c r="B50">
         <v>2220</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B50,TextData!A:A))</f>
+        <v>即死付与</v>
+      </c>
+      <c r="D50" t="s">
         <v>14</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
       <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
         <v>15</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50" t="str">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50" t="str">
         <f>TextData!B48</f>
         <v>即死付与</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>2230</v>
       </c>
       <c r="B51">
         <v>2230</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B51,TextData!A:A))</f>
+        <v>同時回復</v>
+      </c>
+      <c r="D51" t="s">
         <v>32</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
       <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
         <v>15</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3993,40 +4190,44 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51" t="str">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51" t="str">
         <f>TextData!B49</f>
         <v>同時回復</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>2240</v>
       </c>
       <c r="B52">
         <v>2240</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B52,TextData!A:A))</f>
+        <v>必中</v>
+      </c>
+      <c r="D52" t="s">
         <v>24</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>4</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
         <v>15</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4041,40 +4242,44 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52" t="str">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52" t="str">
         <f>TextData!B50</f>
         <v>必中</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>2250</v>
       </c>
       <c r="B53">
         <v>2250</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B53,TextData!A:A))</f>
+        <v>アタックヒール</v>
+      </c>
+      <c r="D53" t="s">
         <v>54</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
         <v>15</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -4089,40 +4294,44 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53" t="str">
         <f>TextData!B51</f>
         <v>アタックヒール</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>2260</v>
       </c>
       <c r="B54">
         <v>2260</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B54,TextData!A:A))</f>
+        <v>反骨精神</v>
+      </c>
+      <c r="D54" t="s">
         <v>55</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
       <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
         <v>15</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -4137,40 +4346,44 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54" t="str">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54" t="str">
         <f>TextData!B52</f>
         <v>反骨精神</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>2270</v>
       </c>
       <c r="B55">
         <v>2270</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B55,TextData!A:A))</f>
+        <v>アンデッド</v>
+      </c>
+      <c r="D55" t="s">
         <v>56</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
         <v>15</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4185,40 +4398,44 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55" t="str">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55" t="str">
         <f>TextData!B53</f>
         <v>アンデッド</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>2280</v>
       </c>
       <c r="B56">
         <v>2280</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B56,TextData!A:A))</f>
+        <v>アクセル</v>
+      </c>
+      <c r="D56" t="s">
         <v>16</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
         <v>15</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4233,43 +4450,47 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56" t="str">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56" t="str">
         <f>TextData!B54</f>
         <v>アクセル</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>2290</v>
       </c>
       <c r="B57">
         <v>2290</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B57,TextData!A:A))</f>
+        <v>ダメージ威力アップ</v>
+      </c>
+      <c r="D57" t="s">
         <v>20</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
         <v>15</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -4281,40 +4502,44 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57" t="str">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57" t="str">
         <f>TextData!B55</f>
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>2300</v>
       </c>
       <c r="B58">
         <v>2300</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B58,TextData!A:A))</f>
+        <v>狙われ率アップ</v>
+      </c>
+      <c r="D58" t="s">
         <v>43</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
         <v>15</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -4329,40 +4554,44 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58" t="str">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58" t="str">
         <f>TextData!B56</f>
         <v>狙われ率アップ</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>2310</v>
       </c>
       <c r="B59">
         <v>2310</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B59,TextData!A:A))</f>
+        <v>狙われ率ダウン</v>
+      </c>
+      <c r="D59" t="s">
         <v>57</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
         <v>15</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4377,40 +4606,44 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59" t="str">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59" t="str">
         <f>TextData!B57</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>2320</v>
       </c>
       <c r="B60">
         <v>2320</v>
       </c>
-      <c r="C60">
-        <v>1</v>
+      <c r="C60" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B60,TextData!A:A))</f>
+        <v>バフ解除</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
         <v>15</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -4425,46 +4658,50 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60" t="str">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60" t="str">
         <f>TextData!B58</f>
         <v>バフ解除</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>2330</v>
       </c>
       <c r="B61">
         <v>2330</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B61,TextData!A:A))</f>
+        <v>貫通</v>
+      </c>
+      <c r="D61" t="s">
         <v>20</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
         <v>15</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -4473,46 +4710,50 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61" t="str">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61" t="str">
         <f>TextData!B59</f>
         <v>貫通</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>2340</v>
       </c>
       <c r="B62">
         <v>2340</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B62,TextData!A:A))</f>
+        <v>対象列化</v>
+      </c>
+      <c r="D62" t="s">
         <v>20</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
         <v>15</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -4521,46 +4762,50 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62" t="str">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62" t="str">
         <f>TextData!B60</f>
         <v>対象列化</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>2341</v>
       </c>
       <c r="B63">
         <v>2341</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B63,TextData!A:A))</f>
+        <v>対象全体化</v>
+      </c>
+      <c r="D63" t="s">
         <v>20</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
         <v>15</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -4569,46 +4814,50 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63" t="str">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63" t="str">
         <f>TextData!B61</f>
         <v>対象全体化</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>2350</v>
       </c>
       <c r="B64">
         <v>2350</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B64,TextData!A:A))</f>
+        <v>聖棺</v>
+      </c>
+      <c r="D64" t="s">
         <v>20</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
         <v>15</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -4617,46 +4866,50 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64" t="str">
         <f>TextData!B62</f>
         <v>聖棺</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>2360</v>
       </c>
       <c r="B65">
         <v>2360</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B65,TextData!A:A))</f>
+        <v>追加ダメージ</v>
+      </c>
+      <c r="D65" t="s">
         <v>20</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
         <v>15</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -4665,46 +4918,50 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65" t="str">
         <f>TextData!B63</f>
         <v>追加ダメージ</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>2370</v>
       </c>
       <c r="B66">
         <v>2370</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B66,TextData!A:A))</f>
+        <v>追加効果</v>
+      </c>
+      <c r="D66" t="s">
         <v>20</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
         <v>15</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -4713,46 +4970,50 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66" t="str">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66" t="str">
         <f>TextData!B64</f>
         <v>追加効果</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>2380</v>
       </c>
       <c r="B67">
         <v>2380</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B67,TextData!A:A))</f>
+        <v>透明</v>
+      </c>
+      <c r="D67" t="s">
         <v>20</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
         <v>15</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -4761,57 +5022,64 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67" t="str">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67" t="str">
         <f>TextData!B65</f>
         <v>透明</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>2390</v>
       </c>
       <c r="B68">
         <v>2390</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B68,TextData!A:A))</f>
+        <v>沈黙</v>
+      </c>
+      <c r="D68" t="s">
         <v>20</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
         <v>15</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>1</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68" t="str">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68" t="str">
         <f>TextData!B66</f>
         <v>沈黙</v>
       </c>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -342,10 +342,10 @@
     <t>拘束対象への付与ダメージアップ</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>静止状態になり攻撃を受けると反撃ダメージ</t>
+    <t>カウンタ</t>
+  </si>
+  <si>
+    <t>攻撃を受けると反撃ダメージ</t>
   </si>
   <si>
     <t>CAダメージ</t>
@@ -605,8 +605,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -614,14 +614,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -635,26 +627,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -666,16 +650,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,8 +671,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,10 +702,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,21 +718,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -749,7 +749,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,7 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,7 +784,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,19 +808,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,37 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +868,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,73 +952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,11 +975,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,32 +1005,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,11 +1038,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,7 +1071,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1080,7 +1080,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,127 +1089,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1538,8 +1538,8 @@
   <sheetPr/>
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3013,13 +3013,13 @@
       </c>
       <c r="C29" t="str">
         <f>INDEX(TextData!B:B,MATCH(B29,TextData!A:A))</f>
-        <v>CA</v>
+        <v>カウンタ</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="P29" t="str">
         <f>TextData!B27</f>
-        <v>CA</v>
+        <v>カウンタ</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -5096,8 +5096,8 @@
   <sheetPr/>
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="196">
   <si>
     <t>Id</t>
   </si>
@@ -580,6 +580,12 @@
   </si>
   <si>
     <t>消費Mp0以外のMagic使用不可</t>
+  </si>
+  <si>
+    <t>不治</t>
+  </si>
+  <si>
+    <t>Hp回復しなくなる</t>
   </si>
   <si>
     <t>なし</t>
@@ -605,9 +611,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -616,6 +622,73 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -628,7 +701,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,28 +739,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -681,51 +747,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,24 +762,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,19 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,7 +802,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,25 +832,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +916,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,97 +952,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,7 +976,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,35 +996,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,17 +1026,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,6 +1045,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1071,16 +1077,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,127 +1095,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1536,9 +1542,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -3019,7 +3025,7 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -5082,6 +5088,58 @@
       <c r="P68" t="str">
         <f>TextData!B66</f>
         <v>沈黙</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69">
+        <v>2400</v>
+      </c>
+      <c r="B69">
+        <v>2400</v>
+      </c>
+      <c r="C69" t="str">
+        <f>INDEX(TextData!B:B,MATCH(B69,TextData!A:A))</f>
+        <v>不治</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69" t="str">
+        <f>TextData!B67</f>
+        <v>不治</v>
       </c>
     </row>
   </sheetData>
@@ -5094,10 +5152,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -5829,6 +5887,17 @@
       </c>
       <c r="C66" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>2400</v>
+      </c>
+      <c r="B67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5858,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5866,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5874,7 +5943,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5882,7 +5951,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5890,7 +5959,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5898,7 +5967,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/States.xlsx
+++ b/Assets/Data/States.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="198">
   <si>
     <t>Id</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Abnormal</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>DeBuff</t>
   </si>
   <si>
     <t>HitCheck</t>
@@ -611,10 +617,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -626,13 +632,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -640,7 +639,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,14 +660,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -668,9 +667,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,24 +691,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,11 +705,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -738,8 +728,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,17 +768,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,7 +784,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,13 +898,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,91 +952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,61 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,11 +978,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,32 +1008,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,26 +1022,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,6 +1040,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1077,145 +1083,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1542,27 +1548,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
+    <col min="3" max="3" width="21.8181818181818" customWidth="1"/>
     <col min="4" max="4" width="15.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="14.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="31.1818181818182" customWidth="1"/>
-    <col min="8" max="9" width="13.9090909090909" customWidth="1"/>
-    <col min="10" max="10" width="5.72727272727273" customWidth="1"/>
+    <col min="5" max="5" width="6.54545454545455" customWidth="1"/>
+    <col min="6" max="6" width="5.54545454545455" customWidth="1"/>
+    <col min="7" max="7" width="4.81818181818182" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="3.90909090909091" customWidth="1"/>
+    <col min="10" max="10" width="8.63636363636364" customWidth="1"/>
     <col min="11" max="11" width="8.54545454545454" customWidth="1"/>
-    <col min="12" max="13" width="11.2727272727273" customWidth="1"/>
-    <col min="14" max="14" width="16.7272727272727" customWidth="1"/>
-    <col min="15" max="15" width="5.72727272727273" customWidth="1"/>
+    <col min="12" max="15" width="11.2727272727273" customWidth="1"/>
+    <col min="16" max="16" width="16.7272727272727" customWidth="1"/>
+    <col min="17" max="17" width="5.72727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1605,8 +1613,14 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1618,7 +1632,7 @@
         <v>戦闘不能</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1627,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1653,12 +1667,18 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" t="str">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="str">
         <f>TextData!C2</f>
         <v>""</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1670,7 +1690,7 @@
         <v>待機</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1679,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1703,14 +1723,20 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="str">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="str">
         <f>TextData!B3</f>
         <v>待機</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>201</v>
       </c>
@@ -1731,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1757,12 +1783,18 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" t="str">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="str">
         <f>TextData!B4</f>
         <v>炎適正</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>202</v>
       </c>
@@ -1783,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1809,12 +1841,18 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" t="str">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="str">
         <f>TextData!B5</f>
         <v>雷適性</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>203</v>
       </c>
@@ -1835,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1861,12 +1899,18 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" t="str">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="str">
         <f>TextData!B6</f>
         <v>氷適性</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>204</v>
       </c>
@@ -1887,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1913,12 +1957,18 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" t="str">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="str">
         <f>TextData!B7</f>
         <v>光適性</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>205</v>
       </c>
@@ -1939,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1965,12 +2015,18 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" t="str">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="str">
         <f>TextData!B8</f>
         <v>闇適性</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1010</v>
       </c>
@@ -1982,17 +2038,17 @@
         <v>神化</v>
       </c>
       <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
@@ -2015,14 +2071,20 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" t="str">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="str">
         <f>TextData!B9</f>
         <v>神化</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1011</v>
       </c>
@@ -2034,17 +2096,17 @@
         <v>全ステータスアップ</v>
       </c>
       <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
@@ -2061,20 +2123,26 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="str">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10" t="str">
         <f>TextData!B10</f>
         <v>全ステータスアップ</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1020</v>
       </c>
@@ -2086,7 +2154,7 @@
         <v>最大Hpアップ</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2095,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2113,20 +2181,26 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11" t="str">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" t="str">
         <f>TextData!B11</f>
         <v>最大Hpアップ</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1030</v>
       </c>
@@ -2138,7 +2212,7 @@
         <v>最大Mpアップ</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2147,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2165,20 +2239,26 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="str">
         <f>TextData!B12</f>
         <v>最大Mpアップ</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1040</v>
       </c>
@@ -2190,7 +2270,7 @@
         <v>攻撃アップ</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2199,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2217,20 +2297,26 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="str">
         <f>TextData!B13</f>
         <v>攻撃アップ</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1041</v>
       </c>
@@ -2242,7 +2328,7 @@
         <v>攻撃ダウン</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2251,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2272,17 +2358,23 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" t="str">
         <f>TextData!B14</f>
         <v>攻撃ダウン</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1050</v>
       </c>
@@ -2294,7 +2386,7 @@
         <v>防御アップ</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2303,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2321,20 +2413,26 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" t="str">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" t="str">
         <f>TextData!B15</f>
         <v>防御アップ</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1051</v>
       </c>
@@ -2346,7 +2444,7 @@
         <v>防御ダウン</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2355,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2376,17 +2474,23 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16" t="str">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16" t="str">
         <f>TextData!B16</f>
         <v>防御ダウン</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>1052</v>
       </c>
@@ -2398,7 +2502,7 @@
         <v>防御ブレイク</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2407,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2428,17 +2532,23 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17" t="str">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" t="str">
         <f>TextData!B17</f>
         <v>防御ブレイク</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>1060</v>
       </c>
@@ -2450,7 +2560,7 @@
         <v>速度アップ</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2459,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2477,20 +2587,26 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="str">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" t="str">
         <f>TextData!B18</f>
         <v>速度アップ</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>1070</v>
       </c>
@@ -2502,7 +2618,7 @@
         <v>致命攻撃発生率アップ</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2511,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2529,20 +2645,26 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19" t="str">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19" t="str">
         <f>TextData!B19</f>
         <v>致命攻撃発生率アップ</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>1080</v>
       </c>
@@ -2554,7 +2676,7 @@
         <v>命中アップ</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2563,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2581,20 +2703,26 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20" t="str">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20" t="str">
         <f>TextData!B20</f>
         <v>命中アップ</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>1081</v>
       </c>
@@ -2606,7 +2734,7 @@
         <v>命中アップ</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2615,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2633,20 +2761,26 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21" t="str">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21" t="str">
         <f>TextData!B21</f>
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>1090</v>
       </c>
@@ -2658,7 +2792,7 @@
         <v>回避アップ</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2667,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2685,20 +2819,26 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22" t="str">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" t="str">
         <f>TextData!B21</f>
         <v>回避アップ</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>1091</v>
       </c>
@@ -2710,7 +2850,7 @@
         <v>回避アップ</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2719,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2737,20 +2877,26 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23" t="str">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23" t="str">
         <f>TextData!B22</f>
         <v>回避ダウン</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>1100</v>
       </c>
@@ -2762,7 +2908,7 @@
         <v>ダメージカット</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2771,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2789,20 +2935,26 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24" t="str">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24" t="str">
         <f>TextData!B23</f>
         <v>ダメージカット</v>
       </c>
     </row>
-    <row r="25" ht="12" customHeight="1" spans="1:16">
+    <row r="25" ht="12" customHeight="1" spans="1:18">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -2814,7 +2966,7 @@
         <v>火傷</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2823,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2841,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2849,12 +3001,18 @@
       <c r="O25">
         <v>1</v>
       </c>
-      <c r="P25" t="str">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25" t="str">
         <f>TextData!B24</f>
         <v>火傷</v>
       </c>
     </row>
-    <row r="26" ht="12" customHeight="1" spans="1:16">
+    <row r="26" ht="12" customHeight="1" spans="1:18">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -2866,7 +3024,7 @@
         <v>火傷</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2875,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2893,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2901,12 +3059,18 @@
       <c r="O26">
         <v>1</v>
       </c>
-      <c r="P26" t="str">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26" t="str">
         <f>TextData!B25</f>
         <v>拘束</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -2918,7 +3082,7 @@
         <v>拘束</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2927,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2945,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2953,12 +3117,18 @@
       <c r="O27">
         <v>1</v>
       </c>
-      <c r="P27" t="str">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27" t="str">
         <f>TextData!B25</f>
         <v>拘束</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -2970,7 +3140,7 @@
         <v>拘束ダメージ</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2979,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3003,14 +3173,20 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28" t="str">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28" t="str">
         <f>TextData!B26</f>
         <v>拘束ダメージ</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>2030</v>
       </c>
@@ -3022,7 +3198,7 @@
         <v>カウンタ</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3031,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3055,14 +3231,20 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29" t="str">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29" t="str">
         <f>TextData!B27</f>
         <v>カウンタ</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>2031</v>
       </c>
@@ -3074,7 +3256,7 @@
         <v>CAダメージ</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3083,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3107,14 +3289,20 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30" t="str">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30" t="str">
         <f>TextData!B28</f>
         <v>CAダメージ</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>2032</v>
       </c>
@@ -3126,7 +3314,7 @@
         <v>CAシェル</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3135,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3159,14 +3347,20 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31" t="str">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31" t="str">
         <f>TextData!B29</f>
         <v>CAシェル</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -3178,7 +3372,7 @@
         <v>リジェネ</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3187,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3211,14 +3405,20 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32" t="str">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32" t="str">
         <f>TextData!B30</f>
         <v>リジェネ</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>2050</v>
       </c>
@@ -3230,7 +3430,7 @@
         <v>攻撃無効</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -3239,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3263,14 +3463,20 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33" t="str">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33" t="str">
         <f>TextData!B31</f>
         <v>攻撃無効</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>2060</v>
       </c>
@@ -3282,7 +3488,7 @@
         <v>ドレイン</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3291,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3315,14 +3521,20 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34" t="str">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34" t="str">
         <f>TextData!B32</f>
         <v>ドレイン</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>2070</v>
       </c>
@@ -3334,7 +3546,7 @@
         <v>状態異常CA</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3343,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3367,14 +3579,20 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35" t="str">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35" t="str">
         <f>TextData!B33</f>
         <v>状態異常CA</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>2080</v>
       </c>
@@ -3386,7 +3604,7 @@
         <v>プリズム</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3395,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3419,14 +3637,20 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36" t="str">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36" t="str">
         <f>TextData!B34</f>
         <v>プリズム</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>2090</v>
       </c>
@@ -3438,7 +3662,7 @@
         <v>パッシブ無効</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -3447,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3465,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3473,12 +3697,18 @@
       <c r="O37">
         <v>1</v>
       </c>
-      <c r="P37" t="str">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37" t="str">
         <f>TextData!B35</f>
         <v>パッシブ無効</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>2100</v>
       </c>
@@ -3490,7 +3720,7 @@
         <v>居合</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -3499,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3523,14 +3753,20 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38" t="str">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38" t="str">
         <f>TextData!B36</f>
         <v>居合</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>2110</v>
       </c>
@@ -3542,7 +3778,7 @@
         <v>高速</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3551,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3575,14 +3811,20 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39" t="str">
         <f>TextData!B37</f>
         <v>高速</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>2120</v>
       </c>
@@ -3594,7 +3836,7 @@
         <v>呪い</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -3603,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3621,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3629,12 +3871,18 @@
       <c r="O40">
         <v>1</v>
       </c>
-      <c r="P40" t="str">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40" t="str">
         <f>TextData!B38</f>
         <v>呪い</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>2130</v>
       </c>
@@ -3646,7 +3894,7 @@
         <v>挑発</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3655,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -3673,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3681,12 +3929,18 @@
       <c r="O41">
         <v>1</v>
       </c>
-      <c r="P41" t="str">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41" t="str">
         <f>TextData!B39</f>
         <v>挑発</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>2140</v>
       </c>
@@ -3698,7 +3952,7 @@
         <v>凍結</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -3707,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3725,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3733,12 +3987,18 @@
       <c r="O42">
         <v>1</v>
       </c>
-      <c r="P42" t="str">
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42" t="str">
         <f>TextData!B40</f>
         <v>凍結</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>2150</v>
       </c>
@@ -3750,7 +4010,7 @@
         <v>スタン</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -3759,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -3777,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3785,12 +4045,18 @@
       <c r="O43">
         <v>1</v>
       </c>
-      <c r="P43" t="str">
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43" t="str">
         <f>TextData!B41</f>
         <v>スタン</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>2160</v>
       </c>
@@ -3802,7 +4068,7 @@
         <v>鈍足</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -3811,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3829,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3837,12 +4103,18 @@
       <c r="O44">
         <v>1</v>
       </c>
-      <c r="P44" t="str">
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44" t="str">
         <f>TextData!B42</f>
         <v>鈍足</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>2170</v>
       </c>
@@ -3854,7 +4126,7 @@
         <v>暗闇</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3863,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -3881,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3889,12 +4161,18 @@
       <c r="O45">
         <v>1</v>
       </c>
-      <c r="P45" t="str">
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45" t="str">
         <f>TextData!B43</f>
         <v>暗闇</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>2180</v>
       </c>
@@ -3906,7 +4184,7 @@
         <v>状態異常回避</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -3915,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3939,14 +4217,20 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46" t="str">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46" t="str">
         <f>TextData!B44</f>
         <v>状態異常回避</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>2190</v>
       </c>
@@ -3958,7 +4242,7 @@
         <v>対象範囲延長</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3967,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3993,12 +4277,18 @@
       <c r="O47">
         <v>0</v>
       </c>
-      <c r="P47" t="str">
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" t="str">
         <f>TextData!B45</f>
         <v>対象範囲延長</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>2200</v>
       </c>
@@ -4010,7 +4300,7 @@
         <v>祝福</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -4019,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4043,14 +4333,20 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="P48" t="str">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48" t="str">
         <f>TextData!B46</f>
         <v>祝福</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>2210</v>
       </c>
@@ -4062,7 +4358,7 @@
         <v>アフターヒール</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4071,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4095,14 +4391,20 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="P49" t="str">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49" t="str">
         <f>TextData!B47</f>
         <v>アフターヒール</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>2220</v>
       </c>
@@ -4114,7 +4416,7 @@
         <v>即死付与</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4123,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4141,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -4149,12 +4451,18 @@
       <c r="O50">
         <v>1</v>
       </c>
-      <c r="P50" t="str">
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50" t="str">
         <f>TextData!B48</f>
         <v>即死付与</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>2230</v>
       </c>
@@ -4166,7 +4474,7 @@
         <v>同時回復</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -4175,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4199,14 +4507,20 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51" t="str">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51" t="str">
         <f>TextData!B49</f>
         <v>同時回復</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>2240</v>
       </c>
@@ -4218,7 +4532,7 @@
         <v>必中</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -4227,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -4251,14 +4565,20 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="P52" t="str">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52" t="str">
         <f>TextData!B50</f>
         <v>必中</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>2250</v>
       </c>
@@ -4270,7 +4590,7 @@
         <v>アタックヒール</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4279,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -4303,14 +4623,20 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="P53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53" t="str">
         <f>TextData!B51</f>
         <v>アタックヒール</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>2260</v>
       </c>
@@ -4322,7 +4648,7 @@
         <v>反骨精神</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -4331,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -4355,14 +4681,20 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54" t="str">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54" t="str">
         <f>TextData!B52</f>
         <v>反骨精神</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>2270</v>
       </c>
@@ -4374,7 +4706,7 @@
         <v>アンデッド</v>
       </c>
       <c r="D55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4383,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -4407,14 +4739,20 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55" t="str">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55" t="str">
         <f>TextData!B53</f>
         <v>アンデッド</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>2280</v>
       </c>
@@ -4426,7 +4764,7 @@
         <v>アクセル</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4435,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -4459,14 +4797,20 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56" t="str">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56" t="str">
         <f>TextData!B54</f>
         <v>アクセル</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>2290</v>
       </c>
@@ -4478,7 +4822,7 @@
         <v>ダメージ威力アップ</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4487,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -4505,20 +4849,26 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57" t="str">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57" t="str">
         <f>TextData!B55</f>
         <v>ダメージ威力アップ</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>2300</v>
       </c>
@@ -4530,7 +4880,7 @@
         <v>狙われ率アップ</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4539,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -4563,14 +4913,20 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58" t="str">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58" t="str">
         <f>TextData!B56</f>
         <v>狙われ率アップ</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>2310</v>
       </c>
@@ -4582,7 +4938,7 @@
         <v>狙われ率ダウン</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4591,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -4615,14 +4971,20 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59" t="str">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59" t="str">
         <f>TextData!B57</f>
         <v>狙われ率ダウン</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>2320</v>
       </c>
@@ -4643,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -4667,14 +5029,20 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60" t="str">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60" t="str">
         <f>TextData!B58</f>
         <v>バフ解除</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>2330</v>
       </c>
@@ -4686,7 +5054,7 @@
         <v>貫通</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4695,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -4719,14 +5087,20 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61" t="str">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61" t="str">
         <f>TextData!B59</f>
         <v>貫通</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>2340</v>
       </c>
@@ -4738,7 +5112,7 @@
         <v>対象列化</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4747,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -4771,14 +5145,20 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62" t="str">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62" t="str">
         <f>TextData!B60</f>
         <v>対象列化</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>2341</v>
       </c>
@@ -4790,7 +5170,7 @@
         <v>対象全体化</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4799,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -4823,14 +5203,20 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63" t="str">
         <f>TextData!B61</f>
         <v>対象全体化</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>2350</v>
       </c>
@@ -4842,7 +5228,7 @@
         <v>聖棺</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4851,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -4875,14 +5261,20 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64" t="str">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64" t="str">
         <f>TextData!B62</f>
         <v>聖棺</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>2360</v>
       </c>
@@ -4894,7 +5286,7 @@
         <v>追加ダメージ</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4903,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -4927,14 +5319,20 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="P65" t="str">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65" t="str">
         <f>TextData!B63</f>
         <v>追加ダメージ</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>2370</v>
       </c>
@@ -4946,7 +5344,7 @@
         <v>追加効果</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4955,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -4979,14 +5377,20 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66" t="str">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0